--- a/output/msa_df_accuracy_table.xlsx
+++ b/output/msa_df_accuracy_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlarriva\Documents\GitHub\inflation_cr_expansion\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF79A36C-FBC7-4115-A046-9036D03E8B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC59AB6-731C-4B67-A9B1-D540722B9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msa_df_flag" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>Atlanta</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Chicago</t>
   </si>
   <si>
-    <t>Columbus</t>
-  </si>
-  <si>
     <t>Dallas</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
   </si>
   <si>
     <t>Houston</t>
-  </si>
-  <si>
-    <t>Indianapolis</t>
-  </si>
-  <si>
-    <t>Jacksonville</t>
   </si>
   <si>
     <t>LosAngeles</t>
@@ -81,16 +72,10 @@
     <t>Phoenix</t>
   </si>
   <si>
-    <t>SanAntonio</t>
-  </si>
-  <si>
     <t>SanDiego</t>
   </si>
   <si>
     <t>SanFrancisco</t>
-  </si>
-  <si>
-    <t>SanJose</t>
   </si>
   <si>
     <t>Seattle</t>
@@ -123,10 +108,22 @@
     <t>capture count</t>
   </si>
   <si>
-    <t>total upward move</t>
+    <t>cap rate increases</t>
   </si>
   <si>
-    <t>upward captured</t>
+    <t>correctly flagged increases</t>
+  </si>
+  <si>
+    <t>total expansion bps</t>
+  </si>
+  <si>
+    <t>bps captured</t>
+  </si>
+  <si>
+    <t>% of all expansion bps captured</t>
+  </si>
+  <si>
+    <t>false alarms</t>
   </si>
 </sst>
 </file>
@@ -629,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -637,6 +634,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -683,17 +682,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1024,20 +1013,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1052,52 +1044,52 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2142,7 +2134,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2163,46 +2155,46 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>7</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>8</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>9</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>10</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>11</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>12</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>13</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>14</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>15</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>16</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>17</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>18</v>
-      </c>
-      <c r="U19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -3251,7 +3243,7 @@
         <v>True Negative</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:Y37" si="0">IF(AND(C20=TRUE(),C2=TRUE()),"True Positive",IF(AND(C20=FALSE(),C2=FALSE()),"True Negative",IF(AND(C2=TRUE(),C20=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="C37:U37" si="0">IF(AND(C20=TRUE(),C2=TRUE()),"True Positive",IF(AND(C20=FALSE(),C2=FALSE()),"True Negative",IF(AND(C2=TRUE(),C20=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="D37" t="str">
@@ -3329,7 +3321,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
-        <f t="shared" ref="B38:Y38" si="1">IF(AND(B21=TRUE(),B3=TRUE()),"True Positive",IF(AND(B21=FALSE(),B3=FALSE()),"True Negative",IF(AND(B3=TRUE(),B21=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B38:U38" si="1">IF(AND(B21=TRUE(),B3=TRUE()),"True Positive",IF(AND(B21=FALSE(),B3=FALSE()),"True Negative",IF(AND(B3=TRUE(),B21=FALSE()),"False Positive","False Negative")))</f>
         <v>False Positive</v>
       </c>
       <c r="C38" t="str">
@@ -3411,7 +3403,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
-        <f t="shared" ref="B39:Y39" si="2">IF(AND(B22=TRUE(),B4=TRUE()),"True Positive",IF(AND(B22=FALSE(),B4=FALSE()),"True Negative",IF(AND(B4=TRUE(),B22=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B39:U39" si="2">IF(AND(B22=TRUE(),B4=TRUE()),"True Positive",IF(AND(B22=FALSE(),B4=FALSE()),"True Negative",IF(AND(B4=TRUE(),B22=FALSE()),"False Positive","False Negative")))</f>
         <v>False Positive</v>
       </c>
       <c r="C39" t="str">
@@ -3493,7 +3485,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
-        <f t="shared" ref="B40:Y40" si="3">IF(AND(B23=TRUE(),B5=TRUE()),"True Positive",IF(AND(B23=FALSE(),B5=FALSE()),"True Negative",IF(AND(B5=TRUE(),B23=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B40:U40" si="3">IF(AND(B23=TRUE(),B5=TRUE()),"True Positive",IF(AND(B23=FALSE(),B5=FALSE()),"True Negative",IF(AND(B5=TRUE(),B23=FALSE()),"False Positive","False Negative")))</f>
         <v>True Positive</v>
       </c>
       <c r="C40" t="str">
@@ -3575,7 +3567,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
-        <f t="shared" ref="B41:Y41" si="4">IF(AND(B24=TRUE(),B6=TRUE()),"True Positive",IF(AND(B24=FALSE(),B6=FALSE()),"True Negative",IF(AND(B6=TRUE(),B24=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B41:U41" si="4">IF(AND(B24=TRUE(),B6=TRUE()),"True Positive",IF(AND(B24=FALSE(),B6=FALSE()),"True Negative",IF(AND(B6=TRUE(),B24=FALSE()),"False Positive","False Negative")))</f>
         <v>False Negative</v>
       </c>
       <c r="C41" t="str">
@@ -3657,7 +3649,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
-        <f t="shared" ref="B42:Y42" si="5">IF(AND(B25=TRUE(),B7=TRUE()),"True Positive",IF(AND(B25=FALSE(),B7=FALSE()),"True Negative",IF(AND(B7=TRUE(),B25=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B42:U42" si="5">IF(AND(B25=TRUE(),B7=TRUE()),"True Positive",IF(AND(B25=FALSE(),B7=FALSE()),"True Negative",IF(AND(B7=TRUE(),B25=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C42" t="str">
@@ -3739,7 +3731,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
-        <f t="shared" ref="B43:Y43" si="6">IF(AND(B26=TRUE(),B8=TRUE()),"True Positive",IF(AND(B26=FALSE(),B8=FALSE()),"True Negative",IF(AND(B8=TRUE(),B26=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B43:U43" si="6">IF(AND(B26=TRUE(),B8=TRUE()),"True Positive",IF(AND(B26=FALSE(),B8=FALSE()),"True Negative",IF(AND(B8=TRUE(),B26=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C43" t="str">
@@ -3821,7 +3813,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
-        <f t="shared" ref="B44:Y44" si="7">IF(AND(B27=TRUE(),B9=TRUE()),"True Positive",IF(AND(B27=FALSE(),B9=FALSE()),"True Negative",IF(AND(B9=TRUE(),B27=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B44:U44" si="7">IF(AND(B27=TRUE(),B9=TRUE()),"True Positive",IF(AND(B27=FALSE(),B9=FALSE()),"True Negative",IF(AND(B9=TRUE(),B27=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C44" t="str">
@@ -3903,7 +3895,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
-        <f t="shared" ref="B45:Y45" si="8">IF(AND(B28=TRUE(),B10=TRUE()),"True Positive",IF(AND(B28=FALSE(),B10=FALSE()),"True Negative",IF(AND(B10=TRUE(),B28=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B45:U45" si="8">IF(AND(B28=TRUE(),B10=TRUE()),"True Positive",IF(AND(B28=FALSE(),B10=FALSE()),"True Negative",IF(AND(B10=TRUE(),B28=FALSE()),"False Positive","False Negative")))</f>
         <v>False Negative</v>
       </c>
       <c r="C45" t="str">
@@ -3985,7 +3977,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
-        <f t="shared" ref="B46:Y46" si="9">IF(AND(B29=TRUE(),B11=TRUE()),"True Positive",IF(AND(B29=FALSE(),B11=FALSE()),"True Negative",IF(AND(B11=TRUE(),B29=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B46:U46" si="9">IF(AND(B29=TRUE(),B11=TRUE()),"True Positive",IF(AND(B29=FALSE(),B11=FALSE()),"True Negative",IF(AND(B11=TRUE(),B29=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C46" t="str">
@@ -4067,7 +4059,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
-        <f t="shared" ref="B47:Y47" si="10">IF(AND(B30=TRUE(),B12=TRUE()),"True Positive",IF(AND(B30=FALSE(),B12=FALSE()),"True Negative",IF(AND(B12=TRUE(),B30=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B47:U47" si="10">IF(AND(B30=TRUE(),B12=TRUE()),"True Positive",IF(AND(B30=FALSE(),B12=FALSE()),"True Negative",IF(AND(B12=TRUE(),B30=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C47" t="str">
@@ -4149,7 +4141,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
-        <f t="shared" ref="B48:Y48" si="11">IF(AND(B31=TRUE(),B13=TRUE()),"True Positive",IF(AND(B31=FALSE(),B13=FALSE()),"True Negative",IF(AND(B13=TRUE(),B31=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B48:U48" si="11">IF(AND(B31=TRUE(),B13=TRUE()),"True Positive",IF(AND(B31=FALSE(),B13=FALSE()),"True Negative",IF(AND(B13=TRUE(),B31=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C48" t="str">
@@ -4231,7 +4223,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
-        <f t="shared" ref="B49:Y49" si="12">IF(AND(B32=TRUE(),B14=TRUE()),"True Positive",IF(AND(B32=FALSE(),B14=FALSE()),"True Negative",IF(AND(B14=TRUE(),B32=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B49:U49" si="12">IF(AND(B32=TRUE(),B14=TRUE()),"True Positive",IF(AND(B32=FALSE(),B14=FALSE()),"True Negative",IF(AND(B14=TRUE(),B32=FALSE()),"False Positive","False Negative")))</f>
         <v>False Positive</v>
       </c>
       <c r="C49" t="str">
@@ -4313,7 +4305,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
-        <f t="shared" ref="B50:Y50" si="13">IF(AND(B33=TRUE(),B15=TRUE()),"True Positive",IF(AND(B33=FALSE(),B15=FALSE()),"True Negative",IF(AND(B15=TRUE(),B33=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B50:U50" si="13">IF(AND(B33=TRUE(),B15=TRUE()),"True Positive",IF(AND(B33=FALSE(),B15=FALSE()),"True Negative",IF(AND(B15=TRUE(),B33=FALSE()),"False Positive","False Negative")))</f>
         <v>False Positive</v>
       </c>
       <c r="C50" t="str">
@@ -4395,7 +4387,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
-        <f t="shared" ref="B51:Y51" si="14">IF(AND(B34=TRUE(),B16=TRUE()),"True Positive",IF(AND(B34=FALSE(),B16=FALSE()),"True Negative",IF(AND(B16=TRUE(),B34=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B51:U51" si="14">IF(AND(B34=TRUE(),B16=TRUE()),"True Positive",IF(AND(B34=FALSE(),B16=FALSE()),"True Negative",IF(AND(B16=TRUE(),B34=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C51" t="str">
@@ -4477,7 +4469,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
-        <f t="shared" ref="B52:Y52" si="15">IF(AND(B35=TRUE(),B17=TRUE()),"True Positive",IF(AND(B35=FALSE(),B17=FALSE()),"True Negative",IF(AND(B17=TRUE(),B35=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B52:U52" si="15">IF(AND(B35=TRUE(),B17=TRUE()),"True Positive",IF(AND(B35=FALSE(),B17=FALSE()),"True Negative",IF(AND(B17=TRUE(),B35=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C52" t="str">
@@ -4559,3292 +4551,3550 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="1">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <f>(COUNTIF(B37:B52,"True Positive")+COUNTIF(B37:B52,"False Negative"))</f>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:U54" si="16">(COUNTIF(C37:C52,"True Positive")+COUNTIF(C37:C52,"False Negative"))</f>
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <f>(COUNTIF(B37:B52,"True Positive"))</f>
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:U55" si="17">(COUNTIF(C37:C52,"True Positive"))</f>
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <f>COUNTIF(B37:B52,"FALSE POSITIVE")</f>
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:U56" si="18">COUNTIF(C37:C52,"FALSE POSITIVE")</f>
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="5">
         <f>COUNTIF(B37:B52,"True Positive")/(COUNTIF(B37:B52,"True Positive")+COUNTIF(B37:B52,"False Negative"))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" ref="C54:Y54" si="16">COUNTIF(C37:C52,"True Positive")/(COUNTIF(C37:C52,"True Positive")+COUNTIF(C37:C52,"False Negative"))</f>
+      <c r="C57" s="5">
+        <f t="shared" ref="C57:U57" si="19">COUNTIF(C37:C52,"True Positive")/(COUNTIF(C37:C52,"True Positive")+COUNTIF(C37:C52,"False Negative"))</f>
         <v>0.5</v>
       </c>
-      <c r="D54" s="1">
-        <f t="shared" si="16"/>
+      <c r="D57" s="5">
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
-      <c r="E54" s="1">
-        <f t="shared" si="16"/>
+      <c r="E57" s="5">
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
-      <c r="F54" s="1">
-        <f t="shared" si="16"/>
+      <c r="F57" s="5">
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G54" s="1">
-        <f t="shared" si="16"/>
+      <c r="G57" s="5">
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
-      <c r="H54" s="1">
-        <f t="shared" si="16"/>
+      <c r="H57" s="5">
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
-      <c r="I54" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <f t="shared" si="16"/>
+      <c r="I57" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
-      <c r="K54" s="1">
-        <f t="shared" si="16"/>
+      <c r="K57" s="5">
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
-      <c r="L54" s="1">
-        <f t="shared" si="16"/>
+      <c r="L57" s="5">
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M54" s="1">
-        <f t="shared" si="16"/>
+      <c r="M57" s="5">
+        <f t="shared" si="19"/>
         <v>0.375</v>
       </c>
-      <c r="N54" s="1">
-        <f t="shared" si="16"/>
+      <c r="N57" s="5">
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
-      <c r="O54" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="P54" s="1">
-        <f t="shared" si="16"/>
+      <c r="O57" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P57" s="5">
+        <f t="shared" si="19"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q54" s="1">
-        <f t="shared" si="16"/>
+      <c r="Q57" s="5">
+        <f t="shared" si="19"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="R54" s="1">
-        <f t="shared" si="16"/>
+      <c r="R57" s="5">
+        <f t="shared" si="19"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="S54" s="1">
-        <f t="shared" si="16"/>
+      <c r="S57" s="5">
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
-      <c r="T54" s="1">
-        <f t="shared" si="16"/>
+      <c r="T57" s="5">
+        <f t="shared" si="19"/>
         <v>0.6</v>
       </c>
-      <c r="U54" s="1">
-        <f t="shared" si="16"/>
+      <c r="U57" s="5">
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55">
-        <f>SUMIF(B83:B99,"&gt;0")</f>
-        <v>1.1728227274413403E-2</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ref="C55:U55" si="17">SUMIF(C83:C99,"&gt;0")</f>
-        <v>1.4135856260950097E-2</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="17"/>
-        <v>1.2528770881662307E-2</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="17"/>
-        <v>1.2405042264297797E-2</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="17"/>
-        <v>7.4630492418465977E-3</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="17"/>
-        <v>1.4728981432317705E-2</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="17"/>
-        <v>3.1449067158868013E-2</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="17"/>
-        <v>1.26374258585321E-2</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="17"/>
-        <v>1.2426630578703191E-2</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="17"/>
-        <v>3.0733308710510596E-2</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="17"/>
-        <v>1.2239872089370801E-2</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="17"/>
-        <v>2.538867170472401E-2</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="17"/>
-        <v>1.0566385682965106E-2</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="17"/>
-        <v>1.3875353692093098E-2</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="17"/>
-        <v>1.8875416004039407E-2</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="17"/>
-        <v>1.7567692831117594E-2</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="17"/>
-        <v>9.0619170852643954E-3</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="17"/>
-        <v>1.3816307166668804E-2</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="17"/>
-        <v>1.5911947976774199E-2</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="17"/>
-        <v>1.2728008300479703E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56">
-        <f>SUMIFS(B84:B99,B84:B99,"&gt;0",B2:B17,"TRUE")</f>
-        <v>6.9871259798676977E-3</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ref="C56:U56" si="18">SUMIFS(C84:C99,C84:C99,"&gt;0",C2:C17,"TRUE")</f>
-        <v>1.1477241039678301E-2</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="18"/>
-        <v>2.3927114357025006E-3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="18"/>
-        <v>1.18051529936581E-2</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="18"/>
-        <v>3.8067644456492994E-3</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="18"/>
-        <v>5.9727758412663062E-3</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="18"/>
-        <v>8.5064267394289045E-3</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="18"/>
-        <v>7.7154771427531965E-3</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="18"/>
-        <v>2.8166369016742694E-2</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="18"/>
-        <v>4.2795705777072951E-3</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="18"/>
-        <v>7.3403915034095032E-3</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="18"/>
-        <v>9.3629209933560054E-4</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="18"/>
-        <v>1.3875353692093098E-2</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="18"/>
-        <v>5.8622847266748962E-3</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="18"/>
-        <v>8.8705768862389761E-4</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="18"/>
-        <v>6.018756373067799E-3</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="18"/>
-        <v>1.1784504480810004E-3</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="18"/>
-        <v>1.2064970931165805E-2</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="18"/>
-        <v>1.06266979332219E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B57" s="1">
-        <f>+B56/B55</f>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="6">
+        <f>SUMIF(B86:B102,"&gt;0")*10000</f>
+        <v>117.28227274413402</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" ref="C58:U58" si="20">SUMIF(C86:C102,"&gt;0")*10000</f>
+        <v>141.35856260950098</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" si="20"/>
+        <v>125.28770881662307</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="20"/>
+        <v>124.05042264297796</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="20"/>
+        <v>74.630492418465977</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="20"/>
+        <v>147.28981432317704</v>
+      </c>
+      <c r="H58" s="6">
+        <f t="shared" si="20"/>
+        <v>314.49067158868013</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="20"/>
+        <v>126.374258585321</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="20"/>
+        <v>124.26630578703191</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="20"/>
+        <v>307.33308710510596</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="20"/>
+        <v>122.39872089370802</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="20"/>
+        <v>253.8867170472401</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="20"/>
+        <v>105.66385682965105</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="20"/>
+        <v>138.75353692093097</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="20"/>
+        <v>188.75416004039405</v>
+      </c>
+      <c r="Q58" s="6">
+        <f t="shared" si="20"/>
+        <v>175.67692831117594</v>
+      </c>
+      <c r="R58" s="6">
+        <f t="shared" si="20"/>
+        <v>90.619170852643961</v>
+      </c>
+      <c r="S58" s="6">
+        <f t="shared" si="20"/>
+        <v>138.16307166668804</v>
+      </c>
+      <c r="T58" s="6">
+        <f t="shared" si="20"/>
+        <v>159.11947976774198</v>
+      </c>
+      <c r="U58" s="6">
+        <f t="shared" si="20"/>
+        <v>127.28008300479702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="6">
+        <f>SUMIFS(B87:B102,B87:B102,"&gt;0",B2:B17,"TRUE")*10000</f>
+        <v>69.871259798676974</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" ref="C59:U59" si="21">SUMIFS(C87:C102,C87:C102,"&gt;0",C2:C17,"TRUE")*10000</f>
+        <v>114.77241039678302</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="21"/>
+        <v>23.927114357025005</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="21"/>
+        <v>118.05152993658099</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="21"/>
+        <v>38.067644456492992</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="21"/>
+        <v>59.727758412663064</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" si="21"/>
+        <v>85.064267394289047</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="21"/>
+        <v>77.154771427531969</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="21"/>
+        <v>281.66369016742692</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="21"/>
+        <v>42.795705777072953</v>
+      </c>
+      <c r="M59" s="6">
+        <f t="shared" si="21"/>
+        <v>73.403915034095036</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" si="21"/>
+        <v>9.3629209933560062</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="21"/>
+        <v>138.75353692093097</v>
+      </c>
+      <c r="P59" s="6">
+        <f t="shared" si="21"/>
+        <v>58.622847266748963</v>
+      </c>
+      <c r="Q59" s="6">
+        <f t="shared" si="21"/>
+        <v>8.8705768862389753</v>
+      </c>
+      <c r="R59" s="6">
+        <f t="shared" si="21"/>
+        <v>60.187563730677986</v>
+      </c>
+      <c r="S59" s="6">
+        <f t="shared" si="21"/>
+        <v>11.784504480810003</v>
+      </c>
+      <c r="T59" s="6">
+        <f t="shared" si="21"/>
+        <v>120.64970931165806</v>
+      </c>
+      <c r="U59" s="6">
+        <f t="shared" si="21"/>
+        <v>106.26697933221899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="5">
+        <f>+B59/B58</f>
         <v>0.5957529485390336</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" ref="C57:U57" si="19">+C56/C55</f>
-        <v>0.81192400572039314</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="19"/>
+      <c r="C60" s="5">
+        <f t="shared" ref="C60:U60" si="22">+C59/C58</f>
+        <v>0.81192400572039303</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="22"/>
         <v>0.1909773479220204</v>
       </c>
-      <c r="E57" s="1">
-        <f t="shared" si="19"/>
+      <c r="E60" s="5">
+        <f t="shared" si="22"/>
         <v>0.95164149723486213</v>
       </c>
-      <c r="F57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.51008164656131683</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.4055118046493762</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="19"/>
+      <c r="F60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.51008164656131671</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.40551180464937625</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="22"/>
         <v>0.27048264091452584</v>
       </c>
-      <c r="I57" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <f t="shared" si="19"/>
+      <c r="I60" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="22"/>
         <v>0.6208824744477407</v>
       </c>
-      <c r="K57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.91647694955505965</v>
-      </c>
-      <c r="L57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.34964177292536469</v>
-      </c>
-      <c r="M57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.28912073812997841</v>
-      </c>
-      <c r="N57" s="1">
-        <f t="shared" si="19"/>
-        <v>8.8610441396727552E-2</v>
-      </c>
-      <c r="O57" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="P57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.31057777616240861</v>
-      </c>
-      <c r="Q57" s="1">
-        <f t="shared" si="19"/>
-        <v>5.0493693005188217E-2</v>
-      </c>
-      <c r="R57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.66418135549429302</v>
-      </c>
-      <c r="S57" s="1">
-        <f t="shared" si="19"/>
+      <c r="K60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.91647694955505954</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34964177292536475</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.28912073812997846</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="22"/>
+        <v>8.8610441396727566E-2</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.31057777616240867</v>
+      </c>
+      <c r="Q60" s="5">
+        <f t="shared" si="22"/>
+        <v>5.049369300518821E-2</v>
+      </c>
+      <c r="R60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.66418135549429291</v>
+      </c>
+      <c r="S60" s="5">
+        <f t="shared" si="22"/>
         <v>8.5294169698539785E-2</v>
       </c>
-      <c r="T57" s="1">
-        <f t="shared" si="19"/>
-        <v>0.75823343243557506</v>
-      </c>
-      <c r="U57" s="1">
-        <f t="shared" si="19"/>
+      <c r="T60" s="5">
+        <f t="shared" si="22"/>
+        <v>0.75823343243557517</v>
+      </c>
+      <c r="U60" s="5">
+        <f t="shared" si="22"/>
         <v>0.83490658415279262</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="s">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="P62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="Q62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="R62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="S62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="U62" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B60">
-        <v>8.9220293847223103E-2</v>
-      </c>
-      <c r="C60">
-        <v>8.7877837607528306E-2</v>
-      </c>
-      <c r="D60">
-        <v>7.2683758386891298E-2</v>
-      </c>
-      <c r="E60">
-        <v>7.8997543090960395E-2</v>
-      </c>
-      <c r="F60">
-        <v>8.7702594503310902E-2</v>
-      </c>
-      <c r="G60">
-        <v>8.8179120879120901E-2</v>
-      </c>
-      <c r="H60">
-        <v>8.6478614479764904E-2</v>
-      </c>
-      <c r="I60">
-        <v>8.3257666617497797E-2</v>
-      </c>
-      <c r="J60">
-        <v>7.5983493723979695E-2</v>
-      </c>
-      <c r="K60">
-        <v>8.1032713745179605E-2</v>
-      </c>
-      <c r="L60">
-        <v>8.3805165287757902E-2</v>
-      </c>
-      <c r="M60">
-        <v>8.3605101537920903E-2</v>
-      </c>
-      <c r="N60">
-        <v>9.2934830152239203E-2</v>
-      </c>
-      <c r="O60">
-        <v>8.5709404667958802E-2</v>
-      </c>
-      <c r="P60">
-        <v>7.3308642013429501E-2</v>
-      </c>
-      <c r="Q60">
-        <v>6.7479981485814397E-2</v>
-      </c>
-      <c r="R60">
-        <v>8.2242961507241696E-2</v>
-      </c>
-      <c r="S60">
-        <v>8.3609519039388194E-2</v>
-      </c>
-      <c r="T60">
-        <v>8.7358090434549507E-2</v>
-      </c>
-      <c r="U60">
-        <v>9.0500185495901803E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>2002</v>
-      </c>
-      <c r="B61">
-        <v>8.5984827405394496E-2</v>
-      </c>
-      <c r="C61">
-        <v>8.3529692675393605E-2</v>
-      </c>
-      <c r="D61">
-        <v>7.7757734303145601E-2</v>
-      </c>
-      <c r="E61">
-        <v>8.0984453963316494E-2</v>
-      </c>
-      <c r="F61">
-        <v>9.0301625151190598E-2</v>
-      </c>
-      <c r="G61">
-        <v>8.2117803612301907E-2</v>
-      </c>
-      <c r="H61">
-        <v>8.4302450789631694E-2</v>
-      </c>
-      <c r="I61">
-        <v>8.6237208488743403E-2</v>
-      </c>
-      <c r="J61">
-        <v>7.2168017602152704E-2</v>
-      </c>
-      <c r="K61">
-        <v>8.2648726685268598E-2</v>
-      </c>
-      <c r="L61">
-        <v>8.7519558646074594E-2</v>
-      </c>
-      <c r="M61">
-        <v>7.6149289160278702E-2</v>
-      </c>
-      <c r="N61">
-        <v>9.8122368595250795E-2</v>
-      </c>
-      <c r="O61">
-        <v>8.2532462684945906E-2</v>
-      </c>
-      <c r="P61">
-        <v>7.3368680183329302E-2</v>
-      </c>
-      <c r="Q61">
-        <v>6.2891425153318803E-2</v>
-      </c>
-      <c r="R61">
-        <v>7.8491553376721701E-2</v>
-      </c>
-      <c r="S61">
-        <v>8.3364415840000705E-2</v>
-      </c>
-      <c r="T61">
-        <v>8.6013206502306802E-2</v>
-      </c>
-      <c r="U61">
-        <v>8.4949405367872904E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B62">
-        <v>7.7937113344660303E-2</v>
-      </c>
-      <c r="C62">
-        <v>7.1802496398056304E-2</v>
-      </c>
-      <c r="D62">
-        <v>7.0882042075010698E-2</v>
-      </c>
-      <c r="E62">
-        <v>7.0748746478815197E-2</v>
-      </c>
-      <c r="F62">
-        <v>7.9822521830654705E-2</v>
-      </c>
-      <c r="G62">
-        <v>7.4905284844315703E-2</v>
-      </c>
-      <c r="H62">
-        <v>8.1001235515318695E-2</v>
-      </c>
-      <c r="I62">
-        <v>8.2100746257500606E-2</v>
-      </c>
-      <c r="J62">
-        <v>6.7432931652562894E-2</v>
-      </c>
-      <c r="K62">
-        <v>7.4284802314990406E-2</v>
-      </c>
-      <c r="L62">
-        <v>7.9102807462984495E-2</v>
-      </c>
-      <c r="M62">
-        <v>6.9145695657101297E-2</v>
-      </c>
-      <c r="N62">
-        <v>8.3789307155490503E-2</v>
-      </c>
-      <c r="O62">
-        <v>7.6759249899644194E-2</v>
-      </c>
-      <c r="P62">
-        <v>6.63715732409971E-2</v>
-      </c>
-      <c r="Q62">
-        <v>6.4797630972914896E-2</v>
-      </c>
-      <c r="R62">
-        <v>7.1145540354277406E-2</v>
-      </c>
-      <c r="S62">
-        <v>8.1777898175865602E-2</v>
-      </c>
-      <c r="T62">
-        <v>8.0113263828810094E-2</v>
-      </c>
-      <c r="U62">
-        <v>7.4344942503870803E-2</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B63">
-        <v>7.0706827527488497E-2</v>
+        <v>8.9220293847223103E-2</v>
       </c>
       <c r="C63">
-        <v>6.7199546807528404E-2</v>
+        <v>8.7877837607528306E-2</v>
       </c>
       <c r="D63">
-        <v>6.9168592005663498E-2</v>
+        <v>7.2683758386891298E-2</v>
       </c>
       <c r="E63">
-        <v>7.0023298055163302E-2</v>
+        <v>7.8997543090960395E-2</v>
       </c>
       <c r="F63">
-        <v>7.3723016768493105E-2</v>
+        <v>8.7702594503310902E-2</v>
       </c>
       <c r="G63">
-        <v>7.1016375889037406E-2</v>
+        <v>8.8179120879120901E-2</v>
       </c>
       <c r="H63">
-        <v>7.6999016211553903E-2</v>
+        <v>8.6478614479764904E-2</v>
       </c>
       <c r="I63">
-        <v>7.7256708353570402E-2</v>
+        <v>8.3257666617497797E-2</v>
       </c>
       <c r="J63">
-        <v>6.2241279745479501E-2</v>
+        <v>7.5983493723979695E-2</v>
       </c>
       <c r="K63">
-        <v>6.3285402391346599E-2</v>
+        <v>8.1032713745179605E-2</v>
       </c>
       <c r="L63">
-        <v>7.6973529169278104E-2</v>
+        <v>8.3805165287757902E-2</v>
       </c>
       <c r="M63">
-        <v>6.7527365032784406E-2</v>
+        <v>8.3605101537920903E-2</v>
       </c>
       <c r="N63">
-        <v>7.6748065237629795E-2</v>
+        <v>9.2934830152239203E-2</v>
       </c>
       <c r="O63">
-        <v>6.8776181548319798E-2</v>
+        <v>8.5709404667958802E-2</v>
       </c>
       <c r="P63">
-        <v>5.98478472682301E-2</v>
+        <v>7.3308642013429501E-2</v>
       </c>
       <c r="Q63">
-        <v>6.1045477052201397E-2</v>
+        <v>6.7479981485814397E-2</v>
       </c>
       <c r="R63">
-        <v>6.4027334950806397E-2</v>
+        <v>8.2242961507241696E-2</v>
       </c>
       <c r="S63">
-        <v>7.9161088208310706E-2</v>
+        <v>8.3609519039388194E-2</v>
       </c>
       <c r="T63">
-        <v>7.1955176705016902E-2</v>
+        <v>8.7358090434549507E-2</v>
       </c>
       <c r="U63">
-        <v>6.7837389977534496E-2</v>
+        <v>9.0500185495901803E-2</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B64">
-        <v>6.6430535571349994E-2</v>
+        <v>8.5984827405394496E-2</v>
       </c>
       <c r="C64">
-        <v>6.2829912372779795E-2</v>
+        <v>8.3529692675393605E-2</v>
       </c>
       <c r="D64">
-        <v>6.55146109397369E-2</v>
+        <v>7.7757734303145601E-2</v>
       </c>
       <c r="E64">
-        <v>6.6710730935476706E-2</v>
+        <v>8.0984453963316494E-2</v>
       </c>
       <c r="F64">
-        <v>6.8764769368603804E-2</v>
+        <v>9.0301625151190598E-2</v>
       </c>
       <c r="G64">
-        <v>5.9630800579471899E-2</v>
+        <v>8.2117803612301907E-2</v>
       </c>
       <c r="H64">
-        <v>6.7935668752259398E-2</v>
+        <v>8.4302450789631694E-2</v>
       </c>
       <c r="I64">
-        <v>7.3254996954213406E-2</v>
+        <v>8.6237208488743403E-2</v>
       </c>
       <c r="J64">
-        <v>5.6061209405529999E-2</v>
+        <v>7.2168017602152704E-2</v>
       </c>
       <c r="K64">
-        <v>6.26197140898518E-2</v>
+        <v>8.2648726685268598E-2</v>
       </c>
       <c r="L64">
-        <v>6.6883694432769494E-2</v>
+        <v>8.7519558646074594E-2</v>
       </c>
       <c r="M64">
-        <v>5.8997625455966103E-2</v>
+        <v>7.6149289160278702E-2</v>
       </c>
       <c r="N64">
-        <v>6.6395109327310103E-2</v>
+        <v>9.8122368595250795E-2</v>
       </c>
       <c r="O64">
-        <v>6.1735270121753401E-2</v>
+        <v>8.2532462684945906E-2</v>
       </c>
       <c r="P64">
-        <v>4.8498030756274998E-2</v>
+        <v>7.3368680183329302E-2</v>
       </c>
       <c r="Q64">
-        <v>5.2658092378578998E-2</v>
+        <v>6.2891425153318803E-2</v>
       </c>
       <c r="R64">
-        <v>5.9494224539240997E-2</v>
+        <v>7.8491553376721701E-2</v>
       </c>
       <c r="S64">
-        <v>7.1328964946903398E-2</v>
+        <v>8.3364415840000705E-2</v>
       </c>
       <c r="T64">
-        <v>6.6608150132882807E-2</v>
+        <v>8.6013206502306802E-2</v>
       </c>
       <c r="U64">
-        <v>6.0355249978562599E-2</v>
+        <v>8.4949405367872904E-2</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B65">
-        <v>6.4271181222210094E-2</v>
+        <v>7.7937113344660303E-2</v>
       </c>
       <c r="C65">
-        <v>5.7363740383259601E-2</v>
+        <v>7.1802496398056304E-2</v>
       </c>
       <c r="D65">
-        <v>6.2812926736133104E-2</v>
+        <v>7.0882042075010698E-2</v>
       </c>
       <c r="E65">
-        <v>6.3198747050559806E-2</v>
+        <v>7.0748746478815197E-2</v>
       </c>
       <c r="F65">
-        <v>6.7479353009721105E-2</v>
+        <v>7.9822521830654705E-2</v>
       </c>
       <c r="G65">
-        <v>5.7326438016765E-2</v>
+        <v>7.4905284844315703E-2</v>
       </c>
       <c r="H65">
-        <v>6.8800041290134201E-2</v>
+        <v>8.1001235515318695E-2</v>
       </c>
       <c r="I65">
-        <v>7.08578593669736E-2</v>
+        <v>8.2100746257500606E-2</v>
       </c>
       <c r="J65">
-        <v>5.2347569694388502E-2</v>
+        <v>6.7432931652562894E-2</v>
       </c>
       <c r="K65">
-        <v>5.2167299200046799E-2</v>
+        <v>7.4284802314990406E-2</v>
       </c>
       <c r="L65">
-        <v>5.9204482697450198E-2</v>
+        <v>7.9102807462984495E-2</v>
       </c>
       <c r="M65">
-        <v>4.89547990667785E-2</v>
+        <v>6.9145695657101297E-2</v>
       </c>
       <c r="N65">
-        <v>6.4970892193274996E-2</v>
+        <v>8.3789307155490503E-2</v>
       </c>
       <c r="O65">
-        <v>5.5662089618174301E-2</v>
+        <v>7.6759249899644194E-2</v>
       </c>
       <c r="P65">
-        <v>4.7994932449417597E-2</v>
+        <v>6.63715732409971E-2</v>
       </c>
       <c r="Q65">
-        <v>4.9080836061543801E-2</v>
+        <v>6.4797630972914896E-2</v>
       </c>
       <c r="R65">
-        <v>5.4207191028897699E-2</v>
+        <v>7.1145540354277406E-2</v>
       </c>
       <c r="S65">
-        <v>7.2397006913461598E-2</v>
+        <v>8.1777898175865602E-2</v>
       </c>
       <c r="T65">
-        <v>5.9145292768606E-2</v>
+        <v>8.0113263828810094E-2</v>
       </c>
       <c r="U65">
-        <v>5.6784701682169397E-2</v>
+        <v>7.4344942503870803E-2</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B66">
-        <v>6.2677035216269994E-2</v>
+        <v>7.0706827527488497E-2</v>
       </c>
       <c r="C66">
-        <v>5.9084243991256599E-2</v>
+        <v>6.7199546807528404E-2</v>
       </c>
       <c r="D66">
-        <v>5.9774699122237797E-2</v>
+        <v>6.9168592005663498E-2</v>
       </c>
       <c r="E66">
-        <v>5.76937851213912E-2</v>
+        <v>7.0023298055163302E-2</v>
       </c>
       <c r="F66">
-        <v>6.9583723909279097E-2</v>
+        <v>7.3723016768493105E-2</v>
       </c>
       <c r="G66">
-        <v>5.6276841519333702E-2</v>
+        <v>7.1016375889037406E-2</v>
       </c>
       <c r="H66">
-        <v>7.02448357107264E-2</v>
+        <v>7.6999016211553903E-2</v>
       </c>
       <c r="I66">
-        <v>6.9198196460864295E-2</v>
+        <v>7.7256708353570402E-2</v>
       </c>
       <c r="J66">
-        <v>5.2339640122174201E-2</v>
+        <v>6.2241279745479501E-2</v>
       </c>
       <c r="K66">
-        <v>6.0396150518606397E-2</v>
+        <v>6.3285402391346599E-2</v>
       </c>
       <c r="L66">
-        <v>6.4144609760155E-2</v>
+        <v>7.6973529169278104E-2</v>
       </c>
       <c r="M66">
-        <v>4.6764409177742397E-2</v>
+        <v>6.7527365032784406E-2</v>
       </c>
       <c r="N66">
-        <v>6.0201919747482097E-2</v>
+        <v>7.6748065237629795E-2</v>
       </c>
       <c r="O66">
-        <v>5.4936658886188303E-2</v>
+        <v>6.8776181548319798E-2</v>
       </c>
       <c r="P66">
-        <v>5.1413371245989797E-2</v>
+        <v>5.98478472682301E-2</v>
       </c>
       <c r="Q66">
-        <v>5.14578263621032E-2</v>
+        <v>6.1045477052201397E-2</v>
       </c>
       <c r="R66">
-        <v>5.4514596524106701E-2</v>
+        <v>6.4027334950806397E-2</v>
       </c>
       <c r="S66">
-        <v>7.1634308009743394E-2</v>
+        <v>7.9161088208310706E-2</v>
       </c>
       <c r="T66">
-        <v>6.1944378569654103E-2</v>
+        <v>7.1955176705016902E-2</v>
       </c>
       <c r="U66">
-        <v>5.8207198271047901E-2</v>
+        <v>6.7837389977534496E-2</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B67">
-        <v>6.1024716891328198E-2</v>
+        <v>6.6430535571349994E-2</v>
       </c>
       <c r="C67">
-        <v>5.9867144543694198E-2</v>
+        <v>6.2829912372779795E-2</v>
       </c>
       <c r="D67">
-        <v>6.0428318158870398E-2</v>
+        <v>6.55146109397369E-2</v>
       </c>
       <c r="E67">
-        <v>6.4638066124085694E-2</v>
+        <v>6.6710730935476706E-2</v>
       </c>
       <c r="F67">
-        <v>7.1135637805918403E-2</v>
+        <v>6.8764769368603804E-2</v>
       </c>
       <c r="G67">
-        <v>6.4002541746770295E-2</v>
+        <v>5.9630800579471899E-2</v>
       </c>
       <c r="H67">
-        <v>8.2168143561341597E-2</v>
+        <v>6.7935668752259398E-2</v>
       </c>
       <c r="I67">
-        <v>6.84062353740294E-2</v>
+        <v>7.3254996954213406E-2</v>
       </c>
       <c r="J67">
-        <v>5.37785983487944E-2</v>
+        <v>5.6061209405529999E-2</v>
       </c>
       <c r="K67">
-        <v>6.7631410223000593E-2</v>
+        <v>6.26197140898518E-2</v>
       </c>
       <c r="L67">
-        <v>6.8424180337862295E-2</v>
+        <v>6.6883694432769494E-2</v>
       </c>
       <c r="M67">
-        <v>5.7850452953197101E-2</v>
+        <v>5.8997625455966103E-2</v>
       </c>
       <c r="N67">
-        <v>6.3243001626281103E-2</v>
+        <v>6.6395109327310103E-2</v>
       </c>
       <c r="O67">
-        <v>5.8706335755898002E-2</v>
+        <v>6.1735270121753401E-2</v>
       </c>
       <c r="P67">
-        <v>5.5567340143950303E-2</v>
+        <v>4.8498030756274998E-2</v>
       </c>
       <c r="Q67">
-        <v>5.14736293912956E-2</v>
+        <v>5.2658092378578998E-2</v>
       </c>
       <c r="R67">
-        <v>5.4668239857502403E-2</v>
+        <v>5.9494224539240997E-2</v>
       </c>
       <c r="S67">
-        <v>8.3204122761772997E-2</v>
+        <v>7.1328964946903398E-2</v>
       </c>
       <c r="T67">
-        <v>6.5416069712098901E-2</v>
+        <v>6.6608150132882807E-2</v>
       </c>
       <c r="U67">
-        <v>5.5498133984184198E-2</v>
+        <v>6.0355249978562599E-2</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B68">
-        <v>6.8011842871195896E-2</v>
+        <v>6.4271181222210094E-2</v>
       </c>
       <c r="C68">
-        <v>6.8840981422937902E-2</v>
+        <v>5.7363740383259601E-2</v>
       </c>
       <c r="D68">
-        <v>5.74390327251557E-2</v>
+        <v>6.2812926736133104E-2</v>
       </c>
       <c r="E68">
-        <v>6.9408173454197503E-2</v>
+        <v>6.3198747050559806E-2</v>
       </c>
       <c r="F68">
-        <v>7.4942402251567702E-2</v>
+        <v>6.7479353009721105E-2</v>
       </c>
       <c r="G68">
-        <v>6.9975317588036601E-2</v>
+        <v>5.7326438016765E-2</v>
       </c>
       <c r="H68">
-        <v>8.7013851423321395E-2</v>
+        <v>6.8800041290134201E-2</v>
       </c>
       <c r="I68">
-        <v>7.2296888773690601E-2</v>
+        <v>7.08578593669736E-2</v>
       </c>
       <c r="J68">
-        <v>6.0055117264927398E-2</v>
+        <v>5.2347569694388502E-2</v>
       </c>
       <c r="K68">
-        <v>7.9800495613461295E-2</v>
+        <v>5.2167299200046799E-2</v>
       </c>
       <c r="L68">
-        <v>6.5410461929506197E-2</v>
+        <v>5.9204482697450198E-2</v>
       </c>
       <c r="M68">
-        <v>6.1814132140597298E-2</v>
+        <v>4.89547990667785E-2</v>
       </c>
       <c r="N68">
-        <v>6.8737852585950499E-2</v>
+        <v>6.4970892193274996E-2</v>
       </c>
       <c r="O68">
-        <v>6.8138909035788703E-2</v>
+        <v>5.5662089618174301E-2</v>
       </c>
       <c r="P68">
-        <v>6.1429624870625199E-2</v>
+        <v>4.7994932449417597E-2</v>
       </c>
       <c r="Q68">
-        <v>4.4561583552020702E-2</v>
+        <v>4.9080836061543801E-2</v>
       </c>
       <c r="R68">
-        <v>6.0686996230570202E-2</v>
+        <v>5.4207191028897699E-2</v>
       </c>
       <c r="S68">
-        <v>8.0765951147824103E-2</v>
+        <v>7.2397006913461598E-2</v>
       </c>
       <c r="T68">
-        <v>7.1210263699771806E-2</v>
+        <v>5.9145292768606E-2</v>
       </c>
       <c r="U68">
-        <v>6.3610193574944796E-2</v>
+        <v>5.6784701682169397E-2</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B69">
-        <v>7.1913174631481197E-2</v>
+        <v>6.2677035216269994E-2</v>
       </c>
       <c r="C69">
-        <v>6.9991144668615099E-2</v>
+        <v>5.9084243991256599E-2</v>
       </c>
       <c r="D69">
-        <v>6.4655970301338503E-2</v>
+        <v>5.9774699122237797E-2</v>
       </c>
       <c r="E69">
-        <v>6.4799926220664106E-2</v>
+        <v>5.76937851213912E-2</v>
       </c>
       <c r="F69">
-        <v>6.8420143323183094E-2</v>
+        <v>6.9583723909279097E-2</v>
       </c>
       <c r="G69">
-        <v>6.7178865048691E-2</v>
+        <v>5.6276841519333702E-2</v>
       </c>
       <c r="H69">
-        <v>9.7168811454270504E-2</v>
+        <v>7.02448357107264E-2</v>
       </c>
       <c r="I69">
-        <v>7.3328344786782296E-2</v>
+        <v>6.9198196460864295E-2</v>
       </c>
       <c r="J69">
-        <v>6.4593264751528295E-2</v>
+        <v>5.2339640122174201E-2</v>
       </c>
       <c r="K69">
-        <v>7.5318988635563897E-2</v>
+        <v>6.0396150518606397E-2</v>
       </c>
       <c r="L69">
-        <v>6.8430636378464901E-2</v>
+        <v>6.4144609760155E-2</v>
       </c>
       <c r="M69">
-        <v>6.5618282923214005E-2</v>
+        <v>4.6764409177742397E-2</v>
       </c>
       <c r="N69">
-        <v>6.9002653744969403E-2</v>
+        <v>6.0201919747482097E-2</v>
       </c>
       <c r="O69">
-        <v>6.6671303061794904E-2</v>
+        <v>5.4936658886188303E-2</v>
       </c>
       <c r="P69">
-        <v>6.4196216450498306E-2</v>
+        <v>5.1413371245989797E-2</v>
       </c>
       <c r="Q69">
-        <v>5.5685031813594403E-2</v>
+        <v>5.14578263621032E-2</v>
       </c>
       <c r="R69">
-        <v>6.2091922967330897E-2</v>
+        <v>5.4514596524106701E-2</v>
       </c>
       <c r="S69">
-        <v>7.1125699072476997E-2</v>
+        <v>7.1634308009743394E-2</v>
       </c>
       <c r="T69">
-        <v>7.35637605595581E-2</v>
+        <v>6.1944378569654103E-2</v>
       </c>
       <c r="U69">
-        <v>6.4760404656632298E-2</v>
+        <v>5.8207198271047901E-2</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B70">
-        <v>6.7308471105797504E-2</v>
+        <v>6.1024716891328198E-2</v>
       </c>
       <c r="C70">
-        <v>6.2237941101079101E-2</v>
+        <v>5.9867144543694198E-2</v>
       </c>
       <c r="D70">
-        <v>5.8439393501732502E-2</v>
+        <v>6.0428318158870398E-2</v>
       </c>
       <c r="E70">
-        <v>6.3367083006032193E-2</v>
+        <v>6.4638066124085694E-2</v>
       </c>
       <c r="F70">
-        <v>6.4730162832400601E-2</v>
+        <v>7.1135637805918403E-2</v>
       </c>
       <c r="G70">
-        <v>5.8817533476153698E-2</v>
+        <v>6.4002541746770295E-2</v>
       </c>
       <c r="H70">
-        <v>8.8492397800826503E-2</v>
+        <v>8.2168143561341597E-2</v>
       </c>
       <c r="I70">
-        <v>6.1083728626982498E-2</v>
+        <v>6.84062353740294E-2</v>
       </c>
       <c r="J70">
-        <v>5.85836578138033E-2</v>
+        <v>5.37785983487944E-2</v>
       </c>
       <c r="K70">
-        <v>7.0377866381116899E-2</v>
+        <v>6.7631410223000593E-2</v>
       </c>
       <c r="L70">
-        <v>6.5738236405410697E-2</v>
+        <v>6.8424180337862295E-2</v>
       </c>
       <c r="M70">
-        <v>5.5844025320262801E-2</v>
+        <v>5.7850452953197101E-2</v>
       </c>
       <c r="N70">
-        <v>6.6518271624911293E-2</v>
+        <v>6.3243001626281103E-2</v>
       </c>
       <c r="O70">
-        <v>6.1024649971827799E-2</v>
+        <v>5.8706335755898002E-2</v>
       </c>
       <c r="P70">
-        <v>5.7267475863887599E-2</v>
+        <v>5.5567340143950303E-2</v>
       </c>
       <c r="Q70">
-        <v>5.6034737287001597E-2</v>
+        <v>5.14736293912956E-2</v>
       </c>
       <c r="R70">
-        <v>5.7738584984988801E-2</v>
+        <v>5.4668239857502403E-2</v>
       </c>
       <c r="S70">
-        <v>6.9665805564968403E-2</v>
+        <v>8.3204122761772997E-2</v>
       </c>
       <c r="T70">
-        <v>7.0662688847682897E-2</v>
+        <v>6.5416069712098901E-2</v>
       </c>
       <c r="U70">
-        <v>6.0183605418696703E-2</v>
+        <v>5.5498133984184198E-2</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B71">
-        <v>6.45952694684125E-2</v>
+        <v>6.8011842871195896E-2</v>
       </c>
       <c r="C71">
-        <v>6.115536979208E-2</v>
+        <v>6.8840981422937902E-2</v>
       </c>
       <c r="D71">
-        <v>5.4831727803499597E-2</v>
+        <v>5.74390327251557E-2</v>
       </c>
       <c r="E71">
-        <v>6.2520022344631193E-2</v>
+        <v>6.9408173454197503E-2</v>
       </c>
       <c r="F71">
-        <v>6.37564856960635E-2</v>
+        <v>7.4942402251567702E-2</v>
       </c>
       <c r="G71">
-        <v>5.9671527569171698E-2</v>
+        <v>6.9975317588036601E-2</v>
       </c>
       <c r="H71">
-        <v>8.0173658467909206E-2</v>
+        <v>8.7013851423321395E-2</v>
       </c>
       <c r="I71">
-        <v>6.4478283892902999E-2</v>
+        <v>7.2296888773690601E-2</v>
       </c>
       <c r="J71">
-        <v>5.5741679821537597E-2</v>
+        <v>6.0055117264927398E-2</v>
       </c>
       <c r="K71">
-        <v>6.4625040433863995E-2</v>
+        <v>7.9800495613461295E-2</v>
       </c>
       <c r="L71">
-        <v>6.2527091256527695E-2</v>
+        <v>6.5410461929506197E-2</v>
       </c>
       <c r="M71">
-        <v>5.3585355920200799E-2</v>
+        <v>6.1814132140597298E-2</v>
       </c>
       <c r="N71">
-        <v>6.3162688200021896E-2</v>
+        <v>6.8737852585950499E-2</v>
       </c>
       <c r="O71">
-        <v>6.0288139145702101E-2</v>
+        <v>6.8138909035788703E-2</v>
       </c>
       <c r="P71">
-        <v>5.4753926703192998E-2</v>
+        <v>6.1429624870625199E-2</v>
       </c>
       <c r="Q71">
-        <v>5.1282789343274203E-2</v>
+        <v>4.4561583552020702E-2</v>
       </c>
       <c r="R71">
-        <v>5.3073168119893203E-2</v>
+        <v>6.0686996230570202E-2</v>
       </c>
       <c r="S71">
-        <v>6.8881447668450099E-2</v>
+        <v>8.0765951147824103E-2</v>
       </c>
       <c r="T71">
-        <v>6.4769351309677703E-2</v>
+        <v>7.1210263699771806E-2</v>
       </c>
       <c r="U71">
-        <v>5.7582741423971101E-2</v>
+        <v>6.3610193574944796E-2</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B72">
-        <v>6.3635553847217793E-2</v>
+        <v>7.1913174631481197E-2</v>
       </c>
       <c r="C72">
-        <v>6.0423988217638898E-2</v>
+        <v>6.9991144668615099E-2</v>
       </c>
       <c r="D72">
-        <v>5.28454392592188E-2</v>
+        <v>6.4655970301338503E-2</v>
       </c>
       <c r="E72">
-        <v>6.0813511129835802E-2</v>
+        <v>6.4799926220664106E-2</v>
       </c>
       <c r="F72">
-        <v>6.3674449878057607E-2</v>
+        <v>6.8420143323183094E-2</v>
       </c>
       <c r="G72">
-        <v>5.97043688323248E-2</v>
+        <v>6.7178865048691E-2</v>
       </c>
       <c r="H72">
-        <v>7.5519217149637094E-2</v>
+        <v>9.7168811454270504E-2</v>
       </c>
       <c r="I72">
-        <v>6.8799045072761703E-2</v>
+        <v>7.3328344786782296E-2</v>
       </c>
       <c r="J72">
-        <v>5.3627437981621798E-2</v>
+        <v>6.4593264751528295E-2</v>
       </c>
       <c r="K72">
-        <v>5.4906917607323601E-2</v>
+        <v>7.5318988635563897E-2</v>
       </c>
       <c r="L72">
-        <v>6.2382212278023298E-2</v>
+        <v>6.8430636378464901E-2</v>
       </c>
       <c r="M72">
-        <v>4.9595614999976403E-2</v>
+        <v>6.5618282923214005E-2</v>
       </c>
       <c r="N72">
-        <v>5.9710413906921701E-2</v>
+        <v>6.9002653744969403E-2</v>
       </c>
       <c r="O72">
-        <v>5.8825546762912101E-2</v>
+        <v>6.6671303061794904E-2</v>
       </c>
       <c r="P72">
-        <v>5.2637415281271201E-2</v>
+        <v>6.4196216450498306E-2</v>
       </c>
       <c r="Q72">
-        <v>4.6363891424133899E-2</v>
+        <v>5.5685031813594403E-2</v>
       </c>
       <c r="R72">
-        <v>5.1392894284188702E-2</v>
+        <v>6.2091922967330897E-2</v>
       </c>
       <c r="S72">
-        <v>6.6833988035323505E-2</v>
+        <v>7.1125699072476997E-2</v>
       </c>
       <c r="T72">
-        <v>6.6262831495499802E-2</v>
+        <v>7.35637605595581E-2</v>
       </c>
       <c r="U72">
-        <v>5.6111894283227402E-2</v>
+        <v>6.4760404656632298E-2</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B73">
-        <v>6.4475323381478197E-2</v>
+        <v>6.7308471105797504E-2</v>
       </c>
       <c r="C73">
-        <v>5.9092362332952598E-2</v>
+        <v>6.2237941101079101E-2</v>
       </c>
       <c r="D73">
-        <v>5.5238150694921301E-2</v>
+        <v>5.8439393501732502E-2</v>
       </c>
       <c r="E73">
-        <v>6.09042757906876E-2</v>
+        <v>6.3367083006032193E-2</v>
       </c>
       <c r="F73">
-        <v>6.3011469196548694E-2</v>
+        <v>6.4730162832400601E-2</v>
       </c>
       <c r="G73">
-        <v>5.8291490125364401E-2</v>
+        <v>5.8817533476153698E-2</v>
       </c>
       <c r="H73">
-        <v>7.7735141606494002E-2</v>
+        <v>8.8492397800826503E-2</v>
       </c>
       <c r="I73">
-        <v>6.6710220430712605E-2</v>
+        <v>6.1083728626982498E-2</v>
       </c>
       <c r="J73">
-        <v>5.3239876401981398E-2</v>
+        <v>5.85836578138033E-2</v>
       </c>
       <c r="K73">
-        <v>5.7473857301091502E-2</v>
+        <v>7.0377866381116899E-2</v>
       </c>
       <c r="L73">
-        <v>6.0053104042300597E-2</v>
+        <v>6.5738236405410697E-2</v>
       </c>
       <c r="M73">
-        <v>4.70131526841224E-2</v>
+        <v>5.5844025320262801E-2</v>
       </c>
       <c r="N73">
-        <v>6.0646706006257302E-2</v>
+        <v>6.6518271624911293E-2</v>
       </c>
       <c r="O73">
-        <v>5.9498650305404799E-2</v>
+        <v>6.1024649971827799E-2</v>
       </c>
       <c r="P73">
-        <v>5.5132964112330297E-2</v>
+        <v>5.7267475863887599E-2</v>
       </c>
       <c r="Q73">
-        <v>4.3693030056466499E-2</v>
+        <v>5.6034737287001597E-2</v>
       </c>
       <c r="R73">
-        <v>5.2352241798372501E-2</v>
+        <v>5.7738584984988801E-2</v>
       </c>
       <c r="S73">
-        <v>6.7565458538796905E-2</v>
+        <v>6.9665805564968403E-2</v>
       </c>
       <c r="T73">
-        <v>6.6242772302831293E-2</v>
+        <v>7.0662688847682897E-2</v>
       </c>
       <c r="U73">
-        <v>5.72040360368102E-2</v>
+        <v>6.0183605418696703E-2</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B74">
-        <v>6.1091808937497501E-2</v>
+        <v>6.45952694684125E-2</v>
       </c>
       <c r="C74">
-        <v>5.7114218242018303E-2</v>
+        <v>6.115536979208E-2</v>
       </c>
       <c r="D74">
-        <v>5.1168497978689997E-2</v>
+        <v>5.4831727803499597E-2</v>
       </c>
       <c r="E74">
-        <v>5.8419546401130402E-2</v>
+        <v>6.2520022344631193E-2</v>
       </c>
       <c r="F74">
-        <v>6.0400329878577699E-2</v>
+        <v>6.37564856960635E-2</v>
       </c>
       <c r="G74">
-        <v>5.6446712067098198E-2</v>
+        <v>5.9671527569171698E-2</v>
       </c>
       <c r="H74">
-        <v>7.1677278984319401E-2</v>
+        <v>8.0173658467909206E-2</v>
       </c>
       <c r="I74">
-        <v>6.3510491652002607E-2</v>
+        <v>6.4478283892902999E-2</v>
       </c>
       <c r="J74">
-        <v>4.8788914636553403E-2</v>
+        <v>5.5741679821537597E-2</v>
       </c>
       <c r="K74">
-        <v>5.5904724014034402E-2</v>
+        <v>6.4625040433863995E-2</v>
       </c>
       <c r="L74">
-        <v>5.7258834655975803E-2</v>
+        <v>6.2527091256527695E-2</v>
       </c>
       <c r="M74">
-        <v>4.7509207092944997E-2</v>
+        <v>5.3585355920200799E-2</v>
       </c>
       <c r="N74">
-        <v>5.8924267751000202E-2</v>
+        <v>6.3162688200021896E-2</v>
       </c>
       <c r="O74">
-        <v>5.68259172955662E-2</v>
+        <v>6.0288139145702101E-2</v>
       </c>
       <c r="P74">
-        <v>4.9595585816415599E-2</v>
+        <v>5.4753926703192998E-2</v>
       </c>
       <c r="Q74">
-        <v>4.1623306537615E-2</v>
+        <v>5.1282789343274203E-2</v>
       </c>
       <c r="R74">
-        <v>5.0539028916290002E-2</v>
+        <v>5.3073168119893203E-2</v>
       </c>
       <c r="S74">
-        <v>6.7551935109015998E-2</v>
+        <v>6.8881447668450099E-2</v>
       </c>
       <c r="T74">
-        <v>6.2030333690537003E-2</v>
+        <v>6.4769351309677703E-2</v>
       </c>
       <c r="U74">
-        <v>5.4915287902628E-2</v>
+        <v>5.7582741423971101E-2</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B75">
-        <v>5.94965628555384E-2</v>
+        <v>6.3635553847217793E-2</v>
       </c>
       <c r="C75">
-        <v>5.8399263194936997E-2</v>
+        <v>6.0423988217638898E-2</v>
       </c>
       <c r="D75">
-        <v>4.9322266652543897E-2</v>
+        <v>5.28454392592188E-2</v>
       </c>
       <c r="E75">
-        <v>5.90194356717701E-2</v>
+        <v>6.0813511129835802E-2</v>
       </c>
       <c r="F75">
-        <v>5.8461315999278798E-2</v>
+        <v>6.3674449878057607E-2</v>
       </c>
       <c r="G75">
-        <v>5.6590382074541902E-2</v>
+        <v>5.97043688323248E-2</v>
       </c>
       <c r="H75">
-        <v>7.0506666922501196E-2</v>
+        <v>7.5519217149637094E-2</v>
       </c>
       <c r="I75">
-        <v>6.2656311352808206E-2</v>
+        <v>6.8799045072761703E-2</v>
       </c>
       <c r="J75">
-        <v>4.64981786414305E-2</v>
+        <v>5.3627437981621798E-2</v>
       </c>
       <c r="K75">
-        <v>5.4060854819699203E-2</v>
+        <v>5.4906917607323601E-2</v>
       </c>
       <c r="L75">
-        <v>5.58443581423421E-2</v>
+        <v>6.2382212278023298E-2</v>
       </c>
       <c r="M75">
-        <v>4.5496521916314599E-2</v>
+        <v>4.9595614999976403E-2</v>
       </c>
       <c r="N75">
-        <v>5.7114345207085401E-2</v>
+        <v>5.9710413906921701E-2</v>
       </c>
       <c r="O75">
-        <v>5.66837488544783E-2</v>
+        <v>5.8825546762912101E-2</v>
       </c>
       <c r="P75">
-        <v>4.9152918999682001E-2</v>
+        <v>5.2637415281271201E-2</v>
       </c>
       <c r="Q75">
-        <v>4.3028848971516299E-2</v>
+        <v>4.6363891424133899E-2</v>
       </c>
       <c r="R75">
-        <v>5.07568665489374E-2</v>
+        <v>5.1392894284188702E-2</v>
       </c>
       <c r="S75">
-        <v>6.49906132713097E-2</v>
+        <v>6.6833988035323505E-2</v>
       </c>
       <c r="T75">
-        <v>5.8854618067425798E-2</v>
+        <v>6.6262831495499802E-2</v>
       </c>
       <c r="U75">
-        <v>5.3834024246266703E-2</v>
+        <v>5.6111894283227402E-2</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B76">
-        <v>5.8079879159724498E-2</v>
+        <v>6.4475323381478197E-2</v>
       </c>
       <c r="C76">
-        <v>5.8622670217612902E-2</v>
+        <v>5.9092362332952598E-2</v>
       </c>
       <c r="D76">
-        <v>5.1587769485688301E-2</v>
+        <v>5.5238150694921301E-2</v>
       </c>
       <c r="E76">
-        <v>5.6453131936464403E-2</v>
+        <v>6.09042757906876E-2</v>
       </c>
       <c r="F76">
-        <v>5.7408658062767598E-2</v>
+        <v>6.3011469196548694E-2</v>
       </c>
       <c r="G76">
-        <v>5.48069222725385E-2</v>
+        <v>5.8291490125364401E-2</v>
       </c>
       <c r="H76">
-        <v>6.6767240891471402E-2</v>
+        <v>7.7735141606494002E-2</v>
       </c>
       <c r="I76">
-        <v>6.0440600340194703E-2</v>
+        <v>6.6710220430712605E-2</v>
       </c>
       <c r="J76">
-        <v>4.4956369484026801E-2</v>
+        <v>5.3239876401981398E-2</v>
       </c>
       <c r="K76">
-        <v>5.4594027423027401E-2</v>
+        <v>5.7473857301091502E-2</v>
       </c>
       <c r="L76">
-        <v>5.52002323011902E-2</v>
+        <v>6.0053104042300597E-2</v>
       </c>
       <c r="M76">
-        <v>3.9842737763999297E-2</v>
+        <v>4.70131526841224E-2</v>
       </c>
       <c r="N76">
-        <v>5.79437047932276E-2</v>
+        <v>6.0646706006257302E-2</v>
       </c>
       <c r="O76">
-        <v>5.5033639795017499E-2</v>
+        <v>5.9498650305404799E-2</v>
       </c>
       <c r="P76">
-        <v>4.8673203848176E-2</v>
+        <v>5.5132964112330297E-2</v>
       </c>
       <c r="Q76">
-        <v>4.3900103630947797E-2</v>
+        <v>4.3693030056466499E-2</v>
       </c>
       <c r="R76">
-        <v>4.9795760662196001E-2</v>
+        <v>5.2352241798372501E-2</v>
       </c>
       <c r="S76">
-        <v>6.2058873049484098E-2</v>
+        <v>6.7565458538796905E-2</v>
       </c>
       <c r="T76">
-        <v>5.7310389070286599E-2</v>
+        <v>6.6242772302831293E-2</v>
       </c>
       <c r="U76">
-        <v>5.3839242561671302E-2</v>
+        <v>5.72040360368102E-2</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B77">
-        <v>5.6866858429237201E-2</v>
+        <v>6.1091808937497501E-2</v>
       </c>
       <c r="C77">
-        <v>5.7181184669631402E-2</v>
+        <v>5.7114218242018303E-2</v>
       </c>
       <c r="D77">
-        <v>5.04558796272781E-2</v>
+        <v>5.1168497978689997E-2</v>
       </c>
       <c r="E77">
-        <v>5.5609364066864397E-2</v>
+        <v>5.8419546401130402E-2</v>
       </c>
       <c r="F77">
-        <v>5.51386467481597E-2</v>
+        <v>6.0400329878577699E-2</v>
       </c>
       <c r="G77">
-        <v>5.3311853041312002E-2</v>
+        <v>5.6446712067098198E-2</v>
       </c>
       <c r="H77">
-        <v>6.4667177457240904E-2</v>
+        <v>7.1677278984319401E-2</v>
       </c>
       <c r="I77">
-        <v>5.6006404881643802E-2</v>
+        <v>6.3510491652002607E-2</v>
       </c>
       <c r="J77">
-        <v>4.5129375433375897E-2</v>
+        <v>4.8788914636553403E-2</v>
       </c>
       <c r="K77">
-        <v>5.3530392509679801E-2</v>
+        <v>5.5904724014034402E-2</v>
       </c>
       <c r="L77">
-        <v>5.4165140536142201E-2</v>
+        <v>5.7258834655975803E-2</v>
       </c>
       <c r="M77">
-        <v>4.2770771377908898E-2</v>
+        <v>4.7509207092944997E-2</v>
       </c>
       <c r="N77">
-        <v>5.5802832928014398E-2</v>
+        <v>5.8924267751000202E-2</v>
       </c>
       <c r="O77">
-        <v>5.2981464153362599E-2</v>
+        <v>5.68259172955662E-2</v>
       </c>
       <c r="P77">
-        <v>4.69168232390191E-2</v>
+        <v>4.9595585816415599E-2</v>
       </c>
       <c r="Q77">
-        <v>4.1994268839592702E-2</v>
+        <v>4.1623306537615E-2</v>
       </c>
       <c r="R77">
-        <v>4.8183584283725801E-2</v>
+        <v>5.0539028916290002E-2</v>
       </c>
       <c r="S77">
-        <v>6.2505852994091698E-2</v>
+        <v>6.7551935109015998E-2</v>
       </c>
       <c r="T77">
-        <v>5.5769552066705898E-2</v>
+        <v>6.2030333690537003E-2</v>
       </c>
       <c r="U77">
-        <v>5.27335019221205E-2</v>
+        <v>5.4915287902628E-2</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B78">
-        <v>5.4701572091944102E-2</v>
+        <v>5.94965628555384E-2</v>
       </c>
       <c r="C78">
-        <v>5.6692127067026497E-2</v>
+        <v>5.8399263194936997E-2</v>
       </c>
       <c r="D78">
-        <v>4.8819216775737501E-2</v>
+        <v>4.9322266652543897E-2</v>
       </c>
       <c r="E78">
-        <v>5.4894572245313203E-2</v>
+        <v>5.90194356717701E-2</v>
       </c>
       <c r="F78">
-        <v>5.2478273086725397E-2</v>
+        <v>5.8461315999278798E-2</v>
       </c>
       <c r="G78">
-        <v>5.0983998790059201E-2</v>
+        <v>5.6590382074541902E-2</v>
       </c>
       <c r="H78">
-        <v>6.1630997067028001E-2</v>
+        <v>7.0506666922501196E-2</v>
       </c>
       <c r="I78">
-        <v>5.2846645526046801E-2</v>
+        <v>6.2656311352808206E-2</v>
       </c>
       <c r="J78">
-        <v>4.49465136241173E-2</v>
+        <v>4.64981786414305E-2</v>
       </c>
       <c r="K78">
-        <v>5.1354189145982401E-2</v>
+        <v>5.4060854819699203E-2</v>
       </c>
       <c r="L78">
-        <v>5.3154926474687898E-2</v>
+        <v>5.58443581423421E-2</v>
       </c>
       <c r="M78">
-        <v>4.5143171088350802E-2</v>
+        <v>4.5496521916314599E-2</v>
       </c>
       <c r="N78">
-        <v>5.5359607072792E-2</v>
+        <v>5.7114345207085401E-2</v>
       </c>
       <c r="O78">
-        <v>5.0845443228903602E-2</v>
+        <v>5.66837488544783E-2</v>
       </c>
       <c r="P78">
-        <v>4.7095406410918701E-2</v>
+        <v>4.9152918999682001E-2</v>
       </c>
       <c r="Q78">
-        <v>3.9348127185569702E-2</v>
+        <v>4.3028848971516299E-2</v>
       </c>
       <c r="R78">
-        <v>4.6807935174836897E-2</v>
+        <v>5.07568665489374E-2</v>
       </c>
       <c r="S78">
-        <v>6.0478571737957898E-2</v>
+        <v>6.49906132713097E-2</v>
       </c>
       <c r="T78">
-        <v>5.3653876436241803E-2</v>
+        <v>5.8854618067425798E-2</v>
       </c>
       <c r="U78">
-        <v>5.3679382892286201E-2</v>
+        <v>5.3834024246266703E-2</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B79">
-        <v>5.1766094300604602E-2</v>
+        <v>5.8079879159724498E-2</v>
       </c>
       <c r="C79">
-        <v>5.3518149755104397E-2</v>
+        <v>5.8622670217612902E-2</v>
       </c>
       <c r="D79">
-        <v>4.6899689435391398E-2</v>
+        <v>5.1587769485688301E-2</v>
       </c>
       <c r="E79">
-        <v>5.23164663731506E-2</v>
+        <v>5.6453131936464403E-2</v>
       </c>
       <c r="F79">
-        <v>5.0256017142775902E-2</v>
+        <v>5.7408658062767598E-2</v>
       </c>
       <c r="G79">
-        <v>4.6980630624757401E-2</v>
+        <v>5.48069222725385E-2</v>
       </c>
       <c r="H79">
-        <v>5.8112644239933398E-2</v>
+        <v>6.6767240891471402E-2</v>
       </c>
       <c r="I79">
-        <v>5.1026723673205897E-2</v>
+        <v>6.0440600340194703E-2</v>
       </c>
       <c r="J79">
-        <v>4.4447663973041902E-2</v>
+        <v>4.4956369484026801E-2</v>
       </c>
       <c r="K79">
-        <v>4.8396173894572701E-2</v>
+        <v>5.4594027423027401E-2</v>
       </c>
       <c r="L79">
-        <v>4.9125380153463002E-2</v>
+        <v>5.52002323011902E-2</v>
       </c>
       <c r="M79">
-        <v>4.5432802612329397E-2</v>
+        <v>3.9842737763999297E-2</v>
       </c>
       <c r="N79">
-        <v>5.2764215471227199E-2</v>
+        <v>5.79437047932276E-2</v>
       </c>
       <c r="O79">
-        <v>4.87009196277454E-2</v>
+        <v>5.5033639795017499E-2</v>
       </c>
       <c r="P79">
-        <v>4.5278888023152497E-2</v>
+        <v>4.8673203848176E-2</v>
       </c>
       <c r="Q79">
-        <v>3.7954756225626898E-2</v>
+        <v>4.3900103630947797E-2</v>
       </c>
       <c r="R79">
-        <v>4.5216354615182197E-2</v>
+        <v>4.9795760662196001E-2</v>
       </c>
       <c r="S79">
-        <v>5.8230860980836803E-2</v>
+        <v>6.2058873049484098E-2</v>
       </c>
       <c r="T79">
-        <v>5.0604028360935402E-2</v>
+        <v>5.7310389070286599E-2</v>
       </c>
       <c r="U79">
-        <v>5.0255873222176499E-2</v>
+        <v>5.3839242561671302E-2</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B80">
-        <v>4.9003208955285697E-2</v>
+        <v>5.6866858429237201E-2</v>
       </c>
       <c r="C80">
-        <v>5.1873455831317597E-2</v>
+        <v>5.7181184669631402E-2</v>
       </c>
       <c r="D80">
-        <v>4.4339350691964097E-2</v>
+        <v>5.04558796272781E-2</v>
       </c>
       <c r="E80">
-        <v>4.9893974928462197E-2</v>
+        <v>5.5609364066864397E-2</v>
       </c>
       <c r="F80">
-        <v>4.6989234520009998E-2</v>
+        <v>5.51386467481597E-2</v>
       </c>
       <c r="G80">
-        <v>4.4402830883235503E-2</v>
+        <v>5.3311853041312002E-2</v>
       </c>
       <c r="H80">
-        <v>5.4530669066982999E-2</v>
+        <v>6.4667177457240904E-2</v>
       </c>
       <c r="I80">
-        <v>4.9359403156131201E-2</v>
+        <v>5.6006404881643802E-2</v>
       </c>
       <c r="J80">
-        <v>4.3445452226497497E-2</v>
+        <v>4.5129375433375897E-2</v>
       </c>
       <c r="K80">
-        <v>4.6949947100471998E-2</v>
+        <v>5.3530392509679801E-2</v>
       </c>
       <c r="L80">
-        <v>4.7499003013715603E-2</v>
+        <v>5.4165140536142201E-2</v>
       </c>
       <c r="M80">
-        <v>4.5881481314429103E-2</v>
+        <v>4.2770771377908898E-2</v>
       </c>
       <c r="N80">
-        <v>5.0022615206249697E-2</v>
+        <v>5.5802832928014398E-2</v>
       </c>
       <c r="O80">
-        <v>4.5015820069446301E-2</v>
+        <v>5.2981464153362599E-2</v>
       </c>
       <c r="P80">
-        <v>4.3227838945501897E-2</v>
+        <v>4.69168232390191E-2</v>
       </c>
       <c r="Q80">
-        <v>3.9379704898679001E-2</v>
+        <v>4.1994268839592702E-2</v>
       </c>
       <c r="R80">
-        <v>4.3093048230592602E-2</v>
+        <v>4.8183584283725801E-2</v>
       </c>
       <c r="S80">
-        <v>5.4223842719954202E-2</v>
+        <v>6.2505852994091698E-2</v>
       </c>
       <c r="T80">
-        <v>4.8336030635551801E-2</v>
+        <v>5.5769552066705898E-2</v>
       </c>
       <c r="U80">
-        <v>4.77408663762608E-2</v>
+        <v>5.27335019221205E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B81">
+        <v>5.4701572091944102E-2</v>
+      </c>
+      <c r="C81">
+        <v>5.6692127067026497E-2</v>
+      </c>
+      <c r="D81">
+        <v>4.8819216775737501E-2</v>
+      </c>
+      <c r="E81">
+        <v>5.4894572245313203E-2</v>
+      </c>
+      <c r="F81">
+        <v>5.2478273086725397E-2</v>
+      </c>
+      <c r="G81">
+        <v>5.0983998790059201E-2</v>
+      </c>
+      <c r="H81">
+        <v>6.1630997067028001E-2</v>
+      </c>
+      <c r="I81">
+        <v>5.2846645526046801E-2</v>
+      </c>
+      <c r="J81">
+        <v>4.49465136241173E-2</v>
+      </c>
+      <c r="K81">
+        <v>5.1354189145982401E-2</v>
+      </c>
+      <c r="L81">
+        <v>5.3154926474687898E-2</v>
+      </c>
+      <c r="M81">
+        <v>4.5143171088350802E-2</v>
+      </c>
+      <c r="N81">
+        <v>5.5359607072792E-2</v>
+      </c>
+      <c r="O81">
+        <v>5.0845443228903602E-2</v>
+      </c>
+      <c r="P81">
+        <v>4.7095406410918701E-2</v>
+      </c>
+      <c r="Q81">
+        <v>3.9348127185569702E-2</v>
+      </c>
+      <c r="R81">
+        <v>4.6807935174836897E-2</v>
+      </c>
+      <c r="S81">
+        <v>6.0478571737957898E-2</v>
+      </c>
+      <c r="T81">
+        <v>5.3653876436241803E-2</v>
+      </c>
+      <c r="U81">
+        <v>5.3679382892286201E-2</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U82" s="2" t="s">
-        <v>23</v>
+      <c r="A82" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B82">
+        <v>5.1766094300604602E-2</v>
+      </c>
+      <c r="C82">
+        <v>5.3518149755104397E-2</v>
+      </c>
+      <c r="D82">
+        <v>4.6899689435391398E-2</v>
+      </c>
+      <c r="E82">
+        <v>5.23164663731506E-2</v>
+      </c>
+      <c r="F82">
+        <v>5.0256017142775902E-2</v>
+      </c>
+      <c r="G82">
+        <v>4.6980630624757401E-2</v>
+      </c>
+      <c r="H82">
+        <v>5.8112644239933398E-2</v>
+      </c>
+      <c r="I82">
+        <v>5.1026723673205897E-2</v>
+      </c>
+      <c r="J82">
+        <v>4.4447663973041902E-2</v>
+      </c>
+      <c r="K82">
+        <v>4.8396173894572701E-2</v>
+      </c>
+      <c r="L82">
+        <v>4.9125380153463002E-2</v>
+      </c>
+      <c r="M82">
+        <v>4.5432802612329397E-2</v>
+      </c>
+      <c r="N82">
+        <v>5.2764215471227199E-2</v>
+      </c>
+      <c r="O82">
+        <v>4.87009196277454E-2</v>
+      </c>
+      <c r="P82">
+        <v>4.5278888023152497E-2</v>
+      </c>
+      <c r="Q82">
+        <v>3.7954756225626898E-2</v>
+      </c>
+      <c r="R82">
+        <v>4.5216354615182197E-2</v>
+      </c>
+      <c r="S82">
+        <v>5.8230860980836803E-2</v>
+      </c>
+      <c r="T82">
+        <v>5.0604028360935402E-2</v>
+      </c>
+      <c r="U82">
+        <v>5.0255873222176499E-2</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>2005</v>
-      </c>
-      <c r="B83" s="4">
-        <f>+B64-B63</f>
-        <v>-4.2762919561385032E-3</v>
-      </c>
-      <c r="C83" s="4">
-        <f>+C64-C63</f>
-        <v>-4.3696344347486094E-3</v>
-      </c>
-      <c r="D83" s="4">
-        <f>+D64-D63</f>
-        <v>-3.6539810659265981E-3</v>
-      </c>
-      <c r="E83" s="4">
-        <f>+E64-E63</f>
-        <v>-3.3125671196865963E-3</v>
-      </c>
-      <c r="F83" s="4">
-        <f>+F64-F63</f>
-        <v>-4.9582473998893012E-3</v>
-      </c>
-      <c r="G83" s="4">
-        <f>+G64-G63</f>
-        <v>-1.1385575309565507E-2</v>
-      </c>
-      <c r="H83" s="4">
-        <f>+H64-H63</f>
-        <v>-9.0633474592945046E-3</v>
-      </c>
-      <c r="I83" s="4">
-        <f>+I64-I63</f>
-        <v>-4.0017113993569969E-3</v>
-      </c>
-      <c r="J83" s="4">
-        <f>+J64-J63</f>
-        <v>-6.1800703399495019E-3</v>
-      </c>
-      <c r="K83" s="4">
-        <f>+K64-K63</f>
-        <v>-6.6568830149479896E-4</v>
-      </c>
-      <c r="L83" s="4">
-        <f>+L64-L63</f>
-        <v>-1.008983473650861E-2</v>
-      </c>
-      <c r="M83" s="4">
-        <f>+M64-M63</f>
-        <v>-8.5297395768183029E-3</v>
-      </c>
-      <c r="N83" s="4">
-        <f>+N64-N63</f>
-        <v>-1.0352955910319692E-2</v>
-      </c>
-      <c r="O83" s="4">
-        <f>+O64-O63</f>
-        <v>-7.0409114265663972E-3</v>
-      </c>
-      <c r="P83" s="4">
-        <f>+P64-P63</f>
-        <v>-1.1349816511955102E-2</v>
-      </c>
-      <c r="Q83" s="4">
-        <f>+Q64-Q63</f>
-        <v>-8.3873846736223986E-3</v>
-      </c>
-      <c r="R83" s="4">
-        <f>+R64-R63</f>
-        <v>-4.5331104115653997E-3</v>
-      </c>
-      <c r="S83" s="4">
-        <f>+S64-S63</f>
-        <v>-7.8321232614073089E-3</v>
-      </c>
-      <c r="T83" s="4">
-        <f>+T64-T63</f>
-        <v>-5.3470265721340948E-3</v>
-      </c>
-      <c r="U83" s="4">
-        <f>+U64-U63</f>
-        <v>-7.482139998971897E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>2006</v>
-      </c>
-      <c r="B84" s="4">
-        <f>+B65-B64</f>
-        <v>-2.1593543491398998E-3</v>
-      </c>
-      <c r="C84" s="4">
-        <f>+C65-C64</f>
-        <v>-5.4661719895201938E-3</v>
-      </c>
-      <c r="D84" s="4">
-        <f>+D65-D64</f>
-        <v>-2.7016842036037964E-3</v>
-      </c>
-      <c r="E84" s="4">
-        <f>+E65-E64</f>
-        <v>-3.5119838849168999E-3</v>
-      </c>
-      <c r="F84" s="4">
-        <f>+F65-F64</f>
-        <v>-1.2854163588826989E-3</v>
-      </c>
-      <c r="G84" s="4">
-        <f>+G65-G64</f>
-        <v>-2.3043625627068992E-3</v>
-      </c>
-      <c r="H84" s="4">
-        <f>+H65-H64</f>
-        <v>8.6437253787480239E-4</v>
-      </c>
-      <c r="I84" s="4">
-        <f>+I65-I64</f>
-        <v>-2.397137587239806E-3</v>
-      </c>
-      <c r="J84" s="4">
-        <f>+J65-J64</f>
-        <v>-3.7136397111414976E-3</v>
-      </c>
-      <c r="K84" s="4">
-        <f>+K65-K64</f>
-        <v>-1.0452414889805001E-2</v>
-      </c>
-      <c r="L84" s="4">
-        <f>+L65-L64</f>
-        <v>-7.6792117353192968E-3</v>
-      </c>
-      <c r="M84" s="4">
-        <f>+M65-M64</f>
-        <v>-1.0042826389187604E-2</v>
-      </c>
-      <c r="N84" s="4">
-        <f>+N65-N64</f>
-        <v>-1.4242171340351079E-3</v>
-      </c>
-      <c r="O84" s="4">
-        <f>+O65-O64</f>
-        <v>-6.0731805035790995E-3</v>
-      </c>
-      <c r="P84" s="4">
-        <f>+P65-P64</f>
-        <v>-5.0309830685740103E-4</v>
-      </c>
-      <c r="Q84" s="4">
-        <f>+Q65-Q64</f>
-        <v>-3.5772563170351976E-3</v>
-      </c>
-      <c r="R84" s="4">
-        <f>+R65-R64</f>
-        <v>-5.2870335103432989E-3</v>
-      </c>
-      <c r="S84" s="4">
-        <f>+S65-S64</f>
-        <v>1.0680419665582003E-3</v>
-      </c>
-      <c r="T84" s="4">
-        <f>+T65-T64</f>
-        <v>-7.4628573642768065E-3</v>
-      </c>
-      <c r="U84" s="4">
-        <f>+U65-U64</f>
-        <v>-3.5705482963932014E-3</v>
+        <v>2021</v>
+      </c>
+      <c r="B83">
+        <v>4.9003208955285697E-2</v>
+      </c>
+      <c r="C83">
+        <v>5.1873455831317597E-2</v>
+      </c>
+      <c r="D83">
+        <v>4.4339350691964097E-2</v>
+      </c>
+      <c r="E83">
+        <v>4.9893974928462197E-2</v>
+      </c>
+      <c r="F83">
+        <v>4.6989234520009998E-2</v>
+      </c>
+      <c r="G83">
+        <v>4.4402830883235503E-2</v>
+      </c>
+      <c r="H83">
+        <v>5.4530669066982999E-2</v>
+      </c>
+      <c r="I83">
+        <v>4.9359403156131201E-2</v>
+      </c>
+      <c r="J83">
+        <v>4.3445452226497497E-2</v>
+      </c>
+      <c r="K83">
+        <v>4.6949947100471998E-2</v>
+      </c>
+      <c r="L83">
+        <v>4.7499003013715603E-2</v>
+      </c>
+      <c r="M83">
+        <v>4.5881481314429103E-2</v>
+      </c>
+      <c r="N83">
+        <v>5.0022615206249697E-2</v>
+      </c>
+      <c r="O83">
+        <v>4.5015820069446301E-2</v>
+      </c>
+      <c r="P83">
+        <v>4.3227838945501897E-2</v>
+      </c>
+      <c r="Q83">
+        <v>3.9379704898679001E-2</v>
+      </c>
+      <c r="R83">
+        <v>4.3093048230592602E-2</v>
+      </c>
+      <c r="S83">
+        <v>5.4223842719954202E-2</v>
+      </c>
+      <c r="T83">
+        <v>4.8336030635551801E-2</v>
+      </c>
+      <c r="U83">
+        <v>4.77408663762608E-2</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>2007</v>
-      </c>
-      <c r="B85" s="4">
-        <f>+B66-B65</f>
-        <v>-1.5941460059401003E-3</v>
-      </c>
-      <c r="C85" s="4">
-        <f>+C66-C65</f>
-        <v>1.7205036079969982E-3</v>
-      </c>
-      <c r="D85" s="4">
-        <f>+D66-D65</f>
-        <v>-3.0382276138953071E-3</v>
-      </c>
-      <c r="E85" s="4">
-        <f>+E66-E65</f>
-        <v>-5.5049619291686058E-3</v>
-      </c>
-      <c r="F85" s="4">
-        <f>+F66-F65</f>
-        <v>2.1043708995579918E-3</v>
-      </c>
-      <c r="G85" s="4">
-        <f>+G66-G65</f>
-        <v>-1.0495964974312974E-3</v>
-      </c>
-      <c r="H85" s="4">
-        <f>+H66-H65</f>
-        <v>1.4447944205921992E-3</v>
-      </c>
-      <c r="I85" s="4">
-        <f>+I66-I65</f>
-        <v>-1.6596629061093049E-3</v>
-      </c>
-      <c r="J85" s="4">
-        <f>+J66-J65</f>
-        <v>-7.9295722143005176E-6</v>
-      </c>
-      <c r="K85" s="4">
-        <f>+K66-K65</f>
-        <v>8.2288513185595977E-3</v>
-      </c>
-      <c r="L85" s="4">
-        <f>+L66-L65</f>
-        <v>4.9401270627048022E-3</v>
-      </c>
-      <c r="M85" s="4">
-        <f>+M66-M65</f>
-        <v>-2.1903898890361026E-3</v>
-      </c>
-      <c r="N85" s="4">
-        <f>+N66-N65</f>
-        <v>-4.7689724457928989E-3</v>
-      </c>
-      <c r="O85" s="4">
-        <f>+O66-O65</f>
-        <v>-7.2543073198599872E-4</v>
-      </c>
-      <c r="P85" s="4">
-        <f>+P66-P65</f>
-        <v>3.4184387965721999E-3</v>
-      </c>
-      <c r="Q85" s="4">
-        <f>+Q66-Q65</f>
-        <v>2.3769903005593992E-3</v>
-      </c>
-      <c r="R85" s="4">
-        <f>+R66-R65</f>
-        <v>3.0740549520900246E-4</v>
-      </c>
-      <c r="S85" s="4">
-        <f>+S66-S65</f>
-        <v>-7.6269890371820359E-4</v>
-      </c>
-      <c r="T85" s="4">
-        <f>+T66-T65</f>
-        <v>2.7990858010481026E-3</v>
-      </c>
-      <c r="U85" s="4">
-        <f>+U66-U65</f>
-        <v>1.4224965888785038E-3</v>
+      <c r="A85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B86" s="4">
-        <f>+B67-B66</f>
-        <v>-1.6523183249417955E-3</v>
+        <f t="shared" ref="B86:U86" si="23">+B67-B66</f>
+        <v>-4.2762919561385032E-3</v>
       </c>
       <c r="C86" s="4">
-        <f>+C67-C66</f>
-        <v>7.8290055243759871E-4</v>
+        <f t="shared" si="23"/>
+        <v>-4.3696344347486094E-3</v>
       </c>
       <c r="D86" s="4">
-        <f>+D67-D66</f>
-        <v>6.5361903663260085E-4</v>
+        <f t="shared" si="23"/>
+        <v>-3.6539810659265981E-3</v>
       </c>
       <c r="E86" s="4">
-        <f>+E67-E66</f>
-        <v>6.944281002694494E-3</v>
+        <f t="shared" si="23"/>
+        <v>-3.3125671196865963E-3</v>
       </c>
       <c r="F86" s="4">
-        <f>+F67-F66</f>
-        <v>1.5519138966393065E-3</v>
+        <f t="shared" si="23"/>
+        <v>-4.9582473998893012E-3</v>
       </c>
       <c r="G86" s="4">
-        <f>+G67-G66</f>
-        <v>7.7257002274365924E-3</v>
+        <f t="shared" si="23"/>
+        <v>-1.1385575309565507E-2</v>
       </c>
       <c r="H86" s="4">
-        <f>+H67-H66</f>
-        <v>1.1923307850615197E-2</v>
+        <f t="shared" si="23"/>
+        <v>-9.0633474592945046E-3</v>
       </c>
       <c r="I86" s="4">
-        <f>+I67-I66</f>
-        <v>-7.9196108683489419E-4</v>
+        <f t="shared" si="23"/>
+        <v>-4.0017113993569969E-3</v>
       </c>
       <c r="J86" s="4">
-        <f>+J67-J66</f>
-        <v>1.4389582266201989E-3</v>
+        <f t="shared" si="23"/>
+        <v>-6.1800703399495019E-3</v>
       </c>
       <c r="K86" s="4">
-        <f>+K67-K66</f>
-        <v>7.2352597043941966E-3</v>
+        <f t="shared" si="23"/>
+        <v>-6.6568830149479896E-4</v>
       </c>
       <c r="L86" s="4">
-        <f>+L67-L66</f>
-        <v>4.2795705777072951E-3</v>
+        <f t="shared" si="23"/>
+        <v>-1.008983473650861E-2</v>
       </c>
       <c r="M86" s="4">
-        <f>+M67-M66</f>
-        <v>1.1086043775454704E-2</v>
+        <f t="shared" si="23"/>
+        <v>-8.5297395768183029E-3</v>
       </c>
       <c r="N86" s="4">
-        <f>+N67-N66</f>
-        <v>3.0410818787990068E-3</v>
+        <f t="shared" si="23"/>
+        <v>-1.0352955910319692E-2</v>
       </c>
       <c r="O86" s="4">
-        <f>+O67-O66</f>
-        <v>3.7696768697096997E-3</v>
+        <f t="shared" si="23"/>
+        <v>-7.0409114265663972E-3</v>
       </c>
       <c r="P86" s="4">
-        <f>+P67-P66</f>
-        <v>4.1539688979605055E-3</v>
+        <f t="shared" si="23"/>
+        <v>-1.1349816511955102E-2</v>
       </c>
       <c r="Q86" s="4">
-        <f>+Q67-Q66</f>
-        <v>1.5803029192400231E-5</v>
+        <f t="shared" si="23"/>
+        <v>-8.3873846736223986E-3</v>
       </c>
       <c r="R86" s="4">
-        <f>+R67-R66</f>
-        <v>1.5364333339570185E-4</v>
+        <f t="shared" si="23"/>
+        <v>-4.5331104115653997E-3</v>
       </c>
       <c r="S86" s="4">
-        <f>+S67-S66</f>
-        <v>1.1569814752029603E-2</v>
+        <f t="shared" si="23"/>
+        <v>-7.8321232614073089E-3</v>
       </c>
       <c r="T86" s="4">
-        <f>+T67-T66</f>
-        <v>3.471691142444798E-3</v>
+        <f t="shared" si="23"/>
+        <v>-5.3470265721340948E-3</v>
       </c>
       <c r="U86" s="4">
-        <f>+U67-U66</f>
-        <v>-2.7090642868637035E-3</v>
+        <f t="shared" si="23"/>
+        <v>-7.482139998971897E-3</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B87" s="4">
-        <f>+B68-B67</f>
-        <v>6.9871259798676977E-3</v>
+        <f t="shared" ref="B87:U87" si="24">+B68-B67</f>
+        <v>-2.1593543491398998E-3</v>
       </c>
       <c r="C87" s="4">
-        <f>+C68-C67</f>
-        <v>8.9738368792437045E-3</v>
+        <f t="shared" si="24"/>
+        <v>-5.4661719895201938E-3</v>
       </c>
       <c r="D87" s="4">
-        <f>+D68-D67</f>
-        <v>-2.9892854337146973E-3</v>
+        <f t="shared" si="24"/>
+        <v>-2.7016842036037964E-3</v>
       </c>
       <c r="E87" s="4">
-        <f>+E68-E67</f>
-        <v>4.7701073301118085E-3</v>
+        <f t="shared" si="24"/>
+        <v>-3.5119838849168999E-3</v>
       </c>
       <c r="F87" s="4">
-        <f>+F68-F67</f>
-        <v>3.8067644456492994E-3</v>
+        <f t="shared" si="24"/>
+        <v>-1.2854163588826989E-3</v>
       </c>
       <c r="G87" s="4">
-        <f>+G68-G67</f>
-        <v>5.9727758412663062E-3</v>
+        <f t="shared" si="24"/>
+        <v>-2.3043625627068992E-3</v>
       </c>
       <c r="H87" s="4">
-        <f>+H68-H67</f>
-        <v>4.8457078619797977E-3</v>
+        <f t="shared" si="24"/>
+        <v>8.6437253787480239E-4</v>
       </c>
       <c r="I87" s="4">
-        <f>+I68-I67</f>
-        <v>3.8906533996612008E-3</v>
+        <f t="shared" si="24"/>
+        <v>-2.397137587239806E-3</v>
       </c>
       <c r="J87" s="4">
-        <f>+J68-J67</f>
-        <v>6.2765189161329976E-3</v>
+        <f t="shared" si="24"/>
+        <v>-3.7136397111414976E-3</v>
       </c>
       <c r="K87" s="4">
-        <f>+K68-K67</f>
-        <v>1.2169085390460702E-2</v>
+        <f t="shared" si="24"/>
+        <v>-1.0452414889805001E-2</v>
       </c>
       <c r="L87" s="4">
-        <f>+L68-L67</f>
-        <v>-3.0137184083560975E-3</v>
+        <f t="shared" si="24"/>
+        <v>-7.6792117353192968E-3</v>
       </c>
       <c r="M87" s="4">
-        <f>+M68-M67</f>
-        <v>3.9636791874001973E-3</v>
+        <f t="shared" si="24"/>
+        <v>-1.0042826389187604E-2</v>
       </c>
       <c r="N87" s="4">
-        <f>+N68-N67</f>
-        <v>5.4948509596693951E-3</v>
+        <f t="shared" si="24"/>
+        <v>-1.4242171340351079E-3</v>
       </c>
       <c r="O87" s="4">
-        <f>+O68-O67</f>
-        <v>9.4325732798907005E-3</v>
+        <f t="shared" si="24"/>
+        <v>-6.0731805035790995E-3</v>
       </c>
       <c r="P87" s="4">
-        <f>+P68-P67</f>
-        <v>5.8622847266748962E-3</v>
+        <f t="shared" si="24"/>
+        <v>-5.0309830685740103E-4</v>
       </c>
       <c r="Q87" s="4">
-        <f>+Q68-Q67</f>
-        <v>-6.9120458392748982E-3</v>
+        <f t="shared" si="24"/>
+        <v>-3.5772563170351976E-3</v>
       </c>
       <c r="R87" s="4">
-        <f>+R68-R67</f>
-        <v>6.018756373067799E-3</v>
+        <f t="shared" si="24"/>
+        <v>-5.2870335103432989E-3</v>
       </c>
       <c r="S87" s="4">
-        <f>+S68-S67</f>
-        <v>-2.4381716139488946E-3</v>
+        <f t="shared" si="24"/>
+        <v>1.0680419665582003E-3</v>
       </c>
       <c r="T87" s="4">
-        <f>+T68-T67</f>
-        <v>5.7941939876729048E-3</v>
+        <f t="shared" si="24"/>
+        <v>-7.4628573642768065E-3</v>
       </c>
       <c r="U87" s="4">
-        <f>+U68-U67</f>
-        <v>8.112059590760598E-3</v>
+        <f t="shared" si="24"/>
+        <v>-3.5705482963932014E-3</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B88" s="4">
-        <f>+B69-B68</f>
-        <v>3.9013317602853009E-3</v>
+        <f t="shared" ref="B88:U88" si="25">+B69-B68</f>
+        <v>-1.5941460059401003E-3</v>
       </c>
       <c r="C88" s="4">
-        <f>+C69-C68</f>
-        <v>1.1501632456771965E-3</v>
+        <f t="shared" si="25"/>
+        <v>1.7205036079969982E-3</v>
       </c>
       <c r="D88" s="4">
-        <f>+D69-D68</f>
-        <v>7.2169375761828025E-3</v>
+        <f t="shared" si="25"/>
+        <v>-3.0382276138953071E-3</v>
       </c>
       <c r="E88" s="4">
-        <f>+E69-E68</f>
-        <v>-4.6082472335333968E-3</v>
+        <f t="shared" si="25"/>
+        <v>-5.5049619291686058E-3</v>
       </c>
       <c r="F88" s="4">
-        <f>+F69-F68</f>
-        <v>-6.5222589283846083E-3</v>
+        <f t="shared" si="25"/>
+        <v>2.1043708995579918E-3</v>
       </c>
       <c r="G88" s="4">
-        <f>+G69-G68</f>
-        <v>-2.7964525393456008E-3</v>
+        <f t="shared" si="25"/>
+        <v>-1.0495964974312974E-3</v>
       </c>
       <c r="H88" s="4">
-        <f>+H69-H68</f>
-        <v>1.0154960030949109E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.4447944205921992E-3</v>
       </c>
       <c r="I88" s="4">
-        <f>+I69-I68</f>
-        <v>1.0314560130916944E-3</v>
+        <f t="shared" si="25"/>
+        <v>-1.6596629061093049E-3</v>
       </c>
       <c r="J88" s="4">
-        <f>+J69-J68</f>
-        <v>4.5381474866008978E-3</v>
+        <f t="shared" si="25"/>
+        <v>-7.9295722143005176E-6</v>
       </c>
       <c r="K88" s="4">
-        <f>+K69-K68</f>
-        <v>-4.4815069778973982E-3</v>
+        <f t="shared" si="25"/>
+        <v>8.2288513185595977E-3</v>
       </c>
       <c r="L88" s="4">
-        <f>+L69-L68</f>
-        <v>3.020174448958704E-3</v>
+        <f t="shared" si="25"/>
+        <v>4.9401270627048022E-3</v>
       </c>
       <c r="M88" s="4">
-        <f>+M69-M68</f>
-        <v>3.8041507826167067E-3</v>
+        <f t="shared" si="25"/>
+        <v>-2.1903898890361026E-3</v>
       </c>
       <c r="N88" s="4">
-        <f>+N69-N68</f>
-        <v>2.6480115901890422E-4</v>
+        <f t="shared" si="25"/>
+        <v>-4.7689724457928989E-3</v>
       </c>
       <c r="O88" s="4">
-        <f>+O69-O68</f>
-        <v>-1.4676059739937991E-3</v>
+        <f t="shared" si="25"/>
+        <v>-7.2543073198599872E-4</v>
       </c>
       <c r="P88" s="4">
-        <f>+P69-P68</f>
-        <v>2.7665915798731067E-3</v>
+        <f t="shared" si="25"/>
+        <v>3.4184387965721999E-3</v>
       </c>
       <c r="Q88" s="4">
-        <f>+Q69-Q68</f>
-        <v>1.1123448261573701E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.3769903005593992E-3</v>
       </c>
       <c r="R88" s="4">
-        <f>+R69-R68</f>
-        <v>1.4049267367606949E-3</v>
+        <f t="shared" si="25"/>
+        <v>3.0740549520900246E-4</v>
       </c>
       <c r="S88" s="4">
-        <f>+S69-S68</f>
-        <v>-9.6402520753471055E-3</v>
+        <f t="shared" si="25"/>
+        <v>-7.6269890371820359E-4</v>
       </c>
       <c r="T88" s="4">
-        <f>+T69-T68</f>
-        <v>2.3534968597862943E-3</v>
+        <f t="shared" si="25"/>
+        <v>2.7990858010481026E-3</v>
       </c>
       <c r="U88" s="4">
-        <f>+U69-U68</f>
-        <v>1.1502110816875022E-3</v>
+        <f t="shared" si="25"/>
+        <v>1.4224965888785038E-3</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B89" s="4">
-        <f>+B70-B69</f>
-        <v>-4.6047035256836927E-3</v>
+        <f t="shared" ref="B89:U89" si="26">+B70-B69</f>
+        <v>-1.6523183249417955E-3</v>
       </c>
       <c r="C89" s="4">
-        <f>+C70-C69</f>
-        <v>-7.7532035675359975E-3</v>
+        <f t="shared" si="26"/>
+        <v>7.8290055243759871E-4</v>
       </c>
       <c r="D89" s="4">
-        <f>+D70-D69</f>
-        <v>-6.2165767996060009E-3</v>
+        <f t="shared" si="26"/>
+        <v>6.5361903663260085E-4</v>
       </c>
       <c r="E89" s="4">
-        <f>+E70-E69</f>
-        <v>-1.4328432146319126E-3</v>
+        <f t="shared" si="26"/>
+        <v>6.944281002694494E-3</v>
       </c>
       <c r="F89" s="4">
-        <f>+F70-F69</f>
-        <v>-3.6899804907824935E-3</v>
+        <f t="shared" si="26"/>
+        <v>1.5519138966393065E-3</v>
       </c>
       <c r="G89" s="4">
-        <f>+G70-G69</f>
-        <v>-8.3613315725373019E-3</v>
+        <f t="shared" si="26"/>
+        <v>7.7257002274365924E-3</v>
       </c>
       <c r="H89" s="4">
-        <f>+H70-H69</f>
-        <v>-8.6764136534440012E-3</v>
+        <f t="shared" si="26"/>
+        <v>1.1923307850615197E-2</v>
       </c>
       <c r="I89" s="4">
-        <f>+I70-I69</f>
-        <v>-1.2244616159799798E-2</v>
+        <f t="shared" si="26"/>
+        <v>-7.9196108683489419E-4</v>
       </c>
       <c r="J89" s="4">
-        <f>+J70-J69</f>
-        <v>-6.0096069377249955E-3</v>
+        <f t="shared" si="26"/>
+        <v>1.4389582266201989E-3</v>
       </c>
       <c r="K89" s="4">
-        <f>+K70-K69</f>
-        <v>-4.9411222544469974E-3</v>
+        <f t="shared" si="26"/>
+        <v>7.2352597043941966E-3</v>
       </c>
       <c r="L89" s="4">
-        <f>+L70-L69</f>
-        <v>-2.6923999730542048E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.2795705777072951E-3</v>
       </c>
       <c r="M89" s="4">
-        <f>+M70-M69</f>
-        <v>-9.7742576029512043E-3</v>
+        <f t="shared" si="26"/>
+        <v>1.1086043775454704E-2</v>
       </c>
       <c r="N89" s="4">
-        <f>+N70-N69</f>
-        <v>-2.4843821200581095E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.0410818787990068E-3</v>
       </c>
       <c r="O89" s="4">
-        <f>+O70-O69</f>
-        <v>-5.6466530899671047E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.7696768697096997E-3</v>
       </c>
       <c r="P89" s="4">
-        <f>+P70-P69</f>
-        <v>-6.9287405866107071E-3</v>
+        <f t="shared" si="26"/>
+        <v>4.1539688979605055E-3</v>
       </c>
       <c r="Q89" s="4">
-        <f>+Q70-Q69</f>
-        <v>3.4970547340719416E-4</v>
+        <f t="shared" si="26"/>
+        <v>1.5803029192400231E-5</v>
       </c>
       <c r="R89" s="4">
-        <f>+R70-R69</f>
-        <v>-4.3533379823420953E-3</v>
+        <f t="shared" si="26"/>
+        <v>1.5364333339570185E-4</v>
       </c>
       <c r="S89" s="4">
-        <f>+S70-S69</f>
-        <v>-1.4598935075085945E-3</v>
+        <f t="shared" si="26"/>
+        <v>1.1569814752029603E-2</v>
       </c>
       <c r="T89" s="4">
-        <f>+T70-T69</f>
-        <v>-2.9010717118752027E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.471691142444798E-3</v>
       </c>
       <c r="U89" s="4">
-        <f>+U70-U69</f>
-        <v>-4.5767992379355943E-3</v>
+        <f t="shared" si="26"/>
+        <v>-2.7090642868637035E-3</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B90" s="4">
-        <f>+B71-B70</f>
-        <v>-2.7132016373850043E-3</v>
+        <f t="shared" ref="B90:U90" si="27">+B71-B70</f>
+        <v>6.9871259798676977E-3</v>
       </c>
       <c r="C90" s="4">
-        <f>+C71-C70</f>
-        <v>-1.0825713089991015E-3</v>
+        <f t="shared" si="27"/>
+        <v>8.9738368792437045E-3</v>
       </c>
       <c r="D90" s="4">
-        <f>+D71-D70</f>
-        <v>-3.607665698232905E-3</v>
+        <f t="shared" si="27"/>
+        <v>-2.9892854337146973E-3</v>
       </c>
       <c r="E90" s="4">
-        <f>+E71-E70</f>
-        <v>-8.4706066140100011E-4</v>
+        <f t="shared" si="27"/>
+        <v>4.7701073301118085E-3</v>
       </c>
       <c r="F90" s="4">
-        <f>+F71-F70</f>
-        <v>-9.7367713633710051E-4</v>
+        <f t="shared" si="27"/>
+        <v>3.8067644456492994E-3</v>
       </c>
       <c r="G90" s="4">
-        <f>+G71-G70</f>
-        <v>8.5399409301799983E-4</v>
+        <f t="shared" si="27"/>
+        <v>5.9727758412663062E-3</v>
       </c>
       <c r="H90" s="4">
-        <f>+H71-H70</f>
-        <v>-8.3187393329172965E-3</v>
+        <f t="shared" si="27"/>
+        <v>4.8457078619797977E-3</v>
       </c>
       <c r="I90" s="4">
-        <f>+I71-I70</f>
-        <v>3.3945552659205014E-3</v>
+        <f t="shared" si="27"/>
+        <v>3.8906533996612008E-3</v>
       </c>
       <c r="J90" s="4">
-        <f>+J71-J70</f>
-        <v>-2.8419779922657026E-3</v>
+        <f t="shared" si="27"/>
+        <v>6.2765189161329976E-3</v>
       </c>
       <c r="K90" s="4">
-        <f>+K71-K70</f>
-        <v>-5.7528259472529042E-3</v>
+        <f t="shared" si="27"/>
+        <v>1.2169085390460702E-2</v>
       </c>
       <c r="L90" s="4">
-        <f>+L71-L70</f>
-        <v>-3.2111451488830017E-3</v>
+        <f t="shared" si="27"/>
+        <v>-3.0137184083560975E-3</v>
       </c>
       <c r="M90" s="4">
-        <f>+M71-M70</f>
-        <v>-2.2586694000620022E-3</v>
+        <f t="shared" si="27"/>
+        <v>3.9636791874001973E-3</v>
       </c>
       <c r="N90" s="4">
-        <f>+N71-N70</f>
-        <v>-3.3555834248893968E-3</v>
+        <f t="shared" si="27"/>
+        <v>5.4948509596693951E-3</v>
       </c>
       <c r="O90" s="4">
-        <f>+O71-O70</f>
-        <v>-7.3651082612569835E-4</v>
+        <f t="shared" si="27"/>
+        <v>9.4325732798907005E-3</v>
       </c>
       <c r="P90" s="4">
-        <f>+P71-P70</f>
-        <v>-2.5135491606946003E-3</v>
+        <f t="shared" si="27"/>
+        <v>5.8622847266748962E-3</v>
       </c>
       <c r="Q90" s="4">
-        <f>+Q71-Q70</f>
-        <v>-4.7519479437273943E-3</v>
+        <f t="shared" si="27"/>
+        <v>-6.9120458392748982E-3</v>
       </c>
       <c r="R90" s="4">
-        <f>+R71-R70</f>
-        <v>-4.6654168650955979E-3</v>
+        <f t="shared" si="27"/>
+        <v>6.018756373067799E-3</v>
       </c>
       <c r="S90" s="4">
-        <f>+S71-S70</f>
-        <v>-7.8435789651830345E-4</v>
+        <f t="shared" si="27"/>
+        <v>-2.4381716139488946E-3</v>
       </c>
       <c r="T90" s="4">
-        <f>+T71-T70</f>
-        <v>-5.8933375380051944E-3</v>
+        <f t="shared" si="27"/>
+        <v>5.7941939876729048E-3</v>
       </c>
       <c r="U90" s="4">
-        <f>+U71-U70</f>
-        <v>-2.6008639947256024E-3</v>
+        <f t="shared" si="27"/>
+        <v>8.112059590760598E-3</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B91" s="4">
-        <f>+B72-B71</f>
-        <v>-9.5971562119470666E-4</v>
+        <f t="shared" ref="B91:U91" si="28">+B72-B71</f>
+        <v>3.9013317602853009E-3</v>
       </c>
       <c r="C91" s="4">
-        <f>+C72-C71</f>
-        <v>-7.3138157444110202E-4</v>
+        <f t="shared" si="28"/>
+        <v>1.1501632456771965E-3</v>
       </c>
       <c r="D91" s="4">
-        <f>+D72-D71</f>
-        <v>-1.9862885442807968E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.2169375761828025E-3</v>
       </c>
       <c r="E91" s="4">
-        <f>+E72-E71</f>
-        <v>-1.7065112147953906E-3</v>
+        <f t="shared" si="28"/>
+        <v>-4.6082472335333968E-3</v>
       </c>
       <c r="F91" s="4">
-        <f>+F72-F71</f>
-        <v>-8.2035818005893324E-5</v>
+        <f t="shared" si="28"/>
+        <v>-6.5222589283846083E-3</v>
       </c>
       <c r="G91" s="4">
-        <f>+G72-G71</f>
-        <v>3.2841263153102207E-5</v>
+        <f t="shared" si="28"/>
+        <v>-2.7964525393456008E-3</v>
       </c>
       <c r="H91" s="4">
-        <f>+H72-H71</f>
-        <v>-4.6544413182721123E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.0154960030949109E-2</v>
       </c>
       <c r="I91" s="4">
-        <f>+I72-I71</f>
-        <v>4.3207611798587037E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.0314560130916944E-3</v>
       </c>
       <c r="J91" s="4">
-        <f>+J72-J71</f>
-        <v>-2.1142418399157994E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.5381474866008978E-3</v>
       </c>
       <c r="K91" s="4">
-        <f>+K72-K71</f>
-        <v>-9.7181228265403943E-3</v>
+        <f t="shared" si="28"/>
+        <v>-4.4815069778973982E-3</v>
       </c>
       <c r="L91" s="4">
-        <f>+L72-L71</f>
-        <v>-1.4487897850439663E-4</v>
+        <f t="shared" si="28"/>
+        <v>3.020174448958704E-3</v>
       </c>
       <c r="M91" s="4">
-        <f>+M72-M71</f>
-        <v>-3.9897409202243952E-3</v>
+        <f t="shared" si="28"/>
+        <v>3.8041507826167067E-3</v>
       </c>
       <c r="N91" s="4">
-        <f>+N72-N71</f>
-        <v>-3.4522742931001951E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.6480115901890422E-4</v>
       </c>
       <c r="O91" s="4">
-        <f>+O72-O71</f>
-        <v>-1.4625923827899998E-3</v>
+        <f t="shared" si="28"/>
+        <v>-1.4676059739937991E-3</v>
       </c>
       <c r="P91" s="4">
-        <f>+P72-P71</f>
-        <v>-2.1165114219217976E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.7665915798731067E-3</v>
       </c>
       <c r="Q91" s="4">
-        <f>+Q72-Q71</f>
-        <v>-4.918897919140304E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.1123448261573701E-2</v>
       </c>
       <c r="R91" s="4">
-        <f>+R72-R71</f>
-        <v>-1.6802738357045016E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.4049267367606949E-3</v>
       </c>
       <c r="S91" s="4">
-        <f>+S72-S71</f>
-        <v>-2.0474596331265943E-3</v>
+        <f t="shared" si="28"/>
+        <v>-9.6402520753471055E-3</v>
       </c>
       <c r="T91" s="4">
-        <f>+T72-T71</f>
-        <v>1.4934801858220992E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.3534968597862943E-3</v>
       </c>
       <c r="U91" s="4">
-        <f>+U72-U71</f>
-        <v>-1.4708471407436988E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.1502110816875022E-3</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B92" s="4">
-        <f>+B73-B72</f>
-        <v>8.397695342604039E-4</v>
+        <f t="shared" ref="B92:U92" si="29">+B73-B72</f>
+        <v>-4.6047035256836927E-3</v>
       </c>
       <c r="C92" s="4">
-        <f>+C73-C72</f>
-        <v>-1.3316258846862994E-3</v>
+        <f t="shared" si="29"/>
+        <v>-7.7532035675359975E-3</v>
       </c>
       <c r="D92" s="4">
-        <f>+D73-D72</f>
-        <v>2.3927114357025006E-3</v>
+        <f t="shared" si="29"/>
+        <v>-6.2165767996060009E-3</v>
       </c>
       <c r="E92" s="4">
-        <f>+E73-E72</f>
-        <v>9.0764660851797019E-5</v>
+        <f t="shared" si="29"/>
+        <v>-1.4328432146319126E-3</v>
       </c>
       <c r="F92" s="4">
-        <f>+F73-F72</f>
-        <v>-6.6298068150891232E-4</v>
+        <f t="shared" si="29"/>
+        <v>-3.6899804907824935E-3</v>
       </c>
       <c r="G92" s="4">
-        <f>+G73-G72</f>
-        <v>-1.4128787069603993E-3</v>
+        <f t="shared" si="29"/>
+        <v>-8.3613315725373019E-3</v>
       </c>
       <c r="H92" s="4">
-        <f>+H73-H72</f>
-        <v>2.2159244568569075E-3</v>
+        <f t="shared" si="29"/>
+        <v>-8.6764136534440012E-3</v>
       </c>
       <c r="I92" s="4">
-        <f>+I73-I72</f>
-        <v>-2.0888246420490975E-3</v>
+        <f t="shared" si="29"/>
+        <v>-1.2244616159799798E-2</v>
       </c>
       <c r="J92" s="4">
-        <f>+J73-J72</f>
-        <v>-3.8756157964039972E-4</v>
+        <f t="shared" si="29"/>
+        <v>-6.0096069377249955E-3</v>
       </c>
       <c r="K92" s="4">
-        <f>+K73-K72</f>
-        <v>2.5669396937679015E-3</v>
+        <f t="shared" si="29"/>
+        <v>-4.9411222544469974E-3</v>
       </c>
       <c r="L92" s="4">
-        <f>+L73-L72</f>
-        <v>-2.3291082357227016E-3</v>
+        <f t="shared" si="29"/>
+        <v>-2.6923999730542048E-3</v>
       </c>
       <c r="M92" s="4">
-        <f>+M73-M72</f>
-        <v>-2.5824623158540033E-3</v>
+        <f t="shared" si="29"/>
+        <v>-9.7742576029512043E-3</v>
       </c>
       <c r="N92" s="4">
-        <f>+N73-N72</f>
-        <v>9.3629209933560054E-4</v>
+        <f t="shared" si="29"/>
+        <v>-2.4843821200581095E-3</v>
       </c>
       <c r="O92" s="4">
-        <f>+O73-O72</f>
-        <v>6.7310354249269788E-4</v>
+        <f t="shared" si="29"/>
+        <v>-5.6466530899671047E-3</v>
       </c>
       <c r="P92" s="4">
-        <f>+P73-P72</f>
-        <v>2.4955488310590968E-3</v>
+        <f t="shared" si="29"/>
+        <v>-6.9287405866107071E-3</v>
       </c>
       <c r="Q92" s="4">
-        <f>+Q73-Q72</f>
-        <v>-2.6708613676674001E-3</v>
+        <f t="shared" si="29"/>
+        <v>3.4970547340719416E-4</v>
       </c>
       <c r="R92" s="4">
-        <f>+R73-R72</f>
-        <v>9.5934751418379899E-4</v>
+        <f t="shared" si="29"/>
+        <v>-4.3533379823420953E-3</v>
       </c>
       <c r="S92" s="4">
-        <f>+S73-S72</f>
-        <v>7.3147050347339981E-4</v>
+        <f t="shared" si="29"/>
+        <v>-1.4598935075085945E-3</v>
       </c>
       <c r="T92" s="4">
-        <f>+T73-T72</f>
-        <v>-2.0059192668508974E-5</v>
+        <f t="shared" si="29"/>
+        <v>-2.9010717118752027E-3</v>
       </c>
       <c r="U92" s="4">
-        <f>+U73-U72</f>
-        <v>1.0921417535827982E-3</v>
+        <f t="shared" si="29"/>
+        <v>-4.5767992379355943E-3</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B93" s="4">
-        <f>+B74-B73</f>
-        <v>-3.3835144439806966E-3</v>
+        <f t="shared" ref="B93:U93" si="30">+B74-B73</f>
+        <v>-2.7132016373850043E-3</v>
       </c>
       <c r="C93" s="4">
-        <f>+C74-C73</f>
-        <v>-1.9781440909342959E-3</v>
+        <f t="shared" si="30"/>
+        <v>-1.0825713089991015E-3</v>
       </c>
       <c r="D93" s="4">
-        <f>+D74-D73</f>
-        <v>-4.0696527162313034E-3</v>
+        <f t="shared" si="30"/>
+        <v>-3.607665698232905E-3</v>
       </c>
       <c r="E93" s="4">
-        <f>+E74-E73</f>
-        <v>-2.484729389557197E-3</v>
+        <f t="shared" si="30"/>
+        <v>-8.4706066140100011E-4</v>
       </c>
       <c r="F93" s="4">
-        <f>+F74-F73</f>
-        <v>-2.6111393179709952E-3</v>
+        <f t="shared" si="30"/>
+        <v>-9.7367713633710051E-4</v>
       </c>
       <c r="G93" s="4">
-        <f>+G74-G73</f>
-        <v>-1.8447780582662027E-3</v>
+        <f t="shared" si="30"/>
+        <v>8.5399409301799983E-4</v>
       </c>
       <c r="H93" s="4">
-        <f>+H74-H73</f>
-        <v>-6.0578626221746007E-3</v>
+        <f t="shared" si="30"/>
+        <v>-8.3187393329172965E-3</v>
       </c>
       <c r="I93" s="4">
-        <f>+I74-I73</f>
-        <v>-3.1997287787099982E-3</v>
+        <f t="shared" si="30"/>
+        <v>3.3945552659205014E-3</v>
       </c>
       <c r="J93" s="4">
-        <f>+J74-J73</f>
-        <v>-4.4509617654279951E-3</v>
+        <f t="shared" si="30"/>
+        <v>-2.8419779922657026E-3</v>
       </c>
       <c r="K93" s="4">
-        <f>+K74-K73</f>
-        <v>-1.5691332870571006E-3</v>
+        <f t="shared" si="30"/>
+        <v>-5.7528259472529042E-3</v>
       </c>
       <c r="L93" s="4">
-        <f>+L74-L73</f>
-        <v>-2.7942693863247936E-3</v>
+        <f t="shared" si="30"/>
+        <v>-3.2111451488830017E-3</v>
       </c>
       <c r="M93" s="4">
-        <f>+M74-M73</f>
-        <v>4.9605440882259655E-4</v>
+        <f t="shared" si="30"/>
+        <v>-2.2586694000620022E-3</v>
       </c>
       <c r="N93" s="4">
-        <f>+N74-N73</f>
-        <v>-1.7224382552570999E-3</v>
+        <f t="shared" si="30"/>
+        <v>-3.3555834248893968E-3</v>
       </c>
       <c r="O93" s="4">
-        <f>+O74-O73</f>
-        <v>-2.6727330098385987E-3</v>
+        <f t="shared" si="30"/>
+        <v>-7.3651082612569835E-4</v>
       </c>
       <c r="P93" s="4">
-        <f>+P74-P73</f>
-        <v>-5.537378295914698E-3</v>
+        <f t="shared" si="30"/>
+        <v>-2.5135491606946003E-3</v>
       </c>
       <c r="Q93" s="4">
-        <f>+Q74-Q73</f>
-        <v>-2.069723518851499E-3</v>
+        <f t="shared" si="30"/>
+        <v>-4.7519479437273943E-3</v>
       </c>
       <c r="R93" s="4">
-        <f>+R74-R73</f>
-        <v>-1.8132128820824989E-3</v>
+        <f t="shared" si="30"/>
+        <v>-4.6654168650955979E-3</v>
       </c>
       <c r="S93" s="4">
-        <f>+S74-S73</f>
-        <v>-1.3523429780906704E-5</v>
+        <f t="shared" si="30"/>
+        <v>-7.8435789651830345E-4</v>
       </c>
       <c r="T93" s="4">
-        <f>+T74-T73</f>
-        <v>-4.2124386122942906E-3</v>
+        <f t="shared" si="30"/>
+        <v>-5.8933375380051944E-3</v>
       </c>
       <c r="U93" s="4">
-        <f>+U74-U73</f>
-        <v>-2.2887481341822002E-3</v>
+        <f t="shared" si="30"/>
+        <v>-2.6008639947256024E-3</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B94" s="4">
-        <f>+B75-B74</f>
-        <v>-1.5952460819591008E-3</v>
+        <f t="shared" ref="B94:U94" si="31">+B75-B74</f>
+        <v>-9.5971562119470666E-4</v>
       </c>
       <c r="C94" s="4">
-        <f>+C75-C74</f>
-        <v>1.2850449529186944E-3</v>
+        <f t="shared" si="31"/>
+        <v>-7.3138157444110202E-4</v>
       </c>
       <c r="D94" s="4">
-        <f>+D75-D74</f>
-        <v>-1.8462313261461E-3</v>
+        <f t="shared" si="31"/>
+        <v>-1.9862885442807968E-3</v>
       </c>
       <c r="E94" s="4">
-        <f>+E75-E74</f>
-        <v>5.9988927063969744E-4</v>
+        <f t="shared" si="31"/>
+        <v>-1.7065112147953906E-3</v>
       </c>
       <c r="F94" s="4">
-        <f>+F75-F74</f>
-        <v>-1.9390138792989009E-3</v>
+        <f t="shared" si="31"/>
+        <v>-8.2035818005893324E-5</v>
       </c>
       <c r="G94" s="4">
-        <f>+G75-G74</f>
-        <v>1.436700074437039E-4</v>
+        <f t="shared" si="31"/>
+        <v>3.2841263153102207E-5</v>
       </c>
       <c r="H94" s="4">
-        <f>+H75-H74</f>
-        <v>-1.1706120618182048E-3</v>
+        <f t="shared" si="31"/>
+        <v>-4.6544413182721123E-3</v>
       </c>
       <c r="I94" s="4">
-        <f>+I75-I74</f>
-        <v>-8.5418029919440142E-4</v>
+        <f t="shared" si="31"/>
+        <v>4.3207611798587037E-3</v>
       </c>
       <c r="J94" s="4">
-        <f>+J75-J74</f>
-        <v>-2.2907359951229028E-3</v>
+        <f t="shared" si="31"/>
+        <v>-2.1142418399157994E-3</v>
       </c>
       <c r="K94" s="4">
-        <f>+K75-K74</f>
-        <v>-1.8438691943351987E-3</v>
+        <f t="shared" si="31"/>
+        <v>-9.7181228265403943E-3</v>
       </c>
       <c r="L94" s="4">
-        <f>+L75-L74</f>
-        <v>-1.4144765136337029E-3</v>
+        <f t="shared" si="31"/>
+        <v>-1.4487897850439663E-4</v>
       </c>
       <c r="M94" s="4">
-        <f>+M75-M74</f>
-        <v>-2.012685176630398E-3</v>
+        <f t="shared" si="31"/>
+        <v>-3.9897409202243952E-3</v>
       </c>
       <c r="N94" s="4">
-        <f>+N75-N74</f>
-        <v>-1.8099225439148006E-3</v>
+        <f t="shared" si="31"/>
+        <v>-3.4522742931001951E-3</v>
       </c>
       <c r="O94" s="4">
-        <f>+O75-O74</f>
-        <v>-1.4216844108790039E-4</v>
+        <f t="shared" si="31"/>
+        <v>-1.4625923827899998E-3</v>
       </c>
       <c r="P94" s="4">
-        <f>+P75-P74</f>
-        <v>-4.426668167335987E-4</v>
+        <f t="shared" si="31"/>
+        <v>-2.1165114219217976E-3</v>
       </c>
       <c r="Q94" s="4">
-        <f>+Q75-Q74</f>
-        <v>1.4055424339012995E-3</v>
+        <f t="shared" si="31"/>
+        <v>-4.918897919140304E-3</v>
       </c>
       <c r="R94" s="4">
-        <f>+R75-R74</f>
-        <v>2.1783763264739825E-4</v>
+        <f t="shared" si="31"/>
+        <v>-1.6802738357045016E-3</v>
       </c>
       <c r="S94" s="4">
-        <f>+S75-S74</f>
-        <v>-2.5613218377062985E-3</v>
+        <f t="shared" si="31"/>
+        <v>-2.0474596331265943E-3</v>
       </c>
       <c r="T94" s="4">
-        <f>+T75-T74</f>
-        <v>-3.1757156231112041E-3</v>
+        <f t="shared" si="31"/>
+        <v>1.4934801858220992E-3</v>
       </c>
       <c r="U94" s="4">
-        <f>+U75-U74</f>
-        <v>-1.0812636563612976E-3</v>
+        <f t="shared" si="31"/>
+        <v>-1.4708471407436988E-3</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B95" s="4">
-        <f>+B76-B75</f>
-        <v>-1.4166836958139015E-3</v>
+        <f t="shared" ref="B95:U95" si="32">+B76-B75</f>
+        <v>8.397695342604039E-4</v>
       </c>
       <c r="C95" s="4">
-        <f>+C76-C75</f>
-        <v>2.2340702267590468E-4</v>
+        <f t="shared" si="32"/>
+        <v>-1.3316258846862994E-3</v>
       </c>
       <c r="D95" s="4">
-        <f>+D76-D75</f>
-        <v>2.2655028331444033E-3</v>
+        <f t="shared" si="32"/>
+        <v>2.3927114357025006E-3</v>
       </c>
       <c r="E95" s="4">
-        <f>+E76-E75</f>
-        <v>-2.5663037353056972E-3</v>
+        <f t="shared" si="32"/>
+        <v>9.0764660851797019E-5</v>
       </c>
       <c r="F95" s="4">
-        <f>+F76-F75</f>
-        <v>-1.0526579365112004E-3</v>
+        <f t="shared" si="32"/>
+        <v>-6.6298068150891232E-4</v>
       </c>
       <c r="G95" s="4">
-        <f>+G76-G75</f>
-        <v>-1.7834598020034023E-3</v>
+        <f t="shared" si="32"/>
+        <v>-1.4128787069603993E-3</v>
       </c>
       <c r="H95" s="4">
-        <f>+H76-H75</f>
-        <v>-3.7394260310297939E-3</v>
+        <f t="shared" si="32"/>
+        <v>2.2159244568569075E-3</v>
       </c>
       <c r="I95" s="4">
-        <f>+I76-I75</f>
-        <v>-2.2157110126135027E-3</v>
+        <f t="shared" si="32"/>
+        <v>-2.0888246420490975E-3</v>
       </c>
       <c r="J95" s="4">
-        <f>+J76-J75</f>
-        <v>-1.5418091574036993E-3</v>
+        <f t="shared" si="32"/>
+        <v>-3.8756157964039972E-4</v>
       </c>
       <c r="K95" s="4">
-        <f>+K76-K75</f>
-        <v>5.3317260332819832E-4</v>
+        <f t="shared" si="32"/>
+        <v>2.5669396937679015E-3</v>
       </c>
       <c r="L95" s="4">
-        <f>+L76-L75</f>
-        <v>-6.4412584115190047E-4</v>
+        <f t="shared" si="32"/>
+        <v>-2.3291082357227016E-3</v>
       </c>
       <c r="M95" s="4">
-        <f>+M76-M75</f>
-        <v>-5.6537841523153012E-3</v>
+        <f t="shared" si="32"/>
+        <v>-2.5824623158540033E-3</v>
       </c>
       <c r="N95" s="4">
-        <f>+N76-N75</f>
-        <v>8.2935958614219901E-4</v>
+        <f t="shared" si="32"/>
+        <v>9.3629209933560054E-4</v>
       </c>
       <c r="O95" s="4">
-        <f>+O76-O75</f>
-        <v>-1.6501090594608012E-3</v>
+        <f t="shared" si="32"/>
+        <v>6.7310354249269788E-4</v>
       </c>
       <c r="P95" s="4">
-        <f>+P76-P75</f>
-        <v>-4.797151515060008E-4</v>
+        <f t="shared" si="32"/>
+        <v>2.4955488310590968E-3</v>
       </c>
       <c r="Q95" s="4">
-        <f>+Q76-Q75</f>
-        <v>8.7125465943149738E-4</v>
+        <f t="shared" si="32"/>
+        <v>-2.6708613676674001E-3</v>
       </c>
       <c r="R95" s="4">
-        <f>+R76-R75</f>
-        <v>-9.6110588674139935E-4</v>
+        <f t="shared" si="32"/>
+        <v>9.5934751418379899E-4</v>
       </c>
       <c r="S95" s="4">
-        <f>+S76-S75</f>
-        <v>-2.9317402218256017E-3</v>
+        <f t="shared" si="32"/>
+        <v>7.3147050347339981E-4</v>
       </c>
       <c r="T95" s="4">
-        <f>+T76-T75</f>
-        <v>-1.5442289971391993E-3</v>
+        <f t="shared" si="32"/>
+        <v>-2.0059192668508974E-5</v>
       </c>
       <c r="U95" s="4">
-        <f>+U76-U75</f>
-        <v>5.2183154045995495E-6</v>
+        <f t="shared" si="32"/>
+        <v>1.0921417535827982E-3</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B96" s="4">
-        <f>+B77-B76</f>
-        <v>-1.2130207304872978E-3</v>
+        <f t="shared" ref="B96:U96" si="33">+B77-B76</f>
+        <v>-3.3835144439806966E-3</v>
       </c>
       <c r="C96" s="4">
-        <f>+C77-C76</f>
-        <v>-1.4414855479814997E-3</v>
+        <f t="shared" si="33"/>
+        <v>-1.9781440909342959E-3</v>
       </c>
       <c r="D96" s="4">
-        <f>+D77-D76</f>
-        <v>-1.1318898584102011E-3</v>
+        <f t="shared" si="33"/>
+        <v>-4.0696527162313034E-3</v>
       </c>
       <c r="E96" s="4">
-        <f>+E77-E76</f>
-        <v>-8.4376786960000533E-4</v>
+        <f t="shared" si="33"/>
+        <v>-2.484729389557197E-3</v>
       </c>
       <c r="F96" s="4">
-        <f>+F77-F76</f>
-        <v>-2.2700113146078976E-3</v>
+        <f t="shared" si="33"/>
+        <v>-2.6111393179709952E-3</v>
       </c>
       <c r="G96" s="4">
-        <f>+G77-G76</f>
-        <v>-1.4950692312264979E-3</v>
+        <f t="shared" si="33"/>
+        <v>-1.8447780582662027E-3</v>
       </c>
       <c r="H96" s="4">
-        <f>+H77-H76</f>
-        <v>-2.100063434230498E-3</v>
+        <f t="shared" si="33"/>
+        <v>-6.0578626221746007E-3</v>
       </c>
       <c r="I96" s="4">
-        <f>+I77-I76</f>
-        <v>-4.4341954585509005E-3</v>
+        <f t="shared" si="33"/>
+        <v>-3.1997287787099982E-3</v>
       </c>
       <c r="J96" s="4">
-        <f>+J77-J76</f>
-        <v>1.7300594934909624E-4</v>
+        <f t="shared" si="33"/>
+        <v>-4.4509617654279951E-3</v>
       </c>
       <c r="K96" s="4">
-        <f>+K77-K76</f>
-        <v>-1.0636349133475997E-3</v>
+        <f t="shared" si="33"/>
+        <v>-1.5691332870571006E-3</v>
       </c>
       <c r="L96" s="4">
-        <f>+L77-L76</f>
-        <v>-1.035091765047999E-3</v>
+        <f t="shared" si="33"/>
+        <v>-2.7942693863247936E-3</v>
       </c>
       <c r="M96" s="4">
-        <f>+M77-M76</f>
-        <v>2.9280336139096003E-3</v>
+        <f t="shared" si="33"/>
+        <v>4.9605440882259655E-4</v>
       </c>
       <c r="N96" s="4">
-        <f>+N77-N76</f>
-        <v>-2.1408718652132022E-3</v>
+        <f t="shared" si="33"/>
+        <v>-1.7224382552570999E-3</v>
       </c>
       <c r="O96" s="4">
-        <f>+O77-O76</f>
-        <v>-2.0521756416548992E-3</v>
+        <f t="shared" si="33"/>
+        <v>-2.6727330098385987E-3</v>
       </c>
       <c r="P96" s="4">
-        <f>+P77-P76</f>
-        <v>-1.7563806091569004E-3</v>
+        <f t="shared" si="33"/>
+        <v>-5.537378295914698E-3</v>
       </c>
       <c r="Q96" s="4">
-        <f>+Q77-Q76</f>
-        <v>-1.9058347913550946E-3</v>
+        <f t="shared" si="33"/>
+        <v>-2.069723518851499E-3</v>
       </c>
       <c r="R96" s="4">
-        <f>+R77-R76</f>
-        <v>-1.6121763784701995E-3</v>
+        <f t="shared" si="33"/>
+        <v>-1.8132128820824989E-3</v>
       </c>
       <c r="S96" s="4">
-        <f>+S77-S76</f>
-        <v>4.469799446076006E-4</v>
+        <f t="shared" si="33"/>
+        <v>-1.3523429780906704E-5</v>
       </c>
       <c r="T96" s="4">
-        <f>+T77-T76</f>
-        <v>-1.5408370035807015E-3</v>
+        <f t="shared" si="33"/>
+        <v>-4.2124386122942906E-3</v>
       </c>
       <c r="U96" s="4">
-        <f>+U77-U76</f>
-        <v>-1.1057406395508021E-3</v>
+        <f t="shared" si="33"/>
+        <v>-2.2887481341822002E-3</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B97" s="4">
-        <f>+B78-B77</f>
-        <v>-2.1652863372930986E-3</v>
+        <f t="shared" ref="B97:U97" si="34">+B78-B77</f>
+        <v>-1.5952460819591008E-3</v>
       </c>
       <c r="C97" s="4">
-        <f>+C78-C77</f>
-        <v>-4.8905760260490455E-4</v>
+        <f t="shared" si="34"/>
+        <v>1.2850449529186944E-3</v>
       </c>
       <c r="D97" s="4">
-        <f>+D78-D77</f>
-        <v>-1.636662851540599E-3</v>
+        <f t="shared" si="34"/>
+        <v>-1.8462313261461E-3</v>
       </c>
       <c r="E97" s="4">
-        <f>+E78-E77</f>
-        <v>-7.1479182155119447E-4</v>
+        <f t="shared" si="34"/>
+        <v>5.9988927063969744E-4</v>
       </c>
       <c r="F97" s="4">
-        <f>+F78-F77</f>
-        <v>-2.6603736614343038E-3</v>
+        <f t="shared" si="34"/>
+        <v>-1.9390138792989009E-3</v>
       </c>
       <c r="G97" s="4">
-        <f>+G78-G77</f>
-        <v>-2.3278542512528005E-3</v>
+        <f t="shared" si="34"/>
+        <v>1.436700074437039E-4</v>
       </c>
       <c r="H97" s="4">
-        <f>+H78-H77</f>
-        <v>-3.0361803902129031E-3</v>
+        <f t="shared" si="34"/>
+        <v>-1.1706120618182048E-3</v>
       </c>
       <c r="I97" s="4">
-        <f>+I78-I77</f>
-        <v>-3.1597593555970013E-3</v>
+        <f t="shared" si="34"/>
+        <v>-8.5418029919440142E-4</v>
       </c>
       <c r="J97" s="4">
-        <f>+J78-J77</f>
-        <v>-1.8286180925859707E-4</v>
+        <f t="shared" si="34"/>
+        <v>-2.2907359951229028E-3</v>
       </c>
       <c r="K97" s="4">
-        <f>+K78-K77</f>
-        <v>-2.1762033636974001E-3</v>
+        <f t="shared" si="34"/>
+        <v>-1.8438691943351987E-3</v>
       </c>
       <c r="L97" s="4">
-        <f>+L78-L77</f>
-        <v>-1.0102140614543023E-3</v>
+        <f t="shared" si="34"/>
+        <v>-1.4144765136337029E-3</v>
       </c>
       <c r="M97" s="4">
-        <f>+M78-M77</f>
-        <v>2.372399710441904E-3</v>
+        <f t="shared" si="34"/>
+        <v>-2.012685176630398E-3</v>
       </c>
       <c r="N97" s="4">
-        <f>+N78-N77</f>
-        <v>-4.4322585522239832E-4</v>
+        <f t="shared" si="34"/>
+        <v>-1.8099225439148006E-3</v>
       </c>
       <c r="O97" s="4">
-        <f>+O78-O77</f>
-        <v>-2.1360209244589978E-3</v>
+        <f t="shared" si="34"/>
+        <v>-1.4216844108790039E-4</v>
       </c>
       <c r="P97" s="4">
-        <f>+P78-P77</f>
-        <v>1.7858317189960171E-4</v>
+        <f t="shared" si="34"/>
+        <v>-4.426668167335987E-4</v>
       </c>
       <c r="Q97" s="4">
-        <f>+Q78-Q77</f>
-        <v>-2.6461416540230001E-3</v>
+        <f t="shared" si="34"/>
+        <v>1.4055424339012995E-3</v>
       </c>
       <c r="R97" s="4">
-        <f>+R78-R77</f>
-        <v>-1.3756491088889045E-3</v>
+        <f t="shared" si="34"/>
+        <v>2.1783763264739825E-4</v>
       </c>
       <c r="S97" s="4">
-        <f>+S78-S77</f>
-        <v>-2.0272812561338005E-3</v>
+        <f t="shared" si="34"/>
+        <v>-2.5613218377062985E-3</v>
       </c>
       <c r="T97" s="4">
-        <f>+T78-T77</f>
-        <v>-2.115675630464095E-3</v>
+        <f t="shared" si="34"/>
+        <v>-3.1757156231112041E-3</v>
       </c>
       <c r="U97" s="4">
-        <f>+U78-U77</f>
-        <v>9.4588097016570089E-4</v>
+        <f t="shared" si="34"/>
+        <v>-1.0812636563612976E-3</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B98" s="4">
-        <f>+B79-B78</f>
-        <v>-2.9354777913394997E-3</v>
+        <f t="shared" ref="B98:U98" si="35">+B79-B78</f>
+        <v>-1.4166836958139015E-3</v>
       </c>
       <c r="C98" s="4">
-        <f>+C79-C78</f>
-        <v>-3.1739773119221007E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.2340702267590468E-4</v>
       </c>
       <c r="D98" s="4">
-        <f>+D79-D78</f>
-        <v>-1.9195273403461027E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.2655028331444033E-3</v>
       </c>
       <c r="E98" s="4">
-        <f>+E79-E78</f>
-        <v>-2.5781058721626032E-3</v>
+        <f t="shared" si="35"/>
+        <v>-2.5663037353056972E-3</v>
       </c>
       <c r="F98" s="4">
-        <f>+F79-F78</f>
-        <v>-2.2222559439494943E-3</v>
+        <f t="shared" si="35"/>
+        <v>-1.0526579365112004E-3</v>
       </c>
       <c r="G98" s="4">
-        <f>+G79-G78</f>
-        <v>-4.0033681653018002E-3</v>
+        <f t="shared" si="35"/>
+        <v>-1.7834598020034023E-3</v>
       </c>
       <c r="H98" s="4">
-        <f>+H79-H78</f>
-        <v>-3.5183528270946035E-3</v>
+        <f t="shared" si="35"/>
+        <v>-3.7394260310297939E-3</v>
       </c>
       <c r="I98" s="4">
-        <f>+I79-I78</f>
-        <v>-1.8199218528409042E-3</v>
+        <f t="shared" si="35"/>
+        <v>-2.2157110126135027E-3</v>
       </c>
       <c r="J98" s="4">
-        <f>+J79-J78</f>
-        <v>-4.9884965107539758E-4</v>
+        <f t="shared" si="35"/>
+        <v>-1.5418091574036993E-3</v>
       </c>
       <c r="K98" s="4">
-        <f>+K79-K78</f>
-        <v>-2.9580152514097E-3</v>
+        <f t="shared" si="35"/>
+        <v>5.3317260332819832E-4</v>
       </c>
       <c r="L98" s="4">
-        <f>+L79-L78</f>
-        <v>-4.0295463212248958E-3</v>
+        <f t="shared" si="35"/>
+        <v>-6.4412584115190047E-4</v>
       </c>
       <c r="M98" s="4">
-        <f>+M79-M78</f>
-        <v>2.8963152397859515E-4</v>
+        <f t="shared" si="35"/>
+        <v>-5.6537841523153012E-3</v>
       </c>
       <c r="N98" s="4">
-        <f>+N79-N78</f>
-        <v>-2.5953916015648004E-3</v>
+        <f t="shared" si="35"/>
+        <v>8.2935958614219901E-4</v>
       </c>
       <c r="O98" s="4">
-        <f>+O79-O78</f>
-        <v>-2.144523601158202E-3</v>
+        <f t="shared" si="35"/>
+        <v>-1.6501090594608012E-3</v>
       </c>
       <c r="P98" s="4">
-        <f>+P79-P78</f>
-        <v>-1.8165183877662042E-3</v>
+        <f t="shared" si="35"/>
+        <v>-4.797151515060008E-4</v>
       </c>
       <c r="Q98" s="4">
-        <f>+Q79-Q78</f>
-        <v>-1.3933709599428037E-3</v>
+        <f t="shared" si="35"/>
+        <v>8.7125465943149738E-4</v>
       </c>
       <c r="R98" s="4">
-        <f>+R79-R78</f>
-        <v>-1.5915805596546997E-3</v>
+        <f t="shared" si="35"/>
+        <v>-9.6110588674139935E-4</v>
       </c>
       <c r="S98" s="4">
-        <f>+S79-S78</f>
-        <v>-2.247710757121095E-3</v>
+        <f t="shared" si="35"/>
+        <v>-2.9317402218256017E-3</v>
       </c>
       <c r="T98" s="4">
-        <f>+T79-T78</f>
-        <v>-3.0498480753064008E-3</v>
+        <f t="shared" si="35"/>
+        <v>-1.5442289971391993E-3</v>
       </c>
       <c r="U98" s="4">
-        <f>+U79-U78</f>
-        <v>-3.423509670109702E-3</v>
+        <f t="shared" si="35"/>
+        <v>5.2183154045995495E-6</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B99" s="4">
+        <f t="shared" ref="B99:U99" si="36">+B80-B79</f>
+        <v>-1.2130207304872978E-3</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.4414855479814997E-3</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.1318898584102011E-3</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="36"/>
+        <v>-8.4376786960000533E-4</v>
+      </c>
+      <c r="F99" s="4">
+        <f t="shared" si="36"/>
+        <v>-2.2700113146078976E-3</v>
+      </c>
+      <c r="G99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.4950692312264979E-3</v>
+      </c>
+      <c r="H99" s="4">
+        <f t="shared" si="36"/>
+        <v>-2.100063434230498E-3</v>
+      </c>
+      <c r="I99" s="4">
+        <f t="shared" si="36"/>
+        <v>-4.4341954585509005E-3</v>
+      </c>
+      <c r="J99" s="4">
+        <f t="shared" si="36"/>
+        <v>1.7300594934909624E-4</v>
+      </c>
+      <c r="K99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.0636349133475997E-3</v>
+      </c>
+      <c r="L99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.035091765047999E-3</v>
+      </c>
+      <c r="M99" s="4">
+        <f t="shared" si="36"/>
+        <v>2.9280336139096003E-3</v>
+      </c>
+      <c r="N99" s="4">
+        <f t="shared" si="36"/>
+        <v>-2.1408718652132022E-3</v>
+      </c>
+      <c r="O99" s="4">
+        <f t="shared" si="36"/>
+        <v>-2.0521756416548992E-3</v>
+      </c>
+      <c r="P99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.7563806091569004E-3</v>
+      </c>
+      <c r="Q99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.9058347913550946E-3</v>
+      </c>
+      <c r="R99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.6121763784701995E-3</v>
+      </c>
+      <c r="S99" s="4">
+        <f t="shared" si="36"/>
+        <v>4.469799446076006E-4</v>
+      </c>
+      <c r="T99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.5408370035807015E-3</v>
+      </c>
+      <c r="U99" s="4">
+        <f t="shared" si="36"/>
+        <v>-1.1057406395508021E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B100" s="4">
+        <f t="shared" ref="B100:U100" si="37">+B81-B80</f>
+        <v>-2.1652863372930986E-3</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="37"/>
+        <v>-4.8905760260490455E-4</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="37"/>
+        <v>-1.636662851540599E-3</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="37"/>
+        <v>-7.1479182155119447E-4</v>
+      </c>
+      <c r="F100" s="4">
+        <f t="shared" si="37"/>
+        <v>-2.6603736614343038E-3</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" si="37"/>
+        <v>-2.3278542512528005E-3</v>
+      </c>
+      <c r="H100" s="4">
+        <f t="shared" si="37"/>
+        <v>-3.0361803902129031E-3</v>
+      </c>
+      <c r="I100" s="4">
+        <f t="shared" si="37"/>
+        <v>-3.1597593555970013E-3</v>
+      </c>
+      <c r="J100" s="4">
+        <f t="shared" si="37"/>
+        <v>-1.8286180925859707E-4</v>
+      </c>
+      <c r="K100" s="4">
+        <f t="shared" si="37"/>
+        <v>-2.1762033636974001E-3</v>
+      </c>
+      <c r="L100" s="4">
+        <f t="shared" si="37"/>
+        <v>-1.0102140614543023E-3</v>
+      </c>
+      <c r="M100" s="4">
+        <f t="shared" si="37"/>
+        <v>2.372399710441904E-3</v>
+      </c>
+      <c r="N100" s="4">
+        <f t="shared" si="37"/>
+        <v>-4.4322585522239832E-4</v>
+      </c>
+      <c r="O100" s="4">
+        <f t="shared" si="37"/>
+        <v>-2.1360209244589978E-3</v>
+      </c>
+      <c r="P100" s="4">
+        <f t="shared" si="37"/>
+        <v>1.7858317189960171E-4</v>
+      </c>
+      <c r="Q100" s="4">
+        <f t="shared" si="37"/>
+        <v>-2.6461416540230001E-3</v>
+      </c>
+      <c r="R100" s="4">
+        <f t="shared" si="37"/>
+        <v>-1.3756491088889045E-3</v>
+      </c>
+      <c r="S100" s="4">
+        <f t="shared" si="37"/>
+        <v>-2.0272812561338005E-3</v>
+      </c>
+      <c r="T100" s="4">
+        <f t="shared" si="37"/>
+        <v>-2.115675630464095E-3</v>
+      </c>
+      <c r="U100" s="4">
+        <f t="shared" si="37"/>
+        <v>9.4588097016570089E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B101" s="4">
+        <f t="shared" ref="B101:U101" si="38">+B82-B81</f>
+        <v>-2.9354777913394997E-3</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="38"/>
+        <v>-3.1739773119221007E-3</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.9195273403461027E-3</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.5781058721626032E-3</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.2222559439494943E-3</v>
+      </c>
+      <c r="G101" s="4">
+        <f t="shared" si="38"/>
+        <v>-4.0033681653018002E-3</v>
+      </c>
+      <c r="H101" s="4">
+        <f t="shared" si="38"/>
+        <v>-3.5183528270946035E-3</v>
+      </c>
+      <c r="I101" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.8199218528409042E-3</v>
+      </c>
+      <c r="J101" s="4">
+        <f t="shared" si="38"/>
+        <v>-4.9884965107539758E-4</v>
+      </c>
+      <c r="K101" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.9580152514097E-3</v>
+      </c>
+      <c r="L101" s="4">
+        <f t="shared" si="38"/>
+        <v>-4.0295463212248958E-3</v>
+      </c>
+      <c r="M101" s="4">
+        <f t="shared" si="38"/>
+        <v>2.8963152397859515E-4</v>
+      </c>
+      <c r="N101" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.5953916015648004E-3</v>
+      </c>
+      <c r="O101" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.144523601158202E-3</v>
+      </c>
+      <c r="P101" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.8165183877662042E-3</v>
+      </c>
+      <c r="Q101" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.3933709599428037E-3</v>
+      </c>
+      <c r="R101" s="4">
+        <f t="shared" si="38"/>
+        <v>-1.5915805596546997E-3</v>
+      </c>
+      <c r="S101" s="4">
+        <f t="shared" si="38"/>
+        <v>-2.247710757121095E-3</v>
+      </c>
+      <c r="T101" s="4">
+        <f t="shared" si="38"/>
+        <v>-3.0498480753064008E-3</v>
+      </c>
+      <c r="U101" s="4">
+        <f t="shared" si="38"/>
+        <v>-3.423509670109702E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>2021</v>
       </c>
-      <c r="B99" s="4">
-        <f>+B80-B79</f>
+      <c r="B102" s="4">
+        <f t="shared" ref="B102:U102" si="39">+B83-B82</f>
         <v>-2.7628853453189051E-3</v>
       </c>
-      <c r="C99" s="4">
-        <f>+C80-C79</f>
+      <c r="C102" s="4">
+        <f t="shared" si="39"/>
         <v>-1.6446939237867997E-3</v>
       </c>
-      <c r="D99" s="4">
-        <f>+D80-D79</f>
+      <c r="D102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.5603387434273012E-3</v>
       </c>
-      <c r="E99" s="4">
-        <f>+E80-E79</f>
+      <c r="E102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.422491444688403E-3</v>
       </c>
-      <c r="F99" s="4">
-        <f>+F80-F79</f>
+      <c r="F102" s="4">
+        <f t="shared" si="39"/>
         <v>-3.2667826227659041E-3</v>
       </c>
-      <c r="G99" s="4">
-        <f>+G80-G79</f>
+      <c r="G102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.5777997415218981E-3</v>
       </c>
-      <c r="H99" s="4">
-        <f>+H80-H79</f>
+      <c r="H102" s="4">
+        <f t="shared" si="39"/>
         <v>-3.5819751729503982E-3</v>
       </c>
-      <c r="I99" s="4">
-        <f>+I80-I79</f>
+      <c r="I102" s="4">
+        <f t="shared" si="39"/>
         <v>-1.6673205170746955E-3</v>
       </c>
-      <c r="J99" s="4">
-        <f>+J80-J79</f>
+      <c r="J102" s="4">
+        <f t="shared" si="39"/>
         <v>-1.0022117465444055E-3</v>
       </c>
-      <c r="K99" s="4">
-        <f>+K80-K79</f>
+      <c r="K102" s="4">
+        <f t="shared" si="39"/>
         <v>-1.4462267941007037E-3</v>
       </c>
-      <c r="L99" s="4">
-        <f>+L80-L79</f>
+      <c r="L102" s="4">
+        <f t="shared" si="39"/>
         <v>-1.6263771397473994E-3</v>
       </c>
-      <c r="M99" s="4">
-        <f>+M80-M79</f>
+      <c r="M102" s="4">
+        <f t="shared" si="39"/>
         <v>4.4867870209970573E-4</v>
       </c>
-      <c r="N99" s="4">
-        <f>+N80-N79</f>
+      <c r="N102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.741600264977502E-3</v>
       </c>
-      <c r="O99" s="4">
-        <f>+O80-O79</f>
+      <c r="O102" s="4">
+        <f t="shared" si="39"/>
         <v>-3.6850995582990986E-3</v>
       </c>
-      <c r="P99" s="4">
-        <f>+P80-P79</f>
+      <c r="P102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.0510490776506005E-3</v>
       </c>
-      <c r="Q99" s="4">
-        <f>+Q80-Q79</f>
+      <c r="Q102" s="4">
+        <f t="shared" si="39"/>
         <v>1.4249486730521024E-3</v>
       </c>
-      <c r="R99" s="4">
-        <f>+R80-R79</f>
+      <c r="R102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.1233063845895947E-3</v>
       </c>
-      <c r="S99" s="4">
-        <f>+S80-S79</f>
+      <c r="S102" s="4">
+        <f t="shared" si="39"/>
         <v>-4.0070182608826013E-3</v>
       </c>
-      <c r="T99" s="4">
-        <f>+T80-T79</f>
+      <c r="T102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.2679977253836012E-3</v>
       </c>
-      <c r="U99" s="4">
-        <f>+U80-U79</f>
+      <c r="U102" s="4">
+        <f t="shared" si="39"/>
         <v>-2.5150068459156988E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B37:U52">
+  <conditionalFormatting sqref="B37:U52 B54:U56">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$B$40</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$B$37</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$B$40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/msa_df_accuracy_table.xlsx
+++ b/output/msa_df_accuracy_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC59AB6-731C-4B67-A9B1-D540722B9069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23005966-E9F3-4913-8279-F3A3002DA861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msa_df_flag" sheetId="1" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8089,7 +8089,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B37:U52 B54:U56">
+  <conditionalFormatting sqref="B37:U52 B54:U56 W54:W55">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$B$40</formula>
     </cfRule>

--- a/output/msa_df_accuracy_table.xlsx
+++ b/output/msa_df_accuracy_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2F550-33E4-494E-AA44-D22320C571DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C9CF0-17B2-444D-B7E5-F8F058B90D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>Atlanta</t>
   </si>
@@ -147,7 +147,10 @@
     <t>CR end to end (end 05 to end 06)</t>
   </si>
   <si>
-    <t>RERUN THE OPTIMIZER</t>
+    <t>Strategy Outperformance</t>
+  </si>
+  <si>
+    <t>StartingCR</t>
   </si>
 </sst>
 </file>
@@ -713,57 +716,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -812,6 +765,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Strat Performs better on lower</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CRs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -872,6 +855,536 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{041CB1DF-C10F-461E-B321-0E1118669F05}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A9D0F9B3-7F7F-4603-B4C6-E9FC0ED85C18}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A064A31-DF05-43BD-AC2F-62B21C3239BF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3BC7273-E041-49E2-9F4F-87F52806DB70}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DABBAE39-2F0A-41E7-B7F3-AED0979400BD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1F92868F-C0C8-40C9-BEDA-42C50C3E7C96}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3AFC2BD0-8182-446F-8EFC-ECC58A5A0F83}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ECA15076-C696-48AE-AE79-6E9836A816E8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FFDCDB87-02CF-4C85-B429-9CF8156B2FBC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.9886480718763188E-2"/>
+                  <c:y val="-2.7777777777777863E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5E728B3E-EFE3-408C-8206-BA08D500A29D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B84DC3DE-AB00-4BD4-BB45-8A02FA64DFF2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.8518518518518517E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE487A75-C8CD-4CC1-9F91-FDFAE925A5B0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1E51-4C8D-B283-3682A48D444D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -888,8 +1401,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.2095684781687299E-3"/>
-                  <c:y val="-0.76842629046369204"/>
+                  <c:x val="1.8204813602039328E-2"/>
+                  <c:y val="-0.51470290172061828"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -926,7 +1439,7 @@
             <c:numRef>
               <c:f>msa_df_flag!$X$73:$X$92</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6.56853648392203E-2</c:v>
@@ -995,73 +1508,141 @@
             <c:numRef>
               <c:f>msa_df_flag!$Y$73:$Y$92</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.18048676122209484</c:v>
+                  <c:v>-0.15144863288279109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.77575278633298128</c:v>
+                  <c:v>0.11827812366767798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4002402341726246E-2</c:v>
+                  <c:v>-7.4003061805737347E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2439231375120485E-2</c:v>
+                  <c:v>-0.10728422065755572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.1070530621006448</c:v>
+                  <c:v>0.56332807541223162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.51192642756535567</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60296876365912722</c:v>
+                  <c:v>0.92576845097068139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.43484498217736844</c:v>
+                  <c:v>-0.45350243685347147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.14794997927757092</c:v>
+                  <c:v>0.49137770522605151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2040815973426358</c:v>
+                  <c:v>1.7425550758754325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.5037618557260561E-2</c:v>
+                  <c:v>-0.18817527234182485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2557322031697264</c:v>
+                  <c:v>0.74775927556761368</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.16118332601188401</c:v>
+                  <c:v>-0.29973693978419291</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94389802924766486</c:v>
+                  <c:v>1.4193582215655791</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3280119256873464</c:v>
+                  <c:v>3.7682790693358452</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6133447508558199</c:v>
+                  <c:v>0.49804890930928658</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.56415371759732824</c:v>
+                  <c:v>-2.0006187760486904E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.82467193014947648</c:v>
+                  <c:v>0.64389593755008345</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.249295416390938</c:v>
+                  <c:v>0.46418707052483588</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.1150514791379893</c:v>
+                  <c:v>-0.29441348873434547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>msa_df_flag!$W$73:$W$92</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>Atlanta</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Baltimore</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Boston</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chicago</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Dallas</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Denver</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Detroit</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Houston</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LosAngeles</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Miami</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Minneapolis</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NewYork</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Philadelphia</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Phoenix</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>SanDiego</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>SanFrancisco</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Seattle</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>StLouis</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Tampa</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>WashingtonDC</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7E75-43EE-B675-A98C6975117F}"/>
             </c:ext>
@@ -1082,6 +1663,7 @@
         <c:axId val="1989464688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1099,7 +1681,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSA's starting</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Cap Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40976462445567108"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1161,7 +1811,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strat Outperformance vs Buy and Hold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2153,10 +2858,10 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y73" sqref="Y73"/>
+      <selection pane="bottomRight" activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2936,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -2270,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -2296,7 +3001,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2317,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -2329,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -2350,54 +3055,54 @@
         <v>0</v>
       </c>
       <c r="S4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2406,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
@@ -2418,15 +3123,15 @@
         <v>0</v>
       </c>
       <c r="T5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -2435,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -2444,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -2453,28 +3158,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="b">
         <v>0</v>
@@ -2491,7 +3196,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -2503,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2515,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -2539,24 +3244,24 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -2595,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -2607,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2621,7 +3326,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2657,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2675,24 +3380,24 @@
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
       </c>
       <c r="U9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2746,24 +3451,24 @@
         <v>0</v>
       </c>
       <c r="U10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2775,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -2790,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -2799,24 +3504,24 @@
         <v>0</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -2858,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -2881,7 +3586,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -2905,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -2917,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -2932,10 +3637,10 @@
         <v>1</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
@@ -2946,7 +3651,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2955,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2964,22 +3669,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -2994,16 +3699,16 @@
         <v>1</v>
       </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
       </c>
       <c r="S14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
@@ -3011,25 +3716,25 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -3041,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -3050,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -3068,15 +3773,15 @@
         <v>1</v>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3141,19 +3846,19 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3165,13 +3870,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -3192,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -3201,66 +3906,66 @@
         <v>0</v>
       </c>
       <c r="U17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="b">
         <v>1</v>
@@ -4376,16 +5081,16 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
-        <f>IF(AND(B22=TRUE(),B3=TRUE()),"True Positive",IF(AND(B22=FALSE(),B3=FALSE()),"True Negative",IF(AND(B3=TRUE(),B22=FALSE()),"False Positive","False Negative")))</f>
+        <f>IF(AND(B21=TRUE(),B3=TRUE()),"True Positive",IF(AND(B21=FALSE(),B3=FALSE()),"True Negative",IF(AND(B3=TRUE(),B21=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:U39" si="0">IF(AND(C22=TRUE(),C3=TRUE()),"True Positive",IF(AND(C22=FALSE(),C3=FALSE()),"True Negative",IF(AND(C3=TRUE(),C22=FALSE()),"False Positive","False Negative")))</f>
-        <v>False Negative</v>
+        <f t="shared" ref="C39:U39" si="0">IF(AND(C21=TRUE(),C3=TRUE()),"True Positive",IF(AND(C21=FALSE(),C3=FALSE()),"True Negative",IF(AND(C3=TRUE(),C21=FALSE()),"False Positive","False Negative")))</f>
+        <v>True Negative</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -4393,7 +5098,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -4401,7 +5106,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -4413,23 +5118,23 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="0"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="0"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="0"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="0"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="0"/>
@@ -4437,7 +5142,7 @@
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="0"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" si="0"/>
@@ -4445,21 +5150,21 @@
       </c>
       <c r="S39" t="str">
         <f t="shared" si="0"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="0"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="0"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
-        <f t="shared" ref="B40:U40" si="1">IF(AND(B23=TRUE(),B4=TRUE()),"True Positive",IF(AND(B23=FALSE(),B4=FALSE()),"True Negative",IF(AND(B4=TRUE(),B23=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Positive</v>
+        <f t="shared" ref="B40:U40" si="1">IF(AND(B22=TRUE(),B4=TRUE()),"True Positive",IF(AND(B22=FALSE(),B4=FALSE()),"True Negative",IF(AND(B4=TRUE(),B22=FALSE()),"False Positive","False Negative")))</f>
+        <v>False Positive</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
@@ -4467,15 +5172,15 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
@@ -4483,15 +5188,15 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="1"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="1"/>
@@ -4499,7 +5204,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
-        <v>True Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="1"/>
@@ -4507,7 +5212,7 @@
       </c>
       <c r="N40" t="str">
         <f t="shared" si="1"/>
-        <v>True Positive</v>
+        <v>False Positive</v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="1"/>
@@ -4519,45 +5224,45 @@
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="1"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" si="1"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" si="1"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="1"/>
-        <v>True Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="1"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
-        <f t="shared" ref="B41:U41" si="2">IF(AND(B24=TRUE(),B5=TRUE()),"True Positive",IF(AND(B24=FALSE(),B5=FALSE()),"True Negative",IF(AND(B5=TRUE(),B24=FALSE()),"False Positive","False Negative")))</f>
-        <v>False Negative</v>
+        <f t="shared" ref="B41:U41" si="2">IF(AND(B23=TRUE(),B5=TRUE()),"True Positive",IF(AND(B23=FALSE(),B5=FALSE()),"True Negative",IF(AND(B5=TRUE(),B23=FALSE()),"False Positive","False Negative")))</f>
+        <v>True Positive</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="2"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
@@ -4565,7 +5270,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="2"/>
@@ -4573,19 +5278,19 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="2"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -4597,11 +5302,11 @@
       </c>
       <c r="P41" t="str">
         <f t="shared" si="2"/>
-        <v>True Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="2"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" si="2"/>
@@ -4609,33 +5314,33 @@
       </c>
       <c r="S41" t="str">
         <f t="shared" si="2"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="2"/>
-        <v>False Negative</v>
+        <v>True Positive</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
-        <f t="shared" ref="B42:U42" si="3">IF(AND(B25=TRUE(),B6=TRUE()),"True Positive",IF(AND(B25=FALSE(),B6=FALSE()),"True Negative",IF(AND(B6=TRUE(),B25=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
+        <f t="shared" ref="B42:U42" si="3">IF(AND(B24=TRUE(),B6=TRUE()),"True Positive",IF(AND(B24=FALSE(),B6=FALSE()),"True Negative",IF(AND(B6=TRUE(),B24=FALSE()),"False Positive","False Negative")))</f>
+        <v>False Negative</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="3"/>
-        <v>True Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="3"/>
@@ -4643,7 +5348,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
@@ -4651,43 +5356,43 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="3"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="3"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="3"/>
-        <v>False Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="3"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="P42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="3"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="R42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="S42" t="str">
         <f t="shared" si="3"/>
@@ -4695,16 +5400,16 @@
       </c>
       <c r="T42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="3"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
-        <f t="shared" ref="B43:U43" si="4">IF(AND(B26=TRUE(),B7=TRUE()),"True Positive",IF(AND(B26=FALSE(),B7=FALSE()),"True Negative",IF(AND(B7=TRUE(),B26=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B43:U43" si="4">IF(AND(B25=TRUE(),B7=TRUE()),"True Positive",IF(AND(B25=FALSE(),B7=FALSE()),"True Negative",IF(AND(B7=TRUE(),B25=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C43" t="str">
@@ -4713,11 +5418,11 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="4"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="4"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="4"/>
@@ -4733,7 +5438,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="4"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="4"/>
@@ -4745,7 +5450,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" si="4"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="4"/>
@@ -4753,7 +5458,7 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="4"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="4"/>
@@ -4765,7 +5470,7 @@
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="4"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="4"/>
@@ -4773,20 +5478,20 @@
       </c>
       <c r="S43" t="str">
         <f t="shared" si="4"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="4"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="4"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
-        <f t="shared" ref="B44:U44" si="5">IF(AND(B27=TRUE(),B8=TRUE()),"True Positive",IF(AND(B27=FALSE(),B8=FALSE()),"True Negative",IF(AND(B8=TRUE(),B27=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B44:U44" si="5">IF(AND(B26=TRUE(),B8=TRUE()),"True Positive",IF(AND(B26=FALSE(),B8=FALSE()),"True Negative",IF(AND(B8=TRUE(),B26=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C44" t="str">
@@ -4799,23 +5504,23 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="5"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="5"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="5"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="5"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="5"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="5"/>
@@ -4835,11 +5540,11 @@
       </c>
       <c r="N44" t="str">
         <f t="shared" si="5"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="5"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="P44" t="str">
         <f t="shared" si="5"/>
@@ -4851,11 +5556,11 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" si="5"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" si="5"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" si="5"/>
@@ -4868,20 +5573,20 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
-        <f t="shared" ref="B45:U45" si="6">IF(AND(B28=TRUE(),B9=TRUE()),"True Positive",IF(AND(B28=FALSE(),B9=FALSE()),"True Negative",IF(AND(B9=TRUE(),B28=FALSE()),"False Positive","False Negative")))</f>
-        <v>False Negative</v>
+        <f t="shared" ref="B45:U45" si="6">IF(AND(B27=TRUE(),B9=TRUE()),"True Positive",IF(AND(B27=FALSE(),B9=FALSE()),"True Negative",IF(AND(B9=TRUE(),B27=FALSE()),"False Positive","False Negative")))</f>
+        <v>True Negative</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="6"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="6"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="6"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="6"/>
@@ -4893,7 +5598,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="6"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="6"/>
@@ -4913,7 +5618,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="6"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="6"/>
@@ -4921,11 +5626,11 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="6"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="P45" t="str">
         <f t="shared" si="6"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="6"/>
@@ -4937,41 +5642,41 @@
       </c>
       <c r="S45" t="str">
         <f t="shared" si="6"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="6"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="6"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
-        <f t="shared" ref="B46:U46" si="7">IF(AND(B29=TRUE(),B10=TRUE()),"True Positive",IF(AND(B29=FALSE(),B10=FALSE()),"True Negative",IF(AND(B10=TRUE(),B29=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
+        <f t="shared" ref="B46:U46" si="7">IF(AND(B28=TRUE(),B10=TRUE()),"True Positive",IF(AND(B28=FALSE(),B10=FALSE()),"True Negative",IF(AND(B10=TRUE(),B28=FALSE()),"False Positive","False Negative")))</f>
+        <v>False Negative</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="7"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="7"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="7"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="7"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="7"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="7"/>
@@ -4979,7 +5684,7 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="7"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="7"/>
@@ -4987,7 +5692,7 @@
       </c>
       <c r="K46" t="str">
         <f t="shared" si="7"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="7"/>
@@ -4995,11 +5700,11 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="7"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="7"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="7"/>
@@ -5007,7 +5712,7 @@
       </c>
       <c r="P46" t="str">
         <f t="shared" si="7"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="7"/>
@@ -5015,11 +5720,11 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" si="7"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" si="7"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="7"/>
@@ -5027,25 +5732,25 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" si="7"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
-        <f t="shared" ref="B47:U47" si="8">IF(AND(B30=TRUE(),B11=TRUE()),"True Positive",IF(AND(B30=FALSE(),B11=FALSE()),"True Negative",IF(AND(B11=TRUE(),B30=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B47:U47" si="8">IF(AND(B29=TRUE(),B11=TRUE()),"True Positive",IF(AND(B29=FALSE(),B11=FALSE()),"True Negative",IF(AND(B11=TRUE(),B29=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="8"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="8"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="8"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="8"/>
@@ -5053,7 +5758,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="8"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="8"/>
@@ -5061,7 +5766,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="8"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="8"/>
@@ -5069,7 +5774,7 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="8"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="8"/>
@@ -5077,11 +5782,11 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" si="8"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="8"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="8"/>
@@ -5093,41 +5798,41 @@
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="8"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="R47" t="str">
         <f t="shared" si="8"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" si="8"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="8"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="8"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
-        <f t="shared" ref="B48:U48" si="9">IF(AND(B31=TRUE(),B12=TRUE()),"True Positive",IF(AND(B31=FALSE(),B12=FALSE()),"True Negative",IF(AND(B12=TRUE(),B31=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B48:U48" si="9">IF(AND(B30=TRUE(),B12=TRUE()),"True Positive",IF(AND(B30=FALSE(),B12=FALSE()),"True Negative",IF(AND(B12=TRUE(),B30=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="9"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="9"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="9"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="9"/>
@@ -5135,11 +5840,11 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="9"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="9"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="9"/>
@@ -5167,7 +5872,7 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" si="9"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="P48" t="str">
         <f t="shared" si="9"/>
@@ -5179,7 +5884,7 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" si="9"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" si="9"/>
@@ -5196,12 +5901,12 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
-        <f t="shared" ref="B49:U49" si="10">IF(AND(B32=TRUE(),B13=TRUE()),"True Positive",IF(AND(B32=FALSE(),B13=FALSE()),"True Negative",IF(AND(B13=TRUE(),B32=FALSE()),"False Positive","False Negative")))</f>
-        <v>False Negative</v>
+        <f t="shared" ref="B49:U49" si="10">IF(AND(B31=TRUE(),B13=TRUE()),"True Positive",IF(AND(B31=FALSE(),B13=FALSE()),"True Negative",IF(AND(B13=TRUE(),B31=FALSE()),"False Positive","False Negative")))</f>
+        <v>True Negative</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="10"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="10"/>
@@ -5221,11 +5926,11 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="10"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="10"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="10"/>
@@ -5233,7 +5938,7 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="10"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="10"/>
@@ -5241,11 +5946,11 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="10"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="10"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="10"/>
@@ -5261,11 +5966,11 @@
       </c>
       <c r="R49" t="str">
         <f t="shared" si="10"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="S49" t="str">
         <f t="shared" si="10"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="T49" t="str">
         <f t="shared" si="10"/>
@@ -5278,16 +5983,16 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
-        <f t="shared" ref="B50:U50" si="11">IF(AND(B33=TRUE(),B14=TRUE()),"True Positive",IF(AND(B33=FALSE(),B14=FALSE()),"True Negative",IF(AND(B14=TRUE(),B33=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
+        <f t="shared" ref="B50:U50" si="11">IF(AND(B32=TRUE(),B14=TRUE()),"True Positive",IF(AND(B32=FALSE(),B14=FALSE()),"True Negative",IF(AND(B14=TRUE(),B32=FALSE()),"False Positive","False Negative")))</f>
+        <v>False Negative</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="11"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="11"/>
-        <v>False Positive</v>
+        <v>False Negative</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="11"/>
@@ -5299,7 +6004,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="11"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="11"/>
@@ -5307,7 +6012,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="11"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="11"/>
@@ -5315,19 +6020,19 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="11"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="11"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="11"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="11"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="11"/>
@@ -5339,7 +6044,7 @@
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="11"/>
-        <v>True Negative</v>
+        <v>True Positive</v>
       </c>
       <c r="R50" t="str">
         <f t="shared" si="11"/>
@@ -5347,11 +6052,11 @@
       </c>
       <c r="S50" t="str">
         <f t="shared" si="11"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="11"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="11"/>
@@ -5360,20 +6065,20 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
-        <f t="shared" ref="B51:U51" si="12">IF(AND(B34=TRUE(),B15=TRUE()),"True Positive",IF(AND(B34=FALSE(),B15=FALSE()),"True Negative",IF(AND(B15=TRUE(),B34=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B51:U51" si="12">IF(AND(B33=TRUE(),B15=TRUE()),"True Positive",IF(AND(B33=FALSE(),B15=FALSE()),"True Negative",IF(AND(B15=TRUE(),B33=FALSE()),"False Positive","False Negative")))</f>
         <v>False Positive</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="12"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="12"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="12"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="12"/>
@@ -5381,7 +6086,7 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="12"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="12"/>
@@ -5393,11 +6098,11 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="12"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="12"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="12"/>
@@ -5409,7 +6114,7 @@
       </c>
       <c r="N51" t="str">
         <f t="shared" si="12"/>
-        <v>False Positive</v>
+        <v>True Negative</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="12"/>
@@ -5429,20 +6134,20 @@
       </c>
       <c r="S51" t="str">
         <f t="shared" si="12"/>
-        <v>False Positive</v>
+        <v>True Positive</v>
       </c>
       <c r="T51" t="str">
         <f t="shared" si="12"/>
-        <v>True Negative</v>
+        <v>False Positive</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="12"/>
-        <v>True Positive</v>
+        <v>True Negative</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
-        <f t="shared" ref="B52:U52" si="13">IF(AND(B35=TRUE(),B16=TRUE()),"True Positive",IF(AND(B35=FALSE(),B16=FALSE()),"True Negative",IF(AND(B16=TRUE(),B35=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B52:U52" si="13">IF(AND(B34=TRUE(),B16=TRUE()),"True Positive",IF(AND(B34=FALSE(),B16=FALSE()),"True Negative",IF(AND(B16=TRUE(),B34=FALSE()),"False Positive","False Negative")))</f>
         <v>False Positive</v>
       </c>
       <c r="C52" t="str">
@@ -5475,7 +6180,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="13"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="13"/>
@@ -5487,7 +6192,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="13"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="13"/>
@@ -5503,7 +6208,7 @@
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="13"/>
-        <v>False Negative</v>
+        <v>True Negative</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="13"/>
@@ -5519,89 +6224,89 @@
       </c>
       <c r="U52" t="str">
         <f t="shared" si="13"/>
-        <v>True Negative</v>
+        <v>False Negative</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
-        <f>IF(AND(B36=TRUE(),B17=TRUE()),"True Positive",IF(AND(B36=FALSE(),B17=FALSE()),"True Negative",IF(AND(B17=TRUE(),B36=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" ref="B53:U53" si="14">IF(AND(B35=TRUE(),B17=TRUE()),"True Positive",IF(AND(B35=FALSE(),B17=FALSE()),"True Negative",IF(AND(B17=TRUE(),B35=FALSE()),"False Positive","False Negative")))</f>
         <v>True Negative</v>
       </c>
       <c r="C53" t="str">
-        <f>IF(AND(C36=TRUE(),C17=TRUE()),"True Positive",IF(AND(C36=FALSE(),C17=FALSE()),"True Negative",IF(AND(C17=TRUE(),C36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
+        <f t="shared" si="14"/>
+        <v>False Positive</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(AND(D36=TRUE(),D17=TRUE()),"True Positive",IF(AND(D36=FALSE(),D17=FALSE()),"True Negative",IF(AND(D17=TRUE(),D36=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" si="14"/>
         <v>True Negative</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(AND(E36=TRUE(),E17=TRUE()),"True Positive",IF(AND(E36=FALSE(),E17=FALSE()),"True Negative",IF(AND(E17=TRUE(),E36=FALSE()),"False Positive","False Negative")))</f>
+        <f t="shared" si="14"/>
+        <v>False Positive</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="14"/>
+        <v>False Positive</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="14"/>
+        <v>False Positive</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="14"/>
+        <v>False Positive</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="14"/>
+        <v>False Positive</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="14"/>
         <v>False Negative</v>
       </c>
-      <c r="F53" t="str">
-        <f>IF(AND(F36=TRUE(),F17=TRUE()),"True Positive",IF(AND(F36=FALSE(),F17=FALSE()),"True Negative",IF(AND(F17=TRUE(),F36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="G53" t="str">
-        <f>IF(AND(G36=TRUE(),G17=TRUE()),"True Positive",IF(AND(G36=FALSE(),G17=FALSE()),"True Negative",IF(AND(G17=TRUE(),G36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="H53" t="str">
-        <f>IF(AND(H36=TRUE(),H17=TRUE()),"True Positive",IF(AND(H36=FALSE(),H17=FALSE()),"True Negative",IF(AND(H17=TRUE(),H36=FALSE()),"False Positive","False Negative")))</f>
+      <c r="R53" t="str">
+        <f t="shared" si="14"/>
         <v>False Positive</v>
       </c>
-      <c r="I53" t="str">
-        <f>IF(AND(I36=TRUE(),I17=TRUE()),"True Positive",IF(AND(I36=FALSE(),I17=FALSE()),"True Negative",IF(AND(I17=TRUE(),I36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="J53" t="str">
-        <f>IF(AND(J36=TRUE(),J17=TRUE()),"True Positive",IF(AND(J36=FALSE(),J17=FALSE()),"True Negative",IF(AND(J17=TRUE(),J36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="K53" t="str">
-        <f>IF(AND(K36=TRUE(),K17=TRUE()),"True Positive",IF(AND(K36=FALSE(),K17=FALSE()),"True Negative",IF(AND(K17=TRUE(),K36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="L53" t="str">
-        <f>IF(AND(L36=TRUE(),L17=TRUE()),"True Positive",IF(AND(L36=FALSE(),L17=FALSE()),"True Negative",IF(AND(L17=TRUE(),L36=FALSE()),"False Positive","False Negative")))</f>
+      <c r="S53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="14"/>
+        <v>True Negative</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="14"/>
         <v>False Positive</v>
-      </c>
-      <c r="M53" t="str">
-        <f>IF(AND(M36=TRUE(),M17=TRUE()),"True Positive",IF(AND(M36=FALSE(),M17=FALSE()),"True Negative",IF(AND(M17=TRUE(),M36=FALSE()),"False Positive","False Negative")))</f>
-        <v>False Negative</v>
-      </c>
-      <c r="N53" t="str">
-        <f>IF(AND(N36=TRUE(),N17=TRUE()),"True Positive",IF(AND(N36=FALSE(),N17=FALSE()),"True Negative",IF(AND(N17=TRUE(),N36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="O53" t="str">
-        <f>IF(AND(O36=TRUE(),O17=TRUE()),"True Positive",IF(AND(O36=FALSE(),O17=FALSE()),"True Negative",IF(AND(O17=TRUE(),O36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="P53" t="str">
-        <f>IF(AND(P36=TRUE(),P17=TRUE()),"True Positive",IF(AND(P36=FALSE(),P17=FALSE()),"True Negative",IF(AND(P17=TRUE(),P36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="Q53" t="str">
-        <f>IF(AND(Q36=TRUE(),Q17=TRUE()),"True Positive",IF(AND(Q36=FALSE(),Q17=FALSE()),"True Negative",IF(AND(Q17=TRUE(),Q36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="R53" t="str">
-        <f>IF(AND(R36=TRUE(),R17=TRUE()),"True Positive",IF(AND(R36=FALSE(),R17=FALSE()),"True Negative",IF(AND(R17=TRUE(),R36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="S53" t="str">
-        <f>IF(AND(S36=TRUE(),S17=TRUE()),"True Positive",IF(AND(S36=FALSE(),S17=FALSE()),"True Negative",IF(AND(S17=TRUE(),S36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="T53" t="str">
-        <f>IF(AND(T36=TRUE(),T17=TRUE()),"True Positive",IF(AND(T36=FALSE(),T17=FALSE()),"True Negative",IF(AND(T17=TRUE(),T36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
-      </c>
-      <c r="U53" t="str">
-        <f>IF(AND(U36=TRUE(),U17=TRUE()),"True Positive",IF(AND(U36=FALSE(),U17=FALSE()),"True Negative",IF(AND(U17=TRUE(),U36=FALSE()),"False Positive","False Negative")))</f>
-        <v>True Negative</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -5613,83 +6318,80 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:U55" si="14">(COUNTIF(C38:C53,"True Positive")+COUNTIF(C38:C53,"False Negative"))</f>
+        <f t="shared" ref="C55:U55" si="15">(COUNTIF(C38:C53,"True Positive")+COUNTIF(C38:C53,"False Negative"))</f>
         <v>6</v>
       </c>
       <c r="D55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="E55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="14"/>
+      <c r="N55">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="14"/>
+      <c r="R55">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="14"/>
+      <c r="S55">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="14"/>
+      <c r="T55">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O55">
-        <f t="shared" si="14"/>
+      <c r="U55">
+        <f t="shared" si="15"/>
         <v>4</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="X55" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -5701,80 +6403,80 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:U56" si="15">(COUNTIF(C38:C53,"True Positive"))</f>
+        <f t="shared" ref="C56:U56" si="16">(COUNTIF(C38:C53,"True Positive"))</f>
         <v>2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="N56">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="P56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="R56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S56">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="T56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U56">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -5783,83 +6485,83 @@
       </c>
       <c r="B57">
         <f>COUNTIF(B38:B53,"FALSE POSITIVE")</f>
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:U57" si="17">COUNTIF(C38:C53,"FALSE POSITIVE")</f>
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="C57">
-        <f t="shared" ref="C57:U57" si="16">COUNTIF(C38:C53,"FALSE POSITIVE")</f>
+      <c r="H57">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="16"/>
+      <c r="O57">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="16"/>
+      <c r="P57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="16"/>
+      <c r="S57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="17"/>
         <v>2</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="16"/>
-        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -5871,84 +6573,84 @@
         <v>0.25</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" ref="C58:U58" si="17">COUNTIF(C38:C53,"True Positive")/(COUNTIF(C38:C53,"True Positive")+COUNTIF(C38:C53,"False Negative"))</f>
+        <f t="shared" ref="C58:U58" si="18">COUNTIF(C38:C53,"True Positive")/(COUNTIF(C38:C53,"True Positive")+COUNTIF(C38:C53,"False Negative"))</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F58" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <f t="shared" si="17"/>
+      <c r="K58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="18"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I58" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <f t="shared" si="17"/>
+      <c r="M58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="P58" s="4">
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
-      <c r="L58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="N58" s="4">
-        <f t="shared" si="17"/>
+      <c r="Q58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="T58" s="4">
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
-      <c r="O58" s="4">
-        <f t="shared" si="17"/>
+      <c r="U58" s="4">
+        <f t="shared" si="18"/>
         <v>0.25</v>
-      </c>
-      <c r="P58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="R58" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.75</v>
-      </c>
-      <c r="T58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.2</v>
-      </c>
-      <c r="U58" s="4">
-        <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
       </c>
       <c r="V58" s="1">
         <f>AVERAGE(B58:U58)</f>
-        <v>0.24547619047619049</v>
+        <v>0.25380952380952382</v>
       </c>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
@@ -5959,84 +6661,84 @@
         <v>25</v>
       </c>
       <c r="B59" s="5">
-        <f>SUMIF(B94:B109,"&gt;0")*10000</f>
+        <f>SUMIF(B93:B108,"&gt;0")*10000</f>
         <v>143.01050240483593</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" ref="C59:U59" si="18">SUMIF(C94:C109,"&gt;0")*10000</f>
+        <f t="shared" ref="C59:U59" si="19">SUMIF(C93:C108,"&gt;0")*10000</f>
         <v>162.93786289334506</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>200.18194243544201</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>109.52049849275399</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="18"/>
-        <v>92.521440845800967</v>
+        <f t="shared" si="19"/>
+        <v>123.97450272147698</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="18"/>
-        <v>186.33550903261991</v>
+        <f t="shared" si="19"/>
+        <v>195.90997615002098</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="18"/>
-        <v>327.20149957469704</v>
+        <f t="shared" si="19"/>
+        <v>413.81804106678408</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>166.82332901200408</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>121.39622495066303</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>391.16477895358196</v>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>110.66287544727194</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>312.04755998663404</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>222.14055866464895</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>170.47239118962</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="18"/>
-        <v>217.74961460958093</v>
+        <f t="shared" si="19"/>
+        <v>231.46649682805997</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>245.39348485863206</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>107.64460243151002</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="18"/>
-        <v>244.20564845700974</v>
+        <f t="shared" si="19"/>
+        <v>329.12866565542873</v>
       </c>
       <c r="T59" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>152.4136461060599</v>
       </c>
       <c r="U59" s="5">
-        <f t="shared" si="18"/>
-        <v>100.2975415615049</v>
+        <f t="shared" si="19"/>
+        <v>128.44059945368795</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -6044,84 +6746,84 @@
         <v>36</v>
       </c>
       <c r="B60" s="5">
-        <f>SUMIFS(B94:B109,B94:B109,"&gt;0",B2:B17,"TRUE")*10000</f>
-        <v>76.824114736199903</v>
+        <f>SUMIFS(B93:B108,B93:B108,"&gt;0",B3:B18,"TRUE")*10000</f>
+        <v>31.93059269604802</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" ref="C60:U60" si="19">SUMIFS(C94:C109,C94:C109,"&gt;0",C2:C17,"TRUE")*10000</f>
-        <v>99.794831087408056</v>
+        <f t="shared" ref="C60:U60" si="20">SUMIFS(C93:C108,C93:C108,"&gt;0",C3:C18,"TRUE")*10000</f>
+        <v>52.859665119580001</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="19"/>
-        <v>7.914278670907021</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>41.899739352792011</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>83.88503757443489</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>65.539016590885069</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>176.68014990830304</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="19"/>
-        <v>65.589140383041013</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="19"/>
-        <v>2.7286827518799988</v>
+        <f t="shared" si="20"/>
+        <v>41.736409965565933</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="19"/>
-        <v>38.823862594291882</v>
+        <f t="shared" si="20"/>
+        <v>259.86886339711907</v>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>24.423567631207955</v>
       </c>
       <c r="M60" s="5">
-        <f t="shared" si="19"/>
-        <v>50.855254053190983</v>
+        <f t="shared" si="20"/>
+        <v>102.67706930554898</v>
       </c>
       <c r="N60" s="5">
-        <f t="shared" si="19"/>
-        <v>67.635214931203024</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>168.98073046886299</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>98.715024979883978</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="19"/>
-        <v>3.1353293522710239</v>
+        <f t="shared" si="20"/>
+        <v>138.22042663302204</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" si="19"/>
-        <v>8.7749348594010073</v>
+        <f t="shared" si="20"/>
+        <v>18.219018466136966</v>
       </c>
       <c r="T60" s="5">
-        <f t="shared" si="19"/>
-        <v>29.614604056682897</v>
+        <f t="shared" si="20"/>
+        <v>82.285975316576042</v>
       </c>
       <c r="U60" s="5">
-        <f t="shared" si="19"/>
-        <v>75.566083273386965</v>
+        <f t="shared" si="20"/>
+        <v>24.295027659184953</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -6130,87 +6832,87 @@
       </c>
       <c r="B61" s="8">
         <f>+B60/B59</f>
-        <v>0.53719211837131531</v>
+        <v>0.22327445998097745</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" ref="C61:U61" si="20">+C60/C59</f>
-        <v>0.6124717074062227</v>
+        <f t="shared" ref="C61:U61" si="21">+C60/C59</f>
+        <v>0.32441609446038078</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="20"/>
-        <v>3.9535427494711957E-2</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.38257440323433289</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.67663136962035086</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.33453639206559643</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.42695129833595025</v>
       </c>
       <c r="I61" s="8">
-        <f t="shared" si="20"/>
-        <v>0.39316527713172195</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="J61" s="8">
-        <f t="shared" si="20"/>
-        <v>2.2477492631990576E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.34380319472477949</v>
       </c>
       <c r="K61" s="8">
-        <f t="shared" si="20"/>
-        <v>9.9251938526139546E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.66434627394701284</v>
       </c>
       <c r="L61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.22070244905975867</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" si="20"/>
-        <v>0.16297276625194335</v>
+        <f t="shared" si="21"/>
+        <v>0.32904301289824844</v>
       </c>
       <c r="N61" s="8">
-        <f t="shared" si="20"/>
-        <v>0.30447035578634463</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.99124983986939086</v>
       </c>
       <c r="P61" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0.42647651531708436</v>
       </c>
       <c r="Q61" s="8">
-        <f t="shared" si="20"/>
-        <v>1.2776742439096317E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.56326037634067183</v>
       </c>
       <c r="R61" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S61" s="8">
-        <f t="shared" si="20"/>
-        <v>3.5932563046123633E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.535530741406406E-2</v>
       </c>
       <c r="T61" s="8">
-        <f t="shared" si="20"/>
-        <v>0.19430415066689644</v>
+        <f t="shared" si="21"/>
+        <v>0.53988587911161057</v>
       </c>
       <c r="U61" s="8">
-        <f t="shared" si="20"/>
-        <v>0.75341909778564209</v>
+        <f t="shared" si="21"/>
+        <v>0.1891538015434524</v>
       </c>
       <c r="V61" s="1">
         <f>AVERAGE(B61:U61)</f>
-        <v>0.15839848187690744</v>
+        <v>0.33458303339618306</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -6218,83 +6920,83 @@
         <v>27</v>
       </c>
       <c r="B62" s="7">
-        <f>SUMIF(B94:B109,"&lt;0")*10000</f>
-        <v>-304.93059133629686</v>
+        <f>SUMIF(B93:B108,"&lt;0")*10000</f>
+        <v>-321.15707028873294</v>
       </c>
       <c r="C62" s="7">
-        <f t="shared" ref="C62:U62" si="21">SUMIF(C94:C109,"&lt;0")*10000</f>
-        <v>-219.36108594386604</v>
+        <f t="shared" ref="C62:U62" si="22">SUMIF(C93:C108,"&lt;0")*10000</f>
+        <v>-231.20892739795707</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="21"/>
-        <v>-345.66792648714505</v>
+        <f t="shared" si="22"/>
+        <v>-403.16732698768305</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="21"/>
-        <v>-210.79279047581099</v>
+        <f t="shared" si="22"/>
+        <v>-248.68612024920196</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-323.82361747874603</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-326.48902170729696</v>
       </c>
       <c r="H62" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-511.44554889483203</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="21"/>
-        <v>-388.09181946918699</v>
+        <f t="shared" si="22"/>
+        <v>-389.01330490291508</v>
       </c>
       <c r="J62" s="7">
-        <f t="shared" si="21"/>
-        <v>-214.90904575249402</v>
+        <f t="shared" si="22"/>
+        <v>-232.91026753314506</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="21"/>
-        <v>-428.79571842956693</v>
+        <f t="shared" si="22"/>
+        <v>-531.9381897329099</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="21"/>
-        <v>-214.33820684115091</v>
+        <f t="shared" si="22"/>
+        <v>-279.35319049227894</v>
       </c>
       <c r="M62" s="7">
-        <f t="shared" si="21"/>
-        <v>-276.29244462168106</v>
+        <f t="shared" si="22"/>
+        <v>-407.49818120342508</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="21"/>
-        <v>-359.72620370007894</v>
+        <f t="shared" si="22"/>
+        <v>-373.97451998590293</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="21"/>
-        <v>-288.64888175816202</v>
+        <f t="shared" si="22"/>
+        <v>-313.21461899191502</v>
       </c>
       <c r="P62" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-279.34016967349794</v>
       </c>
       <c r="Q62" s="7">
-        <f t="shared" si="21"/>
-        <v>-332.80916804890802</v>
+        <f t="shared" si="22"/>
+        <v>-342.65388738511706</v>
       </c>
       <c r="R62" s="7">
-        <f t="shared" si="21"/>
-        <v>-231.15842505253107</v>
+        <f t="shared" si="22"/>
+        <v>-252.49271023295509</v>
       </c>
       <c r="S62" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-466.2872756085157</v>
       </c>
       <c r="T62" s="7">
-        <f t="shared" si="21"/>
-        <v>-271.71996982111591</v>
+        <f t="shared" si="22"/>
+        <v>-307.00827026998695</v>
       </c>
       <c r="U62" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-230.85180269629691</v>
       </c>
     </row>
@@ -6303,84 +7005,84 @@
         <v>28</v>
       </c>
       <c r="B63" s="7">
-        <f>SUMIFS(B94:B109,B94:B109,"&lt;0",B3:B18,"FALSE")*10000</f>
-        <v>-243.77556621221589</v>
+        <f>SUMIFS(B93:B108,B93:B108,"&lt;0",B3:B18,"FALSE")*10000</f>
+        <v>-243.02293021006699</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" ref="C63:U63" si="22">SUMIFS(C94:C109,C94:C109,"&lt;0",C3:C18,"FALSE")*10000</f>
-        <v>-144.42142349452112</v>
+        <f t="shared" ref="C63:U63" si="23">SUMIFS(C93:C108,C93:C108,"&lt;0",C3:C18,"FALSE")*10000</f>
+        <v>-173.28550058430412</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="22"/>
-        <v>-308.73064660008504</v>
+        <f t="shared" si="23"/>
+        <v>-386.10963504587608</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="22"/>
-        <v>-200.88069115243897</v>
+        <f t="shared" si="23"/>
+        <v>-195.32334295131798</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="22"/>
-        <v>-299.06201119964504</v>
+        <f t="shared" si="23"/>
+        <v>-311.696946722706</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="22"/>
-        <v>-326.48902170729696</v>
+        <f t="shared" si="23"/>
+        <v>-295.78084604954591</v>
       </c>
       <c r="H63" s="7">
-        <f t="shared" si="22"/>
-        <v>-445.85880561664209</v>
+        <f t="shared" si="23"/>
+        <v>-397.24445942592712</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="22"/>
-        <v>-291.8743266799201</v>
+        <f t="shared" si="23"/>
+        <v>-286.49305074546703</v>
       </c>
       <c r="J63" s="7">
-        <f t="shared" si="22"/>
-        <v>-201.07382585267592</v>
+        <f t="shared" si="23"/>
+        <v>-231.26190900519907</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="22"/>
-        <v>-335.347177215248</v>
+        <f t="shared" si="23"/>
+        <v>-502.36995902450695</v>
       </c>
       <c r="L63" s="7">
-        <f t="shared" si="22"/>
-        <v>-180.0615826111339</v>
+        <f t="shared" si="23"/>
+        <v>-222.76254067382297</v>
       </c>
       <c r="M63" s="7">
-        <f t="shared" si="22"/>
-        <v>-140.44135676128403</v>
+        <f t="shared" si="23"/>
+        <v>-407.49818120342508</v>
       </c>
       <c r="N63" s="7">
-        <f t="shared" si="22"/>
-        <v>-263.70129584735594</v>
+        <f t="shared" si="23"/>
+        <v>-316.96705153218096</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="22"/>
-        <v>-278.42349066523707</v>
+        <f t="shared" si="23"/>
+        <v>-258.90853164948004</v>
       </c>
       <c r="P63" s="7">
-        <f t="shared" si="22"/>
-        <v>-262.41813632819895</v>
+        <f t="shared" si="23"/>
+        <v>-270.10246438165001</v>
       </c>
       <c r="Q63" s="7">
-        <f t="shared" si="22"/>
-        <v>-332.80916804890802</v>
+        <f t="shared" si="23"/>
+        <v>-242.41645623282301</v>
       </c>
       <c r="R63" s="7">
-        <f t="shared" si="22"/>
-        <v>-161.47764284622508</v>
+        <f t="shared" si="23"/>
+        <v>-223.23973149013008</v>
       </c>
       <c r="S63" s="7">
-        <f t="shared" si="22"/>
-        <v>-414.67019487201071</v>
+        <f t="shared" si="23"/>
+        <v>-465.09401493551371</v>
       </c>
       <c r="T63" s="7">
-        <f t="shared" si="22"/>
-        <v>-219.1765141531568</v>
+        <f t="shared" si="23"/>
+        <v>-282.03303652748895</v>
       </c>
       <c r="U63" s="7">
-        <f t="shared" si="22"/>
-        <v>-191.09988355685385</v>
+        <f t="shared" si="23"/>
+        <v>-162.63522615397693</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -6389,87 +7091,87 @@
       </c>
       <c r="B64" s="8">
         <f>+B63/B62</f>
-        <v>0.79944608097179959</v>
+        <v>0.75671050925822603</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" ref="C64:U64" si="23">+C63/C62</f>
-        <v>0.65837303308882322</v>
+        <f t="shared" ref="C64:U64" si="24">+C63/C62</f>
+        <v>0.74947582056831619</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.89314229913537069</v>
+        <f t="shared" si="24"/>
+        <v>0.95769078791861495</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.95297704773964054</v>
+        <f t="shared" si="24"/>
+        <v>0.78542116767751047</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.92353366171407736</v>
+        <f t="shared" si="24"/>
+        <v>0.96255161729568428</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0.90594423206890717</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.87176202154869775</v>
+        <f t="shared" si="24"/>
+        <v>0.77670919276611405</v>
       </c>
       <c r="I64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.75207544204134869</v>
+        <f t="shared" si="24"/>
+        <v>0.73646080258608704</v>
       </c>
       <c r="J64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.9356229057210006</v>
+        <f t="shared" si="24"/>
+        <v>0.99292277431388287</v>
       </c>
       <c r="K64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.78206745730445393</v>
+        <f t="shared" si="24"/>
+        <v>0.9444141607444102</v>
       </c>
       <c r="L64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.84008159471344324</v>
+        <f t="shared" si="24"/>
+        <v>0.79742257563362218</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.50830690268634071</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="N64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.73306112575334215</v>
+        <f t="shared" si="24"/>
+        <v>0.84756322848981558</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.96457498456033486</v>
+        <f t="shared" si="24"/>
+        <v>0.82661700939368743</v>
       </c>
       <c r="P64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.9394214109446628</v>
+        <f t="shared" si="24"/>
+        <v>0.96693026533689996</v>
       </c>
       <c r="Q64" s="8">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0.70746740415749387</v>
       </c>
       <c r="R64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.69855832773358384</v>
+        <f t="shared" si="24"/>
+        <v>0.88414327401438408</v>
       </c>
       <c r="S64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.88930197447669246</v>
+        <f t="shared" si="24"/>
+        <v>0.99744093237061904</v>
       </c>
       <c r="T64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.8066264481681249</v>
+        <f t="shared" si="24"/>
+        <v>0.91864963858942805</v>
       </c>
       <c r="U64" s="8">
-        <f t="shared" si="23"/>
-        <v>0.82780329772109373</v>
+        <f t="shared" si="24"/>
+        <v>0.70450056813260375</v>
       </c>
       <c r="V64" s="1">
         <f>AVERAGE(B64:U64)</f>
-        <v>0.83883680080114154</v>
+        <v>0.86095179806581557</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
@@ -6477,84 +7179,84 @@
         <v>31</v>
       </c>
       <c r="B65" s="9">
-        <f>SUMIFS(B94:B109,B3:B18,"FALSE")*10000</f>
-        <v>-132.69565650342798</v>
+        <f>SUMIFS(B93:B108,B3:B18,"FALSE")*10000</f>
+        <v>-131.94302050127908</v>
       </c>
       <c r="C65" s="9">
-        <f t="shared" ref="C65:U65" si="24">SUMIFS(C94:C109,C3:C18,"FALSE")*10000</f>
-        <v>-12.652750555192036</v>
+        <f t="shared" ref="C65:U65" si="25">SUMIFS(C93:C108,C3:C18,"FALSE")*10000</f>
+        <v>-63.207302810539062</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" si="24"/>
-        <v>-150.43285701651101</v>
+        <f t="shared" si="25"/>
+        <v>-185.92769261043404</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" si="24"/>
-        <v>-102.532041454923</v>
+        <f t="shared" si="25"/>
+        <v>-127.70258381135602</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="24"/>
-        <v>-206.54057035384406</v>
+        <f t="shared" si="25"/>
+        <v>-271.60748157566388</v>
       </c>
       <c r="G65" s="9">
-        <f t="shared" si="24"/>
-        <v>-140.15351267467702</v>
+        <f t="shared" si="25"/>
+        <v>-165.40988649041</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="24"/>
-        <v>-295.33745595024806</v>
+        <f t="shared" si="25"/>
+        <v>-160.10656826744602</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="24"/>
-        <v>-125.05099766791601</v>
+        <f t="shared" si="25"/>
+        <v>-119.66972173346295</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="24"/>
-        <v>-79.677600902012884</v>
+        <f t="shared" si="25"/>
+        <v>-151.60209402010196</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="24"/>
-        <v>-82.941661189733097</v>
+        <f t="shared" si="25"/>
+        <v>-371.07404346804407</v>
       </c>
       <c r="L65" s="9">
-        <f t="shared" si="24"/>
-        <v>-93.822274795069902</v>
+        <f t="shared" si="25"/>
+        <v>-136.52323285775896</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="24"/>
-        <v>152.16419588667901</v>
+        <f t="shared" si="25"/>
+        <v>-198.12769052234003</v>
       </c>
       <c r="N65" s="9">
-        <f t="shared" si="24"/>
-        <v>-115.40913315712893</v>
+        <f t="shared" si="25"/>
+        <v>-94.826492867531996</v>
       </c>
       <c r="O65" s="9">
-        <f t="shared" si="24"/>
-        <v>-229.72304711959407</v>
+        <f t="shared" si="25"/>
+        <v>-257.41687092872309</v>
       </c>
       <c r="P65" s="9">
-        <f t="shared" si="24"/>
-        <v>-143.38354669850202</v>
+        <f t="shared" si="25"/>
+        <v>-137.350992533474</v>
       </c>
       <c r="Q65" s="9">
-        <f t="shared" si="24"/>
-        <v>-228.44731680778295</v>
+        <f t="shared" si="25"/>
+        <v>-135.24339800721299</v>
       </c>
       <c r="R65" s="9">
-        <f t="shared" si="24"/>
-        <v>-53.83304041471505</v>
+        <f t="shared" si="25"/>
+        <v>-115.59512905862005</v>
       </c>
       <c r="S65" s="9">
-        <f t="shared" si="24"/>
-        <v>-405.22611126527477</v>
+        <f t="shared" si="25"/>
+        <v>-154.18436774622194</v>
       </c>
       <c r="T65" s="9">
-        <f t="shared" si="24"/>
-        <v>-149.04884336367294</v>
+        <f t="shared" si="25"/>
+        <v>-211.90536573800509</v>
       </c>
       <c r="U65" s="9">
-        <f t="shared" si="24"/>
-        <v>-115.53380028346687</v>
+        <f t="shared" si="25"/>
+        <v>-58.489654359473938</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
@@ -6562,84 +7264,84 @@
         <v>32</v>
       </c>
       <c r="B66" s="9">
-        <f>(B90-B75)*10000</f>
-        <v>-161.92008893146092</v>
+        <f>(B90-B74)*10000</f>
+        <v>-178.14656788389698</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" ref="C66:U66" si="25">(C90-C75)*10000</f>
-        <v>-56.423223050520996</v>
+        <f t="shared" ref="C66:U66" si="26">(C90-C74)*10000</f>
+        <v>-68.271064504612028</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="25"/>
-        <v>-145.48598405170304</v>
+        <f t="shared" si="26"/>
+        <v>-202.98538455224107</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="25"/>
-        <v>-101.272291983057</v>
+        <f t="shared" si="26"/>
+        <v>-139.16562175644799</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="25"/>
-        <v>-231.30217663294505</v>
+        <f t="shared" si="26"/>
+        <v>-199.84911475726904</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="25"/>
-        <v>-140.15351267467702</v>
+        <f t="shared" si="26"/>
+        <v>-130.57904555727598</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" si="25"/>
-        <v>-184.24404932013499</v>
+        <f t="shared" si="26"/>
+        <v>-97.627507828047939</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="25"/>
-        <v>-221.26849045718293</v>
+        <f t="shared" si="26"/>
+        <v>-222.189975890911</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="25"/>
-        <v>-93.512820801830983</v>
+        <f t="shared" si="26"/>
+        <v>-111.51404258248205</v>
       </c>
       <c r="K66" s="9">
-        <f t="shared" si="25"/>
-        <v>-37.630939475985016</v>
+        <f t="shared" si="26"/>
+        <v>-140.773410779328</v>
       </c>
       <c r="L66" s="9">
-        <f t="shared" si="25"/>
-        <v>-103.67533139387895</v>
+        <f t="shared" si="26"/>
+        <v>-168.69031504500697</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="25"/>
-        <v>35.755115364952964</v>
+        <f t="shared" si="26"/>
+        <v>-95.450621216791049</v>
       </c>
       <c r="N66" s="9">
-        <f t="shared" si="25"/>
-        <v>-137.58564503542999</v>
+        <f t="shared" si="26"/>
+        <v>-151.83396132125395</v>
       </c>
       <c r="O66" s="9">
-        <f t="shared" si="25"/>
-        <v>-118.17649056854201</v>
+        <f t="shared" si="26"/>
+        <v>-142.74222780229502</v>
       </c>
       <c r="P66" s="9">
-        <f t="shared" si="25"/>
-        <v>-61.59055506391703</v>
+        <f t="shared" si="26"/>
+        <v>-47.873672845437987</v>
       </c>
       <c r="Q66" s="9">
-        <f t="shared" si="25"/>
-        <v>-87.415683190275942</v>
+        <f t="shared" si="26"/>
+        <v>-97.260402526484981</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="25"/>
-        <v>-123.51382262102105</v>
+        <f t="shared" si="26"/>
+        <v>-144.84810780144505</v>
       </c>
       <c r="S66" s="9">
-        <f t="shared" si="25"/>
-        <v>-222.08162715150596</v>
+        <f t="shared" si="26"/>
+        <v>-137.15860995308694</v>
       </c>
       <c r="T66" s="9">
-        <f t="shared" si="25"/>
-        <v>-119.30632371505601</v>
+        <f t="shared" si="26"/>
+        <v>-154.59462416392705</v>
       </c>
       <c r="U66" s="9">
-        <f t="shared" si="25"/>
-        <v>-130.554261134792</v>
+        <f t="shared" si="26"/>
+        <v>-102.41120324260895</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
@@ -6648,87 +7350,87 @@
       </c>
       <c r="B67" s="1">
         <f>B65/(B66)-1</f>
-        <v>-0.18048676122209484</v>
+        <v>-0.25935693250475655</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:U67" si="26">C65/(C66)-1</f>
-        <v>-0.77575278633298128</v>
+        <f t="shared" ref="C67:U67" si="27">C65/(C66)-1</f>
+        <v>-7.4171418459878957E-2</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="26"/>
-        <v>3.4002402341726246E-2</v>
+        <f t="shared" si="27"/>
+        <v>-8.4034089348028917E-2</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="26"/>
-        <v>1.2439231375120485E-2</v>
+        <f t="shared" si="27"/>
+        <v>-8.2369753394651468E-2</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="26"/>
-        <v>-0.1070530621006448</v>
+        <f t="shared" si="27"/>
+        <v>0.35906272042060583</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>0.26674142688427094</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="26"/>
-        <v>0.60296876365912722</v>
+        <f t="shared" si="27"/>
+        <v>0.63997393592636742</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="26"/>
-        <v>-0.43484498217736844</v>
+        <f t="shared" si="27"/>
+        <v>-0.46140809794129778</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="26"/>
-        <v>-0.14794997927757092</v>
+        <f t="shared" si="27"/>
+        <v>0.35948881871059912</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="26"/>
-        <v>1.2040815973426358</v>
+        <f t="shared" si="27"/>
+        <v>1.635966844972792</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="26"/>
-        <v>-9.5037618557260561E-2</v>
+        <f t="shared" si="27"/>
+        <v>-0.19068719018436686</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="26"/>
-        <v>3.2557322031697264</v>
+        <f t="shared" si="27"/>
+        <v>1.075708759111635</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="26"/>
-        <v>-0.16118332601188401</v>
+        <f t="shared" si="27"/>
+        <v>-0.3754592711514928</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="26"/>
-        <v>0.94389802924766486</v>
+        <f t="shared" si="27"/>
+        <v>0.80336873602153713</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="26"/>
-        <v>1.3280119256873464</v>
+        <f t="shared" si="27"/>
+        <v>1.8690297687607345</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="26"/>
-        <v>1.6133447508558199</v>
+        <f t="shared" si="27"/>
+        <v>0.39052887397196256</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="26"/>
-        <v>-0.56415371759732824</v>
+        <f t="shared" si="27"/>
+        <v>-0.20195623668708473</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="26"/>
-        <v>0.82467193014947648</v>
+        <f t="shared" si="27"/>
+        <v>0.1241318922593222</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="26"/>
-        <v>0.249295416390938</v>
+        <f t="shared" si="27"/>
+        <v>0.37071626444984029</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="26"/>
-        <v>-0.1150514791379893</v>
+        <f t="shared" si="27"/>
+        <v>-0.42887445408766689</v>
       </c>
       <c r="V67" s="1">
         <f>AVERAGE(B67:U67)</f>
-        <v>0.37434662689022302</v>
+        <v>0.28682002988652211</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
@@ -6826,6 +7528,12 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
+      <c r="X72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -6894,11 +7602,11 @@
       <c r="W73" t="s">
         <v>0</v>
       </c>
-      <c r="X73">
+      <c r="X73" s="1">
         <v>6.56853648392203E-2</v>
       </c>
-      <c r="Y73">
-        <v>-0.18048676122209484</v>
+      <c r="Y73" s="1">
+        <v>-0.15144863288279109</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -6968,11 +7676,11 @@
       <c r="W74" t="s">
         <v>1</v>
       </c>
-      <c r="X74">
+      <c r="X74" s="1">
         <v>5.8234567197658002E-2</v>
       </c>
-      <c r="Y74">
-        <v>-0.77575278633298128</v>
+      <c r="Y74" s="1">
+        <v>0.11827812366767798</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -7042,11 +7750,11 @@
       <c r="W75" t="s">
         <v>2</v>
       </c>
-      <c r="X75">
+      <c r="X75" s="1">
         <v>6.4366622098576104E-2</v>
       </c>
-      <c r="Y75">
-        <v>3.4002402341726246E-2</v>
+      <c r="Y75" s="1">
+        <v>-7.4003061805737347E-2</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -7116,11 +7824,11 @@
       <c r="W76" t="s">
         <v>3</v>
       </c>
-      <c r="X76">
+      <c r="X76" s="1">
         <v>6.44981918732635E-2</v>
       </c>
-      <c r="Y76">
-        <v>1.2439231375120485E-2</v>
+      <c r="Y76" s="1">
+        <v>-0.10728422065755572</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -7190,11 +7898,11 @@
       <c r="W77" t="s">
         <v>4</v>
       </c>
-      <c r="X77">
+      <c r="X77" s="1">
         <v>6.6130509136852006E-2</v>
       </c>
-      <c r="Y77">
-        <v>-0.1070530621006448</v>
+      <c r="Y77" s="1">
+        <v>0.56332807541223162</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
@@ -7264,11 +7972,11 @@
       <c r="W78" t="s">
         <v>5</v>
       </c>
-      <c r="X78">
+      <c r="X78" s="1">
         <v>5.6590900744514998E-2</v>
       </c>
-      <c r="Y78">
-        <v>0</v>
+      <c r="Y78" s="1">
+        <v>0.51192642756535567</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
@@ -7338,11 +8046,11 @@
       <c r="W79" t="s">
         <v>19</v>
       </c>
-      <c r="X79">
+      <c r="X79" s="1">
         <v>6.4546459226739294E-2</v>
       </c>
-      <c r="Y79">
-        <v>0.60296876365912722</v>
+      <c r="Y79" s="1">
+        <v>0.92576845097068139</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
@@ -7412,11 +8120,11 @@
       <c r="W80" t="s">
         <v>6</v>
       </c>
-      <c r="X80">
+      <c r="X80" s="1">
         <v>7.14931804494124E-2</v>
       </c>
-      <c r="Y80">
-        <v>-0.43484498217736844</v>
+      <c r="Y80" s="1">
+        <v>-0.45350243685347147</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -7486,11 +8194,11 @@
       <c r="W81" t="s">
         <v>7</v>
       </c>
-      <c r="X81">
+      <c r="X81" s="1">
         <v>5.4218996551731402E-2</v>
       </c>
-      <c r="Y81">
-        <v>-0.14794997927757092</v>
+      <c r="Y81" s="1">
+        <v>0.49137770522605151</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -7560,11 +8268,11 @@
       <c r="W82" t="s">
         <v>8</v>
       </c>
-      <c r="X82">
+      <c r="X82" s="1">
         <v>6.1021976384384398E-2</v>
       </c>
-      <c r="Y82">
-        <v>1.2040815973426358</v>
+      <c r="Y82" s="1">
+        <v>1.7425550758754325</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -7634,11 +8342,11 @@
       <c r="W83" t="s">
         <v>9</v>
       </c>
-      <c r="X83">
+      <c r="X83" s="1">
         <v>6.44199395766646E-2</v>
       </c>
-      <c r="Y83">
-        <v>-9.5037618557260561E-2</v>
+      <c r="Y83" s="1">
+        <v>-0.18817527234182485</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -7708,11 +8416,11 @@
       <c r="W84" t="s">
         <v>10</v>
       </c>
-      <c r="X84">
+      <c r="X84" s="1">
         <v>5.6300580220185102E-2</v>
       </c>
-      <c r="Y84">
-        <v>3.2557322031697264</v>
+      <c r="Y84" s="1">
+        <v>0.74775927556761368</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -7782,11 +8490,11 @@
       <c r="W85" t="s">
         <v>11</v>
       </c>
-      <c r="X85">
+      <c r="X85" s="1">
         <v>6.4974313343064097E-2</v>
       </c>
-      <c r="Y85">
-        <v>-0.16118332601188401</v>
+      <c r="Y85" s="1">
+        <v>-0.29973693978419291</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -7856,11 +8564,11 @@
       <c r="W86" t="s">
         <v>12</v>
       </c>
-      <c r="X86">
+      <c r="X86" s="1">
         <v>5.7788216139723701E-2</v>
       </c>
-      <c r="Y86">
-        <v>0.94389802924766486</v>
+      <c r="Y86" s="1">
+        <v>1.4193582215655791</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -7930,11 +8638,11 @@
       <c r="W87" t="s">
         <v>13</v>
       </c>
-      <c r="X87">
+      <c r="X87" s="1">
         <v>4.7407207633789097E-2</v>
       </c>
-      <c r="Y87">
-        <v>1.3280119256873464</v>
+      <c r="Y87" s="1">
+        <v>3.7682790693358452</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -8004,11 +8712,11 @@
       <c r="W88" t="s">
         <v>14</v>
       </c>
-      <c r="X88">
+      <c r="X88" s="1">
         <v>4.9381859630104601E-2</v>
       </c>
-      <c r="Y88">
-        <v>1.6133447508558199</v>
+      <c r="Y88" s="1">
+        <v>0.49804890930928658</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -8078,11 +8786,11 @@
       <c r="W89" t="s">
         <v>15</v>
       </c>
-      <c r="X89">
+      <c r="X89" s="1">
         <v>5.6465367791983002E-2</v>
       </c>
-      <c r="Y89">
-        <v>-0.56415371759732824</v>
+      <c r="Y89" s="1">
+        <v>-2.0006187760486904E-2</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -8152,22 +8860,22 @@
       <c r="W90" t="s">
         <v>16</v>
       </c>
-      <c r="X90">
+      <c r="X90" s="1">
         <v>6.7071548821548796E-2</v>
       </c>
-      <c r="Y90">
-        <v>0.82467193014947648</v>
+      <c r="Y90" s="1">
+        <v>0.64389593755008345</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W91" t="s">
         <v>17</v>
       </c>
-      <c r="X91">
+      <c r="X91" s="1">
         <v>6.3319946257295104E-2</v>
       </c>
-      <c r="Y91">
-        <v>0.249295416390938</v>
+      <c r="Y91" s="1">
+        <v>0.46418707052483588</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -8237,11 +8945,11 @@
       <c r="W92" t="s">
         <v>18</v>
       </c>
-      <c r="X92">
+      <c r="X92" s="1">
         <v>5.7079610448183798E-2</v>
       </c>
-      <c r="Y92">
-        <v>-0.1150514791379893</v>
+      <c r="Y92" s="1">
+        <v>-0.29441348873434547</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -8253,79 +8961,79 @@
         <v>-1.6226478952436063E-3</v>
       </c>
       <c r="C93" s="6">
-        <f t="shared" ref="C93:U93" si="27">+C75-C74</f>
+        <f t="shared" ref="C93:U93" si="28">+C75-C74</f>
         <v>-1.1847841454091027E-3</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-5.7499400500538034E-3</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.789332977339098E-3</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.1453061875676008E-3</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.5744671174010504E-4</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.6616541492087057E-3</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.2148543372805314E-5</v>
       </c>
       <c r="J93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.8001221780651055E-3</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.0314247130334298E-2</v>
       </c>
       <c r="L93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-6.5014983651128025E-3</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.31205736581744E-2</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.4248316285823959E-3</v>
       </c>
       <c r="O93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-2.4565737233753007E-3</v>
       </c>
       <c r="P93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.371688221847904E-3</v>
       </c>
       <c r="Q93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-9.8447193362090346E-4</v>
       </c>
       <c r="R93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-2.1334285180424004E-3</v>
       </c>
       <c r="S93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.4923017198419021E-3</v>
       </c>
       <c r="T93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.5288300448871046E-3</v>
       </c>
       <c r="U93" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.8143057892183049E-3</v>
       </c>
     </row>
@@ -8334,83 +9042,83 @@
         <v>2006</v>
       </c>
       <c r="B94" s="6">
-        <f t="shared" ref="B94:U94" si="28">+B76-B75</f>
+        <f t="shared" ref="B94:U94" si="29">+B76-B75</f>
         <v>-3.4963298007883933E-3</v>
       </c>
       <c r="C94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.8132600924549037E-3</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.2762153907060013E-3</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.3760307933579005E-3</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.8605613024030083E-4</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.3156448337089833E-4</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.3690752941526042E-3</v>
       </c>
       <c r="I94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.8047079036624964E-3</v>
       </c>
       <c r="J94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.7939174770239326E-4</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.12599341967329E-2</v>
       </c>
       <c r="L94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.4754101507729029E-3</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.01670415470392E-2</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.2759152167897996E-3</v>
       </c>
       <c r="O94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0719583659610232E-4</v>
       </c>
       <c r="P94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5425692267562975E-3</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.826148201483806E-3</v>
       </c>
       <c r="R94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.1700132099030396E-4</v>
       </c>
       <c r="S94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.2416346290639912E-3</v>
       </c>
       <c r="T94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.0753682231475015E-3</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.3432014943272012E-3</v>
       </c>
     </row>
@@ -8419,83 +9127,83 @@
         <v>2007</v>
       </c>
       <c r="B95" s="6">
-        <f t="shared" ref="B95:U95" si="29">+B77-B76</f>
+        <f t="shared" ref="B95:U95" si="30">+B77-B76</f>
         <v>3.1930592696048019E-3</v>
       </c>
       <c r="C95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.4727064195030962E-3</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-8.8645394511805004E-3</v>
       </c>
       <c r="E95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.1899739352792009E-3</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8.3885037574434884E-3</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8.6572334117488922E-3</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.7668014990830302E-2</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.3750847738500678E-4</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.1736409965565935E-3</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.3875926292806706E-2</v>
       </c>
       <c r="L95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4423567631207954E-3</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6.4605420442856998E-3</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7.3848395974421971E-3</v>
       </c>
       <c r="O95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.7208782824885998E-3</v>
       </c>
       <c r="P95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.3889349176067021E-3</v>
       </c>
       <c r="Q95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.0023743115229404E-2</v>
       </c>
       <c r="R95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.3008474729293007E-3</v>
       </c>
       <c r="S95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.2407186478111588E-2</v>
       </c>
       <c r="T95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>8.228597531657604E-3</v>
       </c>
       <c r="U95" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.4295027659184953E-3</v>
       </c>
     </row>
@@ -8504,83 +9212,83 @@
         <v>2008</v>
       </c>
       <c r="B96" s="6">
-        <f t="shared" ref="B96:U96" si="30">+B78-B77</f>
+        <f t="shared" ref="B96:U96" si="31">+B78-B77</f>
         <v>7.6824114736199905E-3</v>
       </c>
       <c r="C96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.3352705328423038E-3</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.7442038245316008E-3</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.9313162361118972E-3</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-9.912088719263995E-4</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6.5539016590885069E-3</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-3.1654547119699949E-3</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6.9847361366048993E-3</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.6931132233217098E-3</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.882386259429188E-3</v>
       </c>
       <c r="L96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.6924864915573989E-3</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.7564111771306048E-3</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6.763521493120303E-3</v>
       </c>
       <c r="O96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.21771947643977E-2</v>
       </c>
       <c r="P96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9.8715024979883978E-3</v>
       </c>
       <c r="Q96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.1952718181990965E-3</v>
       </c>
       <c r="R96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8.0990711433205076E-3</v>
       </c>
       <c r="S96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.6348612635902496E-2</v>
       </c>
       <c r="T96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.9614604056682897E-3</v>
       </c>
       <c r="U96" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.5566083273386972E-3</v>
       </c>
     </row>
@@ -8589,83 +9297,83 @@
         <v>2009</v>
       </c>
       <c r="B97" s="6">
-        <f t="shared" ref="B97:U97" si="31">+B79-B78</f>
+        <f t="shared" ref="B97:U97" si="32">+B79-B78</f>
         <v>-2.1745260735879929E-3</v>
       </c>
       <c r="C97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-3.9234989871389098E-3</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.1884152851867987E-3</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.2270878098173963E-3</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-1.1780025396615101E-2</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-1.1556331919540502E-2</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2431287516184997E-2</v>
       </c>
       <c r="I97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-8.1412689207235045E-3</v>
       </c>
       <c r="J97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-9.4220691048130939E-4</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-7.0692071837357012E-3</v>
       </c>
       <c r="L97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1485206308334966E-3</v>
       </c>
       <c r="M97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-3.1134375161605068E-3</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-1.29831296144148E-2</v>
       </c>
       <c r="O97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-1.1771763128276901E-2</v>
       </c>
       <c r="P97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-4.7744201807840975E-3</v>
       </c>
       <c r="Q97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2814606480209899E-2</v>
       </c>
       <c r="R97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.5291957928600048E-3</v>
       </c>
       <c r="S97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-6.4344462813937936E-3</v>
       </c>
       <c r="T97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-5.5977372757438915E-4</v>
       </c>
       <c r="U97" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-4.7384416441331942E-3</v>
       </c>
     </row>
@@ -8674,83 +9382,83 @@
         <v>2010</v>
       </c>
       <c r="B98" s="6">
-        <f t="shared" ref="B98:U98" si="32">+B80-B79</f>
+        <f t="shared" ref="B98:U98" si="33">+B80-B79</f>
         <v>-2.6692912095302029E-3</v>
       </c>
       <c r="C98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-5.2086867380730928E-3</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-7.9804436549672023E-3</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2743260094390252E-4</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-7.4684808634389865E-4</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.2429802954813958E-3</v>
       </c>
       <c r="H98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1.7976079449371601E-2</v>
       </c>
       <c r="I98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-6.6536846284553988E-3</v>
       </c>
       <c r="J98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-5.1645036979096962E-3</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.8882112901122978E-3</v>
       </c>
       <c r="L98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.0898195429271968E-3</v>
       </c>
       <c r="M98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-8.411070588005401E-3</v>
       </c>
       <c r="N98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6.6164014225639986E-3</v>
       </c>
       <c r="O98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-1.6114808295589894E-4</v>
       </c>
       <c r="P98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-5.9952212203333993E-3</v>
       </c>
       <c r="Q98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-7.9299293433220119E-4</v>
       </c>
       <c r="R98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-5.4128725101831032E-3</v>
       </c>
       <c r="S98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.9147652097568912E-4</v>
       </c>
       <c r="T98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.7437236907463117E-3</v>
       </c>
       <c r="U98" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.1849684782253029E-3</v>
       </c>
     </row>
@@ -8759,83 +9467,83 @@
         <v>2011</v>
       </c>
       <c r="B99" s="6">
-        <f t="shared" ref="B99:U99" si="33">+B81-B80</f>
+        <f t="shared" ref="B99:U99" si="34">+B81-B80</f>
         <v>-3.7045501184554963E-3</v>
       </c>
       <c r="C99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.1369080350165026E-3</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-4.0981622750458011E-3</v>
       </c>
       <c r="E99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-4.4911211325422071E-3</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>7.5436406600480621E-4</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0278258345165978E-3</v>
       </c>
       <c r="H99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.8804221345921079E-3</v>
       </c>
       <c r="I99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.558914038304102E-3</v>
       </c>
       <c r="J99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-2.3150413633040989E-3</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-8.0412987315253981E-3</v>
       </c>
       <c r="L99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.9147187424427975E-3</v>
       </c>
       <c r="M99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.1704198307452979E-3</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-6.6749528225049023E-3</v>
       </c>
       <c r="O99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.1970235479596441E-5</v>
       </c>
       <c r="P99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-2.9967163771772998E-3</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-6.8756080961535973E-3</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-3.6142322026459991E-3</v>
       </c>
       <c r="S99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.1932606730019613E-4</v>
       </c>
       <c r="T99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-4.5306813640844934E-3</v>
       </c>
       <c r="U99" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.7279752595629957E-3</v>
       </c>
     </row>
@@ -8844,83 +9552,83 @@
         <v>2012</v>
       </c>
       <c r="B100" s="6">
-        <f t="shared" ref="B100:U100" si="34">+B82-B81</f>
+        <f t="shared" ref="B100:U100" si="35">+B82-B81</f>
         <v>3.2237184557599996E-3</v>
       </c>
       <c r="C100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.3184686797900079E-4</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.8078064557214011E-3</v>
       </c>
       <c r="E100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.3251827246899004E-3</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0927626113180211E-4</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.4201598764981005E-3</v>
       </c>
       <c r="H100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.3024798133756009E-3</v>
       </c>
       <c r="I100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.801174248906399E-3</v>
       </c>
       <c r="J100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-2.0039763076186018E-3</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-9.8244061450842995E-3</v>
       </c>
       <c r="L100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-8.7309425773150068E-4</v>
       </c>
       <c r="M100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.9758439688342019E-3</v>
       </c>
       <c r="N100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-7.127386582395992E-4</v>
       </c>
       <c r="O100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.8161291275241992E-3</v>
       </c>
       <c r="P100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.9719548186066961E-3</v>
       </c>
       <c r="Q100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-3.9057375849276058E-3</v>
       </c>
       <c r="R100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-4.7238966175759678E-4</v>
       </c>
       <c r="S100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.6018704018556928E-3</v>
       </c>
       <c r="T100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.6483509918369943E-3</v>
       </c>
       <c r="U100" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.3152273923010271E-4</v>
       </c>
     </row>
@@ -8929,83 +9637,83 @@
         <v>2013</v>
       </c>
       <c r="B101" s="6">
-        <f t="shared" ref="B101:U101" si="35">+B83-B82</f>
+        <f t="shared" ref="B101:U101" si="36">+B83-B82</f>
         <v>-4.1407000799033034E-3</v>
       </c>
       <c r="C101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.0256821093914985E-3</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.0375309763477016E-3</v>
       </c>
       <c r="E101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.6888906649725009E-3</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.1912778881825051E-3</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.3645078040630975E-3</v>
       </c>
       <c r="H101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-6.1529312152308613E-5</v>
       </c>
       <c r="I101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-4.5177704656520074E-3</v>
       </c>
       <c r="J101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-5.5902336564220279E-4</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.2472052962171009E-3</v>
       </c>
       <c r="L101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.1468624879478005E-3</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.2783605190498995E-3</v>
       </c>
       <c r="N101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.9368026412839892E-4</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-7.7372929925720313E-4</v>
       </c>
       <c r="P101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-5.6302226971865973E-3</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.2107941211260982E-3</v>
       </c>
       <c r="R101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.4456908797259783E-4</v>
       </c>
       <c r="S101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.444083606735959E-4</v>
       </c>
       <c r="T101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.275874582956001E-4</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-6.5870069648889945E-4</v>
       </c>
     </row>
@@ -9014,83 +9722,83 @@
         <v>2014</v>
       </c>
       <c r="B102" s="6">
-        <f t="shared" ref="B102:U102" si="36">+B84-B83</f>
+        <f t="shared" ref="B102:U102" si="37">+B84-B83</f>
         <v>-1.0615269095959959E-3</v>
       </c>
       <c r="C102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.6442125758985016E-3</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1.9879587945252977E-3</v>
       </c>
       <c r="E102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9.8975227857989873E-4</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-2.4846599857581975E-3</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>6.4286563803899605E-4</v>
       </c>
       <c r="H102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-7.0599593266530009E-3</v>
       </c>
       <c r="I102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1.5333677430363901E-3</v>
       </c>
       <c r="J102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-5.2526876645494977E-3</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-5.6936463236963997E-3</v>
       </c>
       <c r="L102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-5.6231807779379833E-4</v>
       </c>
       <c r="M102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1.9308190038465969E-3</v>
       </c>
       <c r="N102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-2.6364381823840988E-3</v>
       </c>
       <c r="O102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1.0225391092924946E-3</v>
       </c>
       <c r="P102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1.6105146135068985E-3</v>
       </c>
       <c r="Q102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.9465363367559865E-4</v>
       </c>
       <c r="R102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-2.0036743009970992E-3</v>
       </c>
       <c r="S102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-9.6026655261496896E-5</v>
       </c>
       <c r="T102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-6.3132588490290922E-3</v>
       </c>
       <c r="U102" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1.3671912051977028E-3</v>
       </c>
     </row>
@@ -9099,83 +9807,83 @@
         <v>2015</v>
       </c>
       <c r="B103" s="6">
-        <f t="shared" ref="B103:U103" si="37">+B85-B84</f>
+        <f t="shared" ref="B103:U103" si="38">+B85-B84</f>
         <v>-2.9248466326472003E-3</v>
       </c>
       <c r="C103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-6.7408240402250241E-4</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.9142786709070212E-4</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-2.5520215683323966E-3</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.5345620991270986E-3</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.2591498476755975E-3</v>
       </c>
       <c r="H103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.4042531586229754E-4</v>
       </c>
       <c r="I103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.537316939859007E-3</v>
       </c>
       <c r="J103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.7103018884689972E-3</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.2868190922842998E-3</v>
       </c>
       <c r="L103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-2.8169343463611968E-3</v>
       </c>
       <c r="M103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.8767756237812044E-3</v>
       </c>
       <c r="N103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-4.9159130018689573E-4</v>
       </c>
       <c r="O103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-8.3739951062700158E-4</v>
       </c>
       <c r="P103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-3.6309573647680393E-4</v>
       </c>
       <c r="Q103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.1353293522710241E-4</v>
       </c>
       <c r="R103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5.1997253892859668E-4</v>
       </c>
       <c r="S103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-5.224291836060907E-3</v>
       </c>
       <c r="T103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-2.4684830106404057E-3</v>
       </c>
       <c r="U103" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.0496615355012964E-3</v>
       </c>
     </row>
@@ -9184,83 +9892,83 @@
         <v>2016</v>
       </c>
       <c r="B104" s="6">
-        <f t="shared" ref="B104:U104" si="38">+B86-B85</f>
+        <f t="shared" ref="B104:U104" si="39">+B86-B85</f>
         <v>2.0186104149880202E-4</v>
       </c>
       <c r="C104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.9648980065669932E-4</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.2101254203076978E-3</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-3.5879639867199969E-4</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.2126670756040028E-3</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.4420192615011013E-3</v>
       </c>
       <c r="H104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-4.2365660706329966E-3</v>
       </c>
       <c r="I104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-2.9680646504712943E-3</v>
       </c>
       <c r="J104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.6483585279460089E-4</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.5102585017229893E-4</v>
       </c>
       <c r="L104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.8861453901260206E-4</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-4.4958273010449953E-3</v>
       </c>
       <c r="N104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.5561308920999862E-4</v>
       </c>
       <c r="O104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.4741394805092012E-3</v>
       </c>
       <c r="P104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-9.2377052918479752E-4</v>
       </c>
       <c r="Q104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6.9390324786520324E-4</v>
       </c>
       <c r="R104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.3589539047368995E-3</v>
       </c>
       <c r="S104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.4800309179602983E-3</v>
       </c>
       <c r="T104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-5.1258905170149804E-4</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-2.8933352324059941E-4</v>
       </c>
     </row>
@@ -9269,83 +9977,83 @@
         <v>2017</v>
       </c>
       <c r="B105" s="6">
-        <f t="shared" ref="B105:U105" si="39">+B87-B86</f>
+        <f t="shared" ref="B105:U105" si="40">+B87-B86</f>
         <v>-1.9403374138828033E-3</v>
       </c>
       <c r="C105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.4203351171893017E-3</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.7057691941807021E-3</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-9.9120993233720034E-4</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-2.476160627910097E-3</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.6287983042740026E-3</v>
       </c>
       <c r="H105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-2.7688062929013962E-3</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-4.6745299902926016E-3</v>
       </c>
       <c r="J105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-4.4131507950050108E-4</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.2964032234034015E-3</v>
       </c>
       <c r="L105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-2.452687149490998E-4</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3.8071648862691987E-3</v>
       </c>
       <c r="N105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-2.9517756230608011E-3</v>
       </c>
       <c r="O105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-2.7209825964787035E-3</v>
       </c>
       <c r="P105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.6922033345299001E-3</v>
       </c>
       <c r="Q105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.9856847259219004E-3</v>
       </c>
       <c r="R105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.994892113247701E-3</v>
       </c>
       <c r="S105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8.7749348594010068E-4</v>
       </c>
       <c r="T105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-1.5106218760495976E-3</v>
       </c>
       <c r="U105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-4.3122673597929817E-4</v>
       </c>
     </row>
@@ -9354,83 +10062,83 @@
         <v>2018</v>
       </c>
       <c r="B106" s="6">
-        <f t="shared" ref="B106:U106" si="40">+B88-B87</f>
+        <f t="shared" ref="B106:U106" si="41">+B88-B87</f>
         <v>-2.3767467931953973E-3</v>
       </c>
       <c r="C106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-9.0372342863299926E-4</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.2223401503647993E-3</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.4078493487703E-3</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.355442936183505E-3</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-3.3014928032365984E-3</v>
       </c>
       <c r="H106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.341022705634202E-3</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.8908592744825009E-3</v>
       </c>
       <c r="J106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.7286827518799989E-4</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.2756469376961977E-3</v>
       </c>
       <c r="L106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-3.1301981789206013E-3</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.9442007338670991E-3</v>
       </c>
       <c r="N106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.9109978038330264E-4</v>
       </c>
       <c r="O106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.366693122104197E-3</v>
       </c>
       <c r="P106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-9.0601256777497752E-5</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-4.5930136149444009E-3</v>
       </c>
       <c r="R106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.0569717579043958E-3</v>
       </c>
       <c r="S106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-3.6816771556901981E-3</v>
       </c>
       <c r="T106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-3.1487515503995991E-3</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4.3643062893297668E-5</v>
       </c>
     </row>
@@ -9439,83 +10147,83 @@
         <v>2019</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" ref="B107:U107" si="41">+B89-B88</f>
+        <f t="shared" ref="B107:U107" si="42">+B89-B88</f>
         <v>-3.7387557192126997E-3</v>
       </c>
       <c r="C107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.4682841355429955E-3</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-4.4501606018156961E-3</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.9862713987791967E-3</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.1122125006698975E-3</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.7360570329766016E-3</v>
       </c>
       <c r="H107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-4.414736583356102E-3</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.7661902996215029E-3</v>
       </c>
       <c r="J107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-1.0714544930019027E-3</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.9568230708402962E-3</v>
       </c>
       <c r="L107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.7213097753390975E-3</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-6.550506297499023E-4</v>
       </c>
       <c r="N107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.3131359583755959E-3</v>
       </c>
       <c r="O107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.2860243930966024E-3</v>
       </c>
       <c r="P107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-1.9503987095725039E-3</v>
       </c>
       <c r="Q107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3.2965039874015972E-3</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-1.5663439695456013E-3</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-1.0641548498096995E-3</v>
       </c>
       <c r="T107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.3972123636860016E-3</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-4.2113452090581996E-3</v>
       </c>
     </row>
@@ -9524,83 +10232,83 @@
         <v>2020</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" ref="B108:U108" si="42">+B90-B89</f>
+        <f t="shared" ref="B108:U108" si="43">+B90-B89</f>
         <v>-2.2654483828302013E-3</v>
       </c>
       <c r="C108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1.1749076393788027E-3</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.1988755028680418E-4</v>
       </c>
       <c r="E108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.8839207367059869E-4</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.611240149313597E-3</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.1175649019807979E-3</v>
       </c>
       <c r="H108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1.4488453292833964E-3</v>
       </c>
       <c r="I108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-3.214211306619974E-4</v>
       </c>
       <c r="J108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-9.8616620427560003E-4</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-5.4710984457840423E-4</v>
       </c>
       <c r="L108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-5.219552913200004E-5</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.7910350910217004E-3</v>
       </c>
       <c r="N108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1.641843213668101E-3</v>
       </c>
       <c r="O108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-3.6343403256937981E-3</v>
       </c>
       <c r="P108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1.9068523118200009E-3</v>
       </c>
       <c r="Q108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-6.9807079405649619E-4</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.689314970384403E-3</v>
       </c>
       <c r="S108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-4.336656130552799E-3</v>
       </c>
       <c r="T108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-9.8690149820020168E-4</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-1.9516117486848977E-3</v>
       </c>
     </row>
@@ -9629,10 +10337,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B39:U53">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"True Negative"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"True Positive"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output/msa_df_accuracy_table.xlsx
+++ b/output/msa_df_accuracy_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C9CF0-17B2-444D-B7E5-F8F058B90D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9189B0-D701-4194-9635-882B53AFA77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
   <si>
     <t>Atlanta</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>CR end to end (end 05 to end 06)</t>
-  </si>
-  <si>
-    <t>Strategy Outperformance</t>
-  </si>
-  <si>
-    <t>StartingCR</t>
   </si>
 </sst>
 </file>
@@ -716,7 +710,27 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -785,13 +799,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Strat Performs better on lower</a:t>
+              <a:t>Strat out(under) performance vs Buy &amp; Hold</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> CRs</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -827,824 +836,174 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>msa_df_flag!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>strat out(under) performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{041CB1DF-C10F-461E-B321-0E1118669F05}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A9D0F9B3-7F7F-4603-B4C6-E9FC0ED85C18}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1A064A31-DF05-43BD-AC2F-62B21C3239BF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B3BC7273-E041-49E2-9F4F-87F52806DB70}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DABBAE39-2F0A-41E7-B7F3-AED0979400BD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1F92868F-C0C8-40C9-BEDA-42C50C3E7C96}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3AFC2BD0-8182-446F-8EFC-ECC58A5A0F83}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ECA15076-C696-48AE-AE79-6E9836A816E8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FFDCDB87-02CF-4C85-B429-9CF8156B2FBC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.9886480718763188E-2"/>
-                  <c:y val="-2.7777777777777863E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5E728B3E-EFE3-408C-8206-BA08D500A29D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B84DC3DE-AB00-4BD4-BB45-8A02FA64DFF2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.8518518518518517E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FE487A75-C8CD-4CC1-9F91-FDFAE925A5B0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-1E51-4C8D-B283-3682A48D444D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.8204813602039328E-2"/>
-                  <c:y val="-0.51470290172061828"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>msa_df_flag!$Y$70:$Y$89</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>SanDiego</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Miami</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NewYork</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Phoenix</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Detroit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SanFrancisco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tampa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LosAngeles</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dallas</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Denver</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>StLouis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Baltimore</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Chicago</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Boston</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Minneapolis</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Seattle</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Atlanta</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Philadelphia</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>WashingtonDC</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Houston</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>msa_df_flag!$X$73:$X$92</c:f>
+              <c:f>msa_df_flag!$X$70:$X$89</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6.56853648392203E-2</c:v>
+                  <c:v>1.8690297687607345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8234567197658002E-2</c:v>
+                  <c:v>1.635966844972792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4366622098576104E-2</c:v>
+                  <c:v>1.075708759111635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.44981918732635E-2</c:v>
+                  <c:v>0.80336873602153713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6130509136852006E-2</c:v>
+                  <c:v>0.63997393592636742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6590900744514998E-2</c:v>
+                  <c:v>0.39052887397196256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4546459226739294E-2</c:v>
+                  <c:v>0.37071626444984029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.14931804494124E-2</c:v>
+                  <c:v>0.35948881871059912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4218996551731402E-2</c:v>
+                  <c:v>0.35906272042060583</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1021976384384398E-2</c:v>
+                  <c:v>0.26674142688427094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.44199395766646E-2</c:v>
+                  <c:v>0.1241318922593222</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.6300580220185102E-2</c:v>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>-7.4171418459878957E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4974313343064097E-2</c:v>
+                  <c:v>-8.2369753394651468E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.7788216139723701E-2</c:v>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>-8.4034089348028917E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7407207633789097E-2</c:v>
+                  <c:v>-0.19068719018436686</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9381859630104601E-2</c:v>
+                  <c:v>-0.20195623668708473</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6465367791983002E-2</c:v>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>-0.25935693250475655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7071548821548796E-2</c:v>
+                  <c:v>-0.3754592711514928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3319946257295104E-2</c:v>
+                  <c:v>-0.42887445408766689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.7079610448183798E-2</c:v>
+                  <c:v>-0.46140809794129778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>msa_df_flag!$Y$73:$Y$92</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.15144863288279109</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11827812366767798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.4003061805737347E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.10728422065755572</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56332807541223162</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51192642756535567</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92576845097068139</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.45350243685347147</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49137770522605151</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7425550758754325</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.18817527234182485</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74775927556761368</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.29973693978419291</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4193582215655791</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.7682790693358452</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.49804890930928658</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.0006187760486904E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64389593755008345</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.46418707052483588</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.29441348873434547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>msa_df_flag!$W$73:$W$92</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="20"/>
-                  <c:pt idx="0">
-                    <c:v>Atlanta</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Baltimore</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Boston</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Chicago</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Dallas</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Denver</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Detroit</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Houston</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>LosAngeles</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Miami</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Minneapolis</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>NewYork</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Philadelphia</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Phoenix</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>SanDiego</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>SanFrancisco</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Seattle</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>StLouis</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Tampa</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>WashingtonDC</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E75-43EE-B675-A98C6975117F}"/>
+              <c16:uniqueId val="{00000000-555D-4E24-8AA1-8398134B6C2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1656,110 +1015,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1989464688"/>
-        <c:axId val="1989465520"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1989464688"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1748760240"/>
+        <c:axId val="1748761488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1748760240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>MSA's starting</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Cap Rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.40976462445567108"/>
-              <c:y val="0.90645815106445027"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1786,12 +1064,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1989465520"/>
+        <c:crossAx val="1748761488"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1989465520"/>
+        <c:axId val="1748761488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,75 +1092,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Strat Outperformance vs Buy and Hold</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1903,9 +1123,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1989464688"/>
+        <c:crossAx val="1748760240"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2000,7 +1220,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2027,8 +1247,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2129,7 +1349,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2161,10 +1381,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2204,23 +1424,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2325,8 +1544,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2458,20 +1677,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2485,17 +1703,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2519,29 +1726,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>309996</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83B2A40-7B3C-4F9E-879C-2B833243D4AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B61020-BC36-43F7-A3E2-05DCD649BD2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2855,13 +2060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y109"/>
+  <dimension ref="A1:Y114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S79" sqref="S79"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7519,20 +6724,35 @@
       <c r="U69" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="X69" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
+      <c r="X70" s="1">
+        <v>1.8690297687607345</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
+      <c r="X71" s="1">
+        <v>1.635966844972792</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="X72" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>38</v>
+      <c r="X72" s="1">
+        <v>1.075708759111635</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -7599,14 +6819,11 @@
       <c r="U73" t="s">
         <v>18</v>
       </c>
-      <c r="W73" t="s">
-        <v>0</v>
-      </c>
       <c r="X73" s="1">
-        <v>6.56853648392203E-2</v>
-      </c>
-      <c r="Y73" s="1">
-        <v>-0.15144863288279109</v>
+        <v>0.80336873602153713</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -7673,14 +6890,11 @@
       <c r="U74" s="1">
         <v>5.7079610448183798E-2</v>
       </c>
-      <c r="W74" t="s">
-        <v>1</v>
-      </c>
       <c r="X74" s="1">
-        <v>5.8234567197658002E-2</v>
-      </c>
-      <c r="Y74" s="1">
-        <v>0.11827812366767798</v>
+        <v>0.63997393592636742</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -7747,14 +6961,11 @@
       <c r="U75" s="1">
         <v>5.9893916237402103E-2</v>
       </c>
-      <c r="W75" t="s">
-        <v>2</v>
-      </c>
       <c r="X75" s="1">
-        <v>6.4366622098576104E-2</v>
-      </c>
-      <c r="Y75" s="1">
-        <v>-7.4003061805737347E-2</v>
+        <v>0.39052887397196256</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -7821,14 +7032,11 @@
       <c r="U76" s="1">
         <v>5.6550714743074902E-2</v>
       </c>
-      <c r="W76" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="1">
-        <v>6.44981918732635E-2</v>
-      </c>
-      <c r="Y76" s="1">
-        <v>-0.10728422065755572</v>
+        <v>0.37071626444984029</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -7895,14 +7103,11 @@
       <c r="U77" s="1">
         <v>5.8980217508993397E-2</v>
       </c>
-      <c r="W77" t="s">
-        <v>4</v>
-      </c>
       <c r="X77" s="1">
-        <v>6.6130509136852006E-2</v>
-      </c>
-      <c r="Y77" s="1">
-        <v>0.56332807541223162</v>
+        <v>0.35948881871059912</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
@@ -7969,14 +7174,11 @@
       <c r="U78" s="1">
         <v>6.6536825836332095E-2</v>
       </c>
-      <c r="W78" t="s">
-        <v>5</v>
-      </c>
       <c r="X78" s="1">
-        <v>5.6590900744514998E-2</v>
-      </c>
-      <c r="Y78" s="1">
-        <v>0.51192642756535567</v>
+        <v>0.35906272042060583</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
@@ -8043,14 +7245,11 @@
       <c r="U79" s="1">
         <v>6.17983841921989E-2</v>
       </c>
-      <c r="W79" t="s">
-        <v>19</v>
-      </c>
       <c r="X79" s="1">
-        <v>6.4546459226739294E-2</v>
-      </c>
-      <c r="Y79" s="1">
-        <v>0.92576845097068139</v>
+        <v>0.26674142688427094</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
@@ -8117,14 +7316,11 @@
       <c r="U80" s="1">
         <v>5.8613415713973598E-2</v>
       </c>
-      <c r="W80" t="s">
-        <v>6</v>
-      </c>
       <c r="X80" s="1">
-        <v>7.14931804494124E-2</v>
-      </c>
-      <c r="Y80" s="1">
-        <v>-0.45350243685347147</v>
+        <v>0.1241318922593222</v>
+      </c>
+      <c r="Y80" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -8191,14 +7387,11 @@
       <c r="U81" s="1">
         <v>5.6885440454410602E-2</v>
       </c>
-      <c r="W81" t="s">
-        <v>7</v>
-      </c>
-      <c r="X81" s="1">
-        <v>5.4218996551731402E-2</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>0.49137770522605151</v>
+      <c r="X81">
+        <v>-7.4171418459878957E-2</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -8265,14 +7458,11 @@
       <c r="U82" s="1">
         <v>5.6753917715180499E-2</v>
       </c>
-      <c r="W82" t="s">
-        <v>8</v>
-      </c>
       <c r="X82" s="1">
-        <v>6.1021976384384398E-2</v>
-      </c>
-      <c r="Y82" s="1">
-        <v>1.7425550758754325</v>
+        <v>-8.2369753394651468E-2</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -8339,14 +7529,11 @@
       <c r="U83" s="1">
         <v>5.60952170186916E-2</v>
       </c>
-      <c r="W83" t="s">
-        <v>9</v>
-      </c>
-      <c r="X83" s="1">
-        <v>6.44199395766646E-2</v>
-      </c>
-      <c r="Y83" s="1">
-        <v>-0.18817527234182485</v>
+      <c r="X83">
+        <v>-8.4034089348028917E-2</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -8413,14 +7600,11 @@
       <c r="U84" s="1">
         <v>5.4728025813493897E-2</v>
       </c>
-      <c r="W84" t="s">
-        <v>10</v>
-      </c>
       <c r="X84" s="1">
-        <v>5.6300580220185102E-2</v>
-      </c>
-      <c r="Y84" s="1">
-        <v>0.74775927556761368</v>
+        <v>-0.19068719018436686</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -8487,14 +7671,11 @@
       <c r="U85" s="1">
         <v>5.36783642779926E-2</v>
       </c>
-      <c r="W85" t="s">
-        <v>11</v>
-      </c>
       <c r="X85" s="1">
-        <v>6.4974313343064097E-2</v>
-      </c>
-      <c r="Y85" s="1">
-        <v>-0.29973693978419291</v>
+        <v>-0.20195623668708473</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -8561,14 +7742,11 @@
       <c r="U86" s="1">
         <v>5.3389030754752001E-2</v>
       </c>
-      <c r="W86" t="s">
-        <v>12</v>
-      </c>
-      <c r="X86" s="1">
-        <v>5.7788216139723701E-2</v>
-      </c>
-      <c r="Y86" s="1">
-        <v>1.4193582215655791</v>
+      <c r="X86">
+        <v>-0.25935693250475655</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -8635,14 +7813,11 @@
       <c r="U87" s="1">
         <v>5.2957804018772703E-2</v>
       </c>
-      <c r="W87" t="s">
-        <v>13</v>
-      </c>
       <c r="X87" s="1">
-        <v>4.7407207633789097E-2</v>
-      </c>
-      <c r="Y87" s="1">
-        <v>3.7682790693358452</v>
+        <v>-0.3754592711514928</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -8709,14 +7884,11 @@
       <c r="U88" s="1">
         <v>5.3001447081666E-2</v>
       </c>
-      <c r="W88" t="s">
-        <v>14</v>
-      </c>
       <c r="X88" s="1">
-        <v>4.9381859630104601E-2</v>
-      </c>
-      <c r="Y88" s="1">
-        <v>0.49804890930928658</v>
+        <v>-0.42887445408766689</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -8783,14 +7955,11 @@
       <c r="U89" s="1">
         <v>4.8790101872607801E-2</v>
       </c>
-      <c r="W89" t="s">
-        <v>15</v>
-      </c>
       <c r="X89" s="1">
-        <v>5.6465367791983002E-2</v>
-      </c>
-      <c r="Y89" s="1">
-        <v>-2.0006187760486904E-2</v>
+        <v>-0.46140809794129778</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -8857,26 +8026,12 @@
       <c r="U90" s="1">
         <v>4.6838490123922903E-2</v>
       </c>
-      <c r="W90" t="s">
-        <v>16</v>
-      </c>
-      <c r="X90" s="1">
-        <v>6.7071548821548796E-2</v>
-      </c>
-      <c r="Y90" s="1">
-        <v>0.64389593755008345</v>
-      </c>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W91" t="s">
-        <v>17</v>
-      </c>
-      <c r="X91" s="1">
-        <v>6.3319946257295104E-2</v>
-      </c>
-      <c r="Y91" s="1">
-        <v>0.46418707052483588</v>
-      </c>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -8942,15 +8097,8 @@
       <c r="U92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W92" t="s">
-        <v>18</v>
-      </c>
-      <c r="X92" s="1">
-        <v>5.7079610448183798E-2</v>
-      </c>
-      <c r="Y92" s="1">
-        <v>-0.29441348873434547</v>
-      </c>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
@@ -9206,6 +8354,8 @@
         <f t="shared" si="30"/>
         <v>2.4295027659184953E-3</v>
       </c>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
@@ -9291,8 +8441,10 @@
         <f t="shared" si="31"/>
         <v>7.5566083273386972E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2009</v>
       </c>
@@ -9376,8 +8528,10 @@
         <f t="shared" si="32"/>
         <v>-4.7384416441331942E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2010</v>
       </c>
@@ -9461,8 +8615,10 @@
         <f t="shared" si="33"/>
         <v>-3.1849684782253029E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2011</v>
       </c>
@@ -9546,8 +8702,10 @@
         <f t="shared" si="34"/>
         <v>-1.7279752595629957E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2012</v>
       </c>
@@ -9631,8 +8789,10 @@
         <f t="shared" si="35"/>
         <v>-1.3152273923010271E-4</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2013</v>
       </c>
@@ -9716,8 +8876,10 @@
         <f t="shared" si="36"/>
         <v>-6.5870069648889945E-4</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2014</v>
       </c>
@@ -9801,8 +8963,10 @@
         <f t="shared" si="37"/>
         <v>-1.3671912051977028E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2015</v>
       </c>
@@ -9886,8 +9050,10 @@
         <f t="shared" si="38"/>
         <v>-1.0496615355012964E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2016</v>
       </c>
@@ -9971,8 +9137,10 @@
         <f t="shared" si="39"/>
         <v>-2.8933352324059941E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2017</v>
       </c>
@@ -10056,8 +9224,10 @@
         <f t="shared" si="40"/>
         <v>-4.3122673597929817E-4</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2018</v>
       </c>
@@ -10141,8 +9311,10 @@
         <f t="shared" si="41"/>
         <v>4.3643062893297668E-5</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2019</v>
       </c>
@@ -10226,8 +9398,10 @@
         <f t="shared" si="42"/>
         <v>-4.2113452090581996E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2020</v>
       </c>
@@ -10311,8 +9485,10 @@
         <f t="shared" si="43"/>
         <v>-1.9516117486848977E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -10334,14 +9510,51 @@
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+    </row>
+    <row r="113" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+    </row>
+    <row r="114" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X70:Y89">
+    <sortCondition descending="1" ref="X70:X89"/>
+  </sortState>
   <conditionalFormatting sqref="B39:U53">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"True Negative"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"True Positive"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:V67">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
